--- a/stock_historical_data/1wk/YESBANK.NS.xlsx
+++ b/stock_historical_data/1wk/YESBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:P987"/>
+  <dimension ref="A1:Q988"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -518,6 +518,11 @@
           <t>two_line_structure</t>
         </is>
       </c>
+      <c r="Q1" s="1" t="inlineStr">
+        <is>
+          <t>backup</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -568,6 +573,9 @@
       <c r="P2" t="n">
         <v>0</v>
       </c>
+      <c r="Q2" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -618,6 +626,9 @@
       <c r="P3" t="n">
         <v>0</v>
       </c>
+      <c r="Q3" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -668,6 +679,9 @@
       <c r="P4" t="n">
         <v>0</v>
       </c>
+      <c r="Q4" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -718,6 +732,9 @@
       <c r="P5" t="n">
         <v>0</v>
       </c>
+      <c r="Q5" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -768,6 +785,9 @@
       <c r="P6" t="n">
         <v>0</v>
       </c>
+      <c r="Q6" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -818,6 +838,9 @@
       <c r="P7" t="n">
         <v>0</v>
       </c>
+      <c r="Q7" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -868,6 +891,9 @@
       <c r="P8" t="n">
         <v>0</v>
       </c>
+      <c r="Q8" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -918,6 +944,9 @@
       <c r="P9" t="n">
         <v>0</v>
       </c>
+      <c r="Q9" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -968,6 +997,9 @@
       <c r="P10" t="n">
         <v>0</v>
       </c>
+      <c r="Q10" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1018,6 +1050,9 @@
       <c r="P11" t="n">
         <v>0</v>
       </c>
+      <c r="Q11" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1068,6 +1103,9 @@
       <c r="P12" t="n">
         <v>0</v>
       </c>
+      <c r="Q12" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1118,6 +1156,9 @@
       <c r="P13" t="n">
         <v>0</v>
       </c>
+      <c r="Q13" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1168,6 +1209,9 @@
       <c r="P14" t="n">
         <v>0</v>
       </c>
+      <c r="Q14" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1218,6 +1262,9 @@
       <c r="P15" t="n">
         <v>0</v>
       </c>
+      <c r="Q15" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1268,6 +1315,9 @@
       <c r="P16" t="n">
         <v>0</v>
       </c>
+      <c r="Q16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1318,6 +1368,9 @@
       <c r="P17" t="n">
         <v>0</v>
       </c>
+      <c r="Q17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1368,6 +1421,9 @@
       <c r="P18" t="n">
         <v>0</v>
       </c>
+      <c r="Q18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1418,6 +1474,9 @@
       <c r="P19" t="n">
         <v>0</v>
       </c>
+      <c r="Q19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1468,6 +1527,9 @@
       <c r="P20" t="n">
         <v>0</v>
       </c>
+      <c r="Q20" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1518,6 +1580,9 @@
       <c r="P21" t="n">
         <v>0</v>
       </c>
+      <c r="Q21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1568,6 +1633,9 @@
       <c r="P22" t="n">
         <v>0</v>
       </c>
+      <c r="Q22" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1618,6 +1686,9 @@
       <c r="P23" t="n">
         <v>0</v>
       </c>
+      <c r="Q23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1668,6 +1739,9 @@
       <c r="P24" t="n">
         <v>0</v>
       </c>
+      <c r="Q24" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1718,6 +1792,9 @@
       <c r="P25" t="n">
         <v>0</v>
       </c>
+      <c r="Q25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1768,6 +1845,9 @@
       <c r="P26" t="n">
         <v>0</v>
       </c>
+      <c r="Q26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1818,6 +1898,9 @@
       <c r="P27" t="n">
         <v>0</v>
       </c>
+      <c r="Q27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1868,6 +1951,9 @@
       <c r="P28" t="n">
         <v>0</v>
       </c>
+      <c r="Q28" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1918,6 +2004,9 @@
       <c r="P29" t="n">
         <v>0</v>
       </c>
+      <c r="Q29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1968,6 +2057,9 @@
       <c r="P30" t="n">
         <v>0</v>
       </c>
+      <c r="Q30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -2018,6 +2110,9 @@
       <c r="P31" t="n">
         <v>0</v>
       </c>
+      <c r="Q31" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -2068,6 +2163,9 @@
       <c r="P32" t="n">
         <v>0</v>
       </c>
+      <c r="Q32" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -2118,6 +2216,9 @@
       <c r="P33" t="n">
         <v>0</v>
       </c>
+      <c r="Q33" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -2168,6 +2269,9 @@
       <c r="P34" t="n">
         <v>0</v>
       </c>
+      <c r="Q34" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -2218,6 +2322,9 @@
       <c r="P35" t="n">
         <v>0</v>
       </c>
+      <c r="Q35" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -2268,6 +2375,9 @@
       <c r="P36" t="n">
         <v>0</v>
       </c>
+      <c r="Q36" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -2318,6 +2428,9 @@
       <c r="P37" t="n">
         <v>0</v>
       </c>
+      <c r="Q37" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -2368,6 +2481,9 @@
       <c r="P38" t="n">
         <v>0</v>
       </c>
+      <c r="Q38" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -2418,6 +2534,9 @@
       <c r="P39" t="n">
         <v>0</v>
       </c>
+      <c r="Q39" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -2468,6 +2587,9 @@
       <c r="P40" t="n">
         <v>0</v>
       </c>
+      <c r="Q40" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -2518,6 +2640,9 @@
       <c r="P41" t="n">
         <v>0</v>
       </c>
+      <c r="Q41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -2568,6 +2693,9 @@
       <c r="P42" t="n">
         <v>0</v>
       </c>
+      <c r="Q42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -2618,6 +2746,9 @@
       <c r="P43" t="n">
         <v>0</v>
       </c>
+      <c r="Q43" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -2668,6 +2799,9 @@
       <c r="P44" t="n">
         <v>0</v>
       </c>
+      <c r="Q44" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -2718,6 +2852,9 @@
       <c r="P45" t="n">
         <v>0</v>
       </c>
+      <c r="Q45" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -2768,6 +2905,9 @@
       <c r="P46" t="n">
         <v>0</v>
       </c>
+      <c r="Q46" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -2818,6 +2958,9 @@
       <c r="P47" t="n">
         <v>0</v>
       </c>
+      <c r="Q47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -2868,6 +3011,9 @@
       <c r="P48" t="n">
         <v>0</v>
       </c>
+      <c r="Q48" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -2918,6 +3064,9 @@
       <c r="P49" t="n">
         <v>0</v>
       </c>
+      <c r="Q49" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -2968,6 +3117,9 @@
       <c r="P50" t="n">
         <v>0</v>
       </c>
+      <c r="Q50" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -3018,6 +3170,9 @@
       <c r="P51" t="n">
         <v>0</v>
       </c>
+      <c r="Q51" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -3068,6 +3223,9 @@
       <c r="P52" t="n">
         <v>0</v>
       </c>
+      <c r="Q52" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -3118,6 +3276,9 @@
       <c r="P53" t="n">
         <v>0</v>
       </c>
+      <c r="Q53" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -3168,6 +3329,9 @@
       <c r="P54" t="n">
         <v>0</v>
       </c>
+      <c r="Q54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -3218,6 +3382,9 @@
       <c r="P55" t="n">
         <v>0</v>
       </c>
+      <c r="Q55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" s="2" t="n">
@@ -3268,6 +3435,9 @@
       <c r="P56" t="n">
         <v>0</v>
       </c>
+      <c r="Q56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" s="2" t="n">
@@ -3318,6 +3488,9 @@
       <c r="P57" t="n">
         <v>0</v>
       </c>
+      <c r="Q57" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" s="2" t="n">
@@ -3368,6 +3541,9 @@
       <c r="P58" t="n">
         <v>0</v>
       </c>
+      <c r="Q58" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" s="2" t="n">
@@ -3418,6 +3594,9 @@
       <c r="P59" t="n">
         <v>0</v>
       </c>
+      <c r="Q59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" s="2" t="n">
@@ -3468,6 +3647,9 @@
       <c r="P60" t="n">
         <v>0</v>
       </c>
+      <c r="Q60" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" s="2" t="n">
@@ -3518,6 +3700,9 @@
       <c r="P61" t="n">
         <v>0</v>
       </c>
+      <c r="Q61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" s="2" t="n">
@@ -3568,6 +3753,9 @@
       <c r="P62" t="n">
         <v>0</v>
       </c>
+      <c r="Q62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" s="2" t="n">
@@ -3618,6 +3806,9 @@
       <c r="P63" t="n">
         <v>0</v>
       </c>
+      <c r="Q63" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" s="2" t="n">
@@ -3668,6 +3859,9 @@
       <c r="P64" t="n">
         <v>0</v>
       </c>
+      <c r="Q64" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" s="2" t="n">
@@ -3718,6 +3912,9 @@
       <c r="P65" t="n">
         <v>0</v>
       </c>
+      <c r="Q65" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" s="2" t="n">
@@ -3768,6 +3965,9 @@
       <c r="P66" t="n">
         <v>0</v>
       </c>
+      <c r="Q66" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" s="2" t="n">
@@ -3818,6 +4018,9 @@
       <c r="P67" t="n">
         <v>0</v>
       </c>
+      <c r="Q67" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" s="2" t="n">
@@ -3868,6 +4071,9 @@
       <c r="P68" t="n">
         <v>0</v>
       </c>
+      <c r="Q68" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" s="2" t="n">
@@ -3918,6 +4124,9 @@
       <c r="P69" t="n">
         <v>0</v>
       </c>
+      <c r="Q69" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" s="2" t="n">
@@ -3968,6 +4177,9 @@
       <c r="P70" t="n">
         <v>0</v>
       </c>
+      <c r="Q70" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" s="2" t="n">
@@ -4018,6 +4230,9 @@
       <c r="P71" t="n">
         <v>0</v>
       </c>
+      <c r="Q71" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" s="2" t="n">
@@ -4068,6 +4283,9 @@
       <c r="P72" t="n">
         <v>0</v>
       </c>
+      <c r="Q72" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" s="2" t="n">
@@ -4118,6 +4336,9 @@
       <c r="P73" t="n">
         <v>0</v>
       </c>
+      <c r="Q73" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" s="2" t="n">
@@ -4168,6 +4389,9 @@
       <c r="P74" t="n">
         <v>0</v>
       </c>
+      <c r="Q74" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" s="2" t="n">
@@ -4218,6 +4442,9 @@
       <c r="P75" t="n">
         <v>0</v>
       </c>
+      <c r="Q75" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" s="2" t="n">
@@ -4268,6 +4495,9 @@
       <c r="P76" t="n">
         <v>0</v>
       </c>
+      <c r="Q76" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" s="2" t="n">
@@ -4318,6 +4548,9 @@
       <c r="P77" t="n">
         <v>0</v>
       </c>
+      <c r="Q77" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" s="2" t="n">
@@ -4368,6 +4601,9 @@
       <c r="P78" t="n">
         <v>0</v>
       </c>
+      <c r="Q78" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" s="2" t="n">
@@ -4418,6 +4654,9 @@
       <c r="P79" t="n">
         <v>0</v>
       </c>
+      <c r="Q79" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" s="2" t="n">
@@ -4468,6 +4707,9 @@
       <c r="P80" t="n">
         <v>0</v>
       </c>
+      <c r="Q80" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" s="2" t="n">
@@ -4518,6 +4760,9 @@
       <c r="P81" t="n">
         <v>0</v>
       </c>
+      <c r="Q81" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" s="2" t="n">
@@ -4568,6 +4813,9 @@
       <c r="P82" t="n">
         <v>0</v>
       </c>
+      <c r="Q82" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" s="2" t="n">
@@ -4618,6 +4866,9 @@
       <c r="P83" t="n">
         <v>0</v>
       </c>
+      <c r="Q83" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" s="2" t="n">
@@ -4668,6 +4919,9 @@
       <c r="P84" t="n">
         <v>0</v>
       </c>
+      <c r="Q84" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" s="2" t="n">
@@ -4718,6 +4972,9 @@
       <c r="P85" t="n">
         <v>0</v>
       </c>
+      <c r="Q85" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" s="2" t="n">
@@ -4768,6 +5025,9 @@
       <c r="P86" t="n">
         <v>0</v>
       </c>
+      <c r="Q86" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" s="2" t="n">
@@ -4818,6 +5078,9 @@
       <c r="P87" t="n">
         <v>0</v>
       </c>
+      <c r="Q87" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" s="2" t="n">
@@ -4868,6 +5131,9 @@
       <c r="P88" t="n">
         <v>0</v>
       </c>
+      <c r="Q88" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" s="2" t="n">
@@ -4918,6 +5184,9 @@
       <c r="P89" t="n">
         <v>0</v>
       </c>
+      <c r="Q89" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" s="2" t="n">
@@ -4968,6 +5237,9 @@
       <c r="P90" t="n">
         <v>0</v>
       </c>
+      <c r="Q90" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" s="2" t="n">
@@ -5018,6 +5290,9 @@
       <c r="P91" t="n">
         <v>0</v>
       </c>
+      <c r="Q91" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" s="2" t="n">
@@ -5068,6 +5343,9 @@
       <c r="P92" t="n">
         <v>0</v>
       </c>
+      <c r="Q92" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" s="2" t="n">
@@ -5118,6 +5396,9 @@
       <c r="P93" t="n">
         <v>0</v>
       </c>
+      <c r="Q93" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" s="2" t="n">
@@ -5168,6 +5449,9 @@
       <c r="P94" t="n">
         <v>0</v>
       </c>
+      <c r="Q94" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" s="2" t="n">
@@ -5218,6 +5502,9 @@
       <c r="P95" t="n">
         <v>0</v>
       </c>
+      <c r="Q95" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" s="2" t="n">
@@ -5268,6 +5555,9 @@
       <c r="P96" t="n">
         <v>0</v>
       </c>
+      <c r="Q96" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" s="2" t="n">
@@ -5318,6 +5608,9 @@
       <c r="P97" t="n">
         <v>0</v>
       </c>
+      <c r="Q97" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" s="2" t="n">
@@ -5368,6 +5661,9 @@
       <c r="P98" t="n">
         <v>0</v>
       </c>
+      <c r="Q98" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" s="2" t="n">
@@ -5418,6 +5714,9 @@
       <c r="P99" t="n">
         <v>0</v>
       </c>
+      <c r="Q99" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" s="2" t="n">
@@ -5468,6 +5767,9 @@
       <c r="P100" t="n">
         <v>0</v>
       </c>
+      <c r="Q100" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" s="2" t="n">
@@ -5518,6 +5820,9 @@
       <c r="P101" t="n">
         <v>0</v>
       </c>
+      <c r="Q101" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" s="2" t="n">
@@ -5568,6 +5873,9 @@
       <c r="P102" t="n">
         <v>0</v>
       </c>
+      <c r="Q102" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" s="2" t="n">
@@ -5618,6 +5926,9 @@
       <c r="P103" t="n">
         <v>0</v>
       </c>
+      <c r="Q103" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" s="2" t="n">
@@ -5668,6 +5979,9 @@
       <c r="P104" t="n">
         <v>0</v>
       </c>
+      <c r="Q104" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" s="2" t="n">
@@ -5718,6 +6032,9 @@
       <c r="P105" t="n">
         <v>0</v>
       </c>
+      <c r="Q105" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" s="2" t="n">
@@ -5768,6 +6085,9 @@
       <c r="P106" t="n">
         <v>0</v>
       </c>
+      <c r="Q106" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" s="2" t="n">
@@ -5818,6 +6138,9 @@
       <c r="P107" t="n">
         <v>0</v>
       </c>
+      <c r="Q107" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" s="2" t="n">
@@ -5868,6 +6191,9 @@
       <c r="P108" t="n">
         <v>0</v>
       </c>
+      <c r="Q108" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" s="2" t="n">
@@ -5918,6 +6244,9 @@
       <c r="P109" t="n">
         <v>0</v>
       </c>
+      <c r="Q109" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" s="2" t="n">
@@ -5968,6 +6297,9 @@
       <c r="P110" t="n">
         <v>0</v>
       </c>
+      <c r="Q110" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" s="2" t="n">
@@ -6018,6 +6350,9 @@
       <c r="P111" t="n">
         <v>0</v>
       </c>
+      <c r="Q111" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" s="2" t="n">
@@ -6068,6 +6403,9 @@
       <c r="P112" t="n">
         <v>0</v>
       </c>
+      <c r="Q112" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" s="2" t="n">
@@ -6118,6 +6456,9 @@
       <c r="P113" t="n">
         <v>0</v>
       </c>
+      <c r="Q113" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" s="2" t="n">
@@ -6168,6 +6509,9 @@
       <c r="P114" t="n">
         <v>0</v>
       </c>
+      <c r="Q114" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" s="2" t="n">
@@ -6218,6 +6562,9 @@
       <c r="P115" t="n">
         <v>0</v>
       </c>
+      <c r="Q115" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" s="2" t="n">
@@ -6268,6 +6615,9 @@
       <c r="P116" t="n">
         <v>0</v>
       </c>
+      <c r="Q116" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" s="2" t="n">
@@ -6318,6 +6668,9 @@
       <c r="P117" t="n">
         <v>0</v>
       </c>
+      <c r="Q117" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" s="2" t="n">
@@ -6368,6 +6721,9 @@
       <c r="P118" t="n">
         <v>0</v>
       </c>
+      <c r="Q118" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" s="2" t="n">
@@ -6418,6 +6774,9 @@
       <c r="P119" t="n">
         <v>0</v>
       </c>
+      <c r="Q119" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" s="2" t="n">
@@ -6468,6 +6827,9 @@
       <c r="P120" t="n">
         <v>0</v>
       </c>
+      <c r="Q120" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" s="2" t="n">
@@ -6518,6 +6880,9 @@
       <c r="P121" t="n">
         <v>0</v>
       </c>
+      <c r="Q121" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" s="2" t="n">
@@ -6568,6 +6933,9 @@
       <c r="P122" t="n">
         <v>0</v>
       </c>
+      <c r="Q122" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" s="2" t="n">
@@ -6618,6 +6986,9 @@
       <c r="P123" t="n">
         <v>0</v>
       </c>
+      <c r="Q123" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" s="2" t="n">
@@ -6668,6 +7039,9 @@
       <c r="P124" t="n">
         <v>0</v>
       </c>
+      <c r="Q124" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" s="2" t="n">
@@ -6718,6 +7092,9 @@
       <c r="P125" t="n">
         <v>0</v>
       </c>
+      <c r="Q125" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" s="2" t="n">
@@ -6768,6 +7145,9 @@
       <c r="P126" t="n">
         <v>0</v>
       </c>
+      <c r="Q126" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" s="2" t="n">
@@ -6818,6 +7198,9 @@
       <c r="P127" t="n">
         <v>0</v>
       </c>
+      <c r="Q127" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" s="2" t="n">
@@ -6868,6 +7251,9 @@
       <c r="P128" t="n">
         <v>0</v>
       </c>
+      <c r="Q128" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" s="2" t="n">
@@ -6918,6 +7304,9 @@
       <c r="P129" t="n">
         <v>0</v>
       </c>
+      <c r="Q129" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" s="2" t="n">
@@ -6968,6 +7357,9 @@
       <c r="P130" t="n">
         <v>0</v>
       </c>
+      <c r="Q130" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" s="2" t="n">
@@ -7018,6 +7410,9 @@
       <c r="P131" t="n">
         <v>0</v>
       </c>
+      <c r="Q131" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" s="2" t="n">
@@ -7068,6 +7463,9 @@
       <c r="P132" t="n">
         <v>0</v>
       </c>
+      <c r="Q132" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" s="2" t="n">
@@ -7118,6 +7516,9 @@
       <c r="P133" t="n">
         <v>0</v>
       </c>
+      <c r="Q133" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" s="2" t="n">
@@ -7168,6 +7569,9 @@
       <c r="P134" t="n">
         <v>0</v>
       </c>
+      <c r="Q134" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" s="2" t="n">
@@ -7218,6 +7622,9 @@
       <c r="P135" t="n">
         <v>0</v>
       </c>
+      <c r="Q135" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" s="2" t="n">
@@ -7268,6 +7675,9 @@
       <c r="P136" t="n">
         <v>0</v>
       </c>
+      <c r="Q136" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" s="2" t="n">
@@ -7318,6 +7728,9 @@
       <c r="P137" t="n">
         <v>0</v>
       </c>
+      <c r="Q137" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" s="2" t="n">
@@ -7368,6 +7781,9 @@
       <c r="P138" t="n">
         <v>0</v>
       </c>
+      <c r="Q138" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" s="2" t="n">
@@ -7418,6 +7834,9 @@
       <c r="P139" t="n">
         <v>0</v>
       </c>
+      <c r="Q139" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" s="2" t="n">
@@ -7468,6 +7887,9 @@
       <c r="P140" t="n">
         <v>0</v>
       </c>
+      <c r="Q140" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" s="2" t="n">
@@ -7518,6 +7940,9 @@
       <c r="P141" t="n">
         <v>0</v>
       </c>
+      <c r="Q141" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" s="2" t="n">
@@ -7568,6 +7993,9 @@
       <c r="P142" t="n">
         <v>0</v>
       </c>
+      <c r="Q142" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" s="2" t="n">
@@ -7618,6 +8046,9 @@
       <c r="P143" t="n">
         <v>0</v>
       </c>
+      <c r="Q143" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" s="2" t="n">
@@ -7668,6 +8099,9 @@
       <c r="P144" t="n">
         <v>0</v>
       </c>
+      <c r="Q144" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" s="2" t="n">
@@ -7718,6 +8152,9 @@
       <c r="P145" t="n">
         <v>0</v>
       </c>
+      <c r="Q145" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" s="2" t="n">
@@ -7768,6 +8205,9 @@
       <c r="P146" t="n">
         <v>0</v>
       </c>
+      <c r="Q146" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" s="2" t="n">
@@ -7818,6 +8258,9 @@
       <c r="P147" t="n">
         <v>0</v>
       </c>
+      <c r="Q147" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" s="2" t="n">
@@ -7868,6 +8311,9 @@
       <c r="P148" t="n">
         <v>0</v>
       </c>
+      <c r="Q148" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" s="2" t="n">
@@ -7918,6 +8364,9 @@
       <c r="P149" t="n">
         <v>0</v>
       </c>
+      <c r="Q149" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" s="2" t="n">
@@ -7968,6 +8417,9 @@
       <c r="P150" t="n">
         <v>0</v>
       </c>
+      <c r="Q150" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" s="2" t="n">
@@ -8018,6 +8470,9 @@
       <c r="P151" t="n">
         <v>0</v>
       </c>
+      <c r="Q151" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" s="2" t="n">
@@ -8068,6 +8523,9 @@
       <c r="P152" t="n">
         <v>0</v>
       </c>
+      <c r="Q152" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" s="2" t="n">
@@ -8118,6 +8576,9 @@
       <c r="P153" t="n">
         <v>0</v>
       </c>
+      <c r="Q153" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" s="2" t="n">
@@ -8168,6 +8629,9 @@
       <c r="P154" t="n">
         <v>0</v>
       </c>
+      <c r="Q154" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" s="2" t="n">
@@ -8218,6 +8682,9 @@
       <c r="P155" t="n">
         <v>0</v>
       </c>
+      <c r="Q155" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" s="2" t="n">
@@ -8268,6 +8735,9 @@
       <c r="P156" t="n">
         <v>0</v>
       </c>
+      <c r="Q156" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" s="2" t="n">
@@ -8318,6 +8788,9 @@
       <c r="P157" t="n">
         <v>0</v>
       </c>
+      <c r="Q157" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" s="2" t="n">
@@ -8368,6 +8841,9 @@
       <c r="P158" t="n">
         <v>0</v>
       </c>
+      <c r="Q158" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" s="2" t="n">
@@ -8418,6 +8894,9 @@
       <c r="P159" t="n">
         <v>0</v>
       </c>
+      <c r="Q159" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" s="2" t="n">
@@ -8468,6 +8947,9 @@
       <c r="P160" t="n">
         <v>0</v>
       </c>
+      <c r="Q160" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" s="2" t="n">
@@ -8518,6 +9000,9 @@
       <c r="P161" t="n">
         <v>0</v>
       </c>
+      <c r="Q161" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" s="2" t="n">
@@ -8568,6 +9053,9 @@
       <c r="P162" t="n">
         <v>0</v>
       </c>
+      <c r="Q162" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" s="2" t="n">
@@ -8618,6 +9106,9 @@
       <c r="P163" t="n">
         <v>0</v>
       </c>
+      <c r="Q163" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" s="2" t="n">
@@ -8668,6 +9159,9 @@
       <c r="P164" t="n">
         <v>0</v>
       </c>
+      <c r="Q164" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" s="2" t="n">
@@ -8718,6 +9212,9 @@
       <c r="P165" t="n">
         <v>1</v>
       </c>
+      <c r="Q165" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" s="2" t="n">
@@ -8768,6 +9265,9 @@
       <c r="P166" t="n">
         <v>0</v>
       </c>
+      <c r="Q166" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" s="2" t="n">
@@ -8818,6 +9318,9 @@
       <c r="P167" t="n">
         <v>0</v>
       </c>
+      <c r="Q167" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" s="2" t="n">
@@ -8868,6 +9371,9 @@
       <c r="P168" t="n">
         <v>0</v>
       </c>
+      <c r="Q168" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" s="2" t="n">
@@ -8918,6 +9424,9 @@
       <c r="P169" t="n">
         <v>0</v>
       </c>
+      <c r="Q169" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" s="2" t="n">
@@ -8968,6 +9477,9 @@
       <c r="P170" t="n">
         <v>0</v>
       </c>
+      <c r="Q170" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" s="2" t="n">
@@ -9018,6 +9530,9 @@
       <c r="P171" t="n">
         <v>0</v>
       </c>
+      <c r="Q171" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" s="2" t="n">
@@ -9068,6 +9583,9 @@
       <c r="P172" t="n">
         <v>0</v>
       </c>
+      <c r="Q172" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" s="2" t="n">
@@ -9118,6 +9636,9 @@
       <c r="P173" t="n">
         <v>0</v>
       </c>
+      <c r="Q173" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" s="2" t="n">
@@ -9168,6 +9689,9 @@
       <c r="P174" t="n">
         <v>0</v>
       </c>
+      <c r="Q174" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" s="2" t="n">
@@ -9218,6 +9742,9 @@
       <c r="P175" t="n">
         <v>0</v>
       </c>
+      <c r="Q175" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" s="2" t="n">
@@ -9268,6 +9795,9 @@
       <c r="P176" t="n">
         <v>0</v>
       </c>
+      <c r="Q176" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" s="2" t="n">
@@ -9318,6 +9848,9 @@
       <c r="P177" t="n">
         <v>0</v>
       </c>
+      <c r="Q177" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" s="2" t="n">
@@ -9368,6 +9901,9 @@
       <c r="P178" t="n">
         <v>0</v>
       </c>
+      <c r="Q178" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" s="2" t="n">
@@ -9418,6 +9954,9 @@
       <c r="P179" t="n">
         <v>0</v>
       </c>
+      <c r="Q179" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" s="2" t="n">
@@ -9468,6 +10007,9 @@
       <c r="P180" t="n">
         <v>1</v>
       </c>
+      <c r="Q180" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" s="2" t="n">
@@ -9518,6 +10060,9 @@
       <c r="P181" t="n">
         <v>0</v>
       </c>
+      <c r="Q181" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" s="2" t="n">
@@ -9568,6 +10113,9 @@
       <c r="P182" t="n">
         <v>0</v>
       </c>
+      <c r="Q182" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" s="2" t="n">
@@ -9618,6 +10166,9 @@
       <c r="P183" t="n">
         <v>0</v>
       </c>
+      <c r="Q183" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" s="2" t="n">
@@ -9668,6 +10219,9 @@
       <c r="P184" t="n">
         <v>0</v>
       </c>
+      <c r="Q184" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" s="2" t="n">
@@ -9718,6 +10272,9 @@
       <c r="P185" t="n">
         <v>0</v>
       </c>
+      <c r="Q185" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" s="2" t="n">
@@ -9768,6 +10325,9 @@
       <c r="P186" t="n">
         <v>0</v>
       </c>
+      <c r="Q186" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" s="2" t="n">
@@ -9818,6 +10378,9 @@
       <c r="P187" t="n">
         <v>0</v>
       </c>
+      <c r="Q187" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" s="2" t="n">
@@ -9868,6 +10431,9 @@
       <c r="P188" t="n">
         <v>0</v>
       </c>
+      <c r="Q188" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" s="2" t="n">
@@ -9918,6 +10484,9 @@
       <c r="P189" t="n">
         <v>0</v>
       </c>
+      <c r="Q189" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" s="2" t="n">
@@ -9968,6 +10537,9 @@
       <c r="P190" t="n">
         <v>0</v>
       </c>
+      <c r="Q190" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" s="2" t="n">
@@ -10018,6 +10590,9 @@
       <c r="P191" t="n">
         <v>0</v>
       </c>
+      <c r="Q191" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" s="2" t="n">
@@ -10068,6 +10643,9 @@
       <c r="P192" t="n">
         <v>0</v>
       </c>
+      <c r="Q192" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" s="2" t="n">
@@ -10118,6 +10696,9 @@
       <c r="P193" t="n">
         <v>0</v>
       </c>
+      <c r="Q193" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" s="2" t="n">
@@ -10168,6 +10749,9 @@
       <c r="P194" t="n">
         <v>0</v>
       </c>
+      <c r="Q194" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" s="2" t="n">
@@ -10218,6 +10802,9 @@
       <c r="P195" t="n">
         <v>0</v>
       </c>
+      <c r="Q195" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" s="2" t="n">
@@ -10268,6 +10855,9 @@
       <c r="P196" t="n">
         <v>0</v>
       </c>
+      <c r="Q196" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" s="2" t="n">
@@ -10318,6 +10908,9 @@
       <c r="P197" t="n">
         <v>0</v>
       </c>
+      <c r="Q197" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" s="2" t="n">
@@ -10368,6 +10961,9 @@
       <c r="P198" t="n">
         <v>0</v>
       </c>
+      <c r="Q198" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" s="2" t="n">
@@ -10418,6 +11014,9 @@
       <c r="P199" t="n">
         <v>0</v>
       </c>
+      <c r="Q199" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" s="2" t="n">
@@ -10468,6 +11067,9 @@
       <c r="P200" t="n">
         <v>0</v>
       </c>
+      <c r="Q200" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" s="2" t="n">
@@ -10518,6 +11120,9 @@
       <c r="P201" t="n">
         <v>0</v>
       </c>
+      <c r="Q201" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" s="2" t="n">
@@ -10568,6 +11173,9 @@
       <c r="P202" t="n">
         <v>0</v>
       </c>
+      <c r="Q202" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" s="2" t="n">
@@ -10618,6 +11226,9 @@
       <c r="P203" t="n">
         <v>0</v>
       </c>
+      <c r="Q203" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" s="2" t="n">
@@ -10668,6 +11279,9 @@
       <c r="P204" t="n">
         <v>0</v>
       </c>
+      <c r="Q204" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" s="2" t="n">
@@ -10718,6 +11332,9 @@
       <c r="P205" t="n">
         <v>0</v>
       </c>
+      <c r="Q205" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" s="2" t="n">
@@ -10768,6 +11385,9 @@
       <c r="P206" t="n">
         <v>0</v>
       </c>
+      <c r="Q206" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" s="2" t="n">
@@ -10818,6 +11438,9 @@
       <c r="P207" t="n">
         <v>0</v>
       </c>
+      <c r="Q207" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" s="2" t="n">
@@ -10868,6 +11491,9 @@
       <c r="P208" t="n">
         <v>0</v>
       </c>
+      <c r="Q208" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" s="2" t="n">
@@ -10918,6 +11544,9 @@
       <c r="P209" t="n">
         <v>0</v>
       </c>
+      <c r="Q209" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" s="2" t="n">
@@ -10968,6 +11597,9 @@
       <c r="P210" t="n">
         <v>0</v>
       </c>
+      <c r="Q210" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" s="2" t="n">
@@ -11018,6 +11650,9 @@
       <c r="P211" t="n">
         <v>0</v>
       </c>
+      <c r="Q211" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" s="2" t="n">
@@ -11068,6 +11703,9 @@
       <c r="P212" t="n">
         <v>0</v>
       </c>
+      <c r="Q212" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" s="2" t="n">
@@ -11118,6 +11756,9 @@
       <c r="P213" t="n">
         <v>0</v>
       </c>
+      <c r="Q213" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" s="2" t="n">
@@ -11168,6 +11809,9 @@
       <c r="P214" t="n">
         <v>0</v>
       </c>
+      <c r="Q214" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" s="2" t="n">
@@ -11218,6 +11862,9 @@
       <c r="P215" t="n">
         <v>0</v>
       </c>
+      <c r="Q215" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" s="2" t="n">
@@ -11268,6 +11915,9 @@
       <c r="P216" t="n">
         <v>0</v>
       </c>
+      <c r="Q216" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" s="2" t="n">
@@ -11318,6 +11968,9 @@
       <c r="P217" t="n">
         <v>0</v>
       </c>
+      <c r="Q217" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" s="2" t="n">
@@ -11368,6 +12021,9 @@
       <c r="P218" t="n">
         <v>0</v>
       </c>
+      <c r="Q218" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" s="2" t="n">
@@ -11418,6 +12074,9 @@
       <c r="P219" t="n">
         <v>0</v>
       </c>
+      <c r="Q219" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" s="2" t="n">
@@ -11468,6 +12127,9 @@
       <c r="P220" t="n">
         <v>0</v>
       </c>
+      <c r="Q220" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" s="2" t="n">
@@ -11518,6 +12180,9 @@
       <c r="P221" t="n">
         <v>0</v>
       </c>
+      <c r="Q221" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" s="2" t="n">
@@ -11568,6 +12233,9 @@
       <c r="P222" t="n">
         <v>0</v>
       </c>
+      <c r="Q222" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" s="2" t="n">
@@ -11618,6 +12286,9 @@
       <c r="P223" t="n">
         <v>0</v>
       </c>
+      <c r="Q223" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" s="2" t="n">
@@ -11668,6 +12339,9 @@
       <c r="P224" t="n">
         <v>0</v>
       </c>
+      <c r="Q224" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" s="2" t="n">
@@ -11718,6 +12392,9 @@
       <c r="P225" t="n">
         <v>0</v>
       </c>
+      <c r="Q225" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" s="2" t="n">
@@ -11768,6 +12445,9 @@
       <c r="P226" t="n">
         <v>0</v>
       </c>
+      <c r="Q226" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" s="2" t="n">
@@ -11818,6 +12498,9 @@
       <c r="P227" t="n">
         <v>0</v>
       </c>
+      <c r="Q227" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" s="2" t="n">
@@ -11868,6 +12551,9 @@
       <c r="P228" t="n">
         <v>0</v>
       </c>
+      <c r="Q228" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" s="2" t="n">
@@ -11918,6 +12604,9 @@
       <c r="P229" t="n">
         <v>0</v>
       </c>
+      <c r="Q229" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" s="2" t="n">
@@ -11968,6 +12657,9 @@
       <c r="P230" t="n">
         <v>0</v>
       </c>
+      <c r="Q230" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" s="2" t="n">
@@ -12018,6 +12710,9 @@
       <c r="P231" t="n">
         <v>0</v>
       </c>
+      <c r="Q231" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" s="2" t="n">
@@ -12068,6 +12763,9 @@
       <c r="P232" t="n">
         <v>0</v>
       </c>
+      <c r="Q232" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" s="2" t="n">
@@ -12118,6 +12816,9 @@
       <c r="P233" t="n">
         <v>0</v>
       </c>
+      <c r="Q233" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" s="2" t="n">
@@ -12168,6 +12869,9 @@
       <c r="P234" t="n">
         <v>0</v>
       </c>
+      <c r="Q234" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" s="2" t="n">
@@ -12218,6 +12922,9 @@
       <c r="P235" t="n">
         <v>0</v>
       </c>
+      <c r="Q235" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" s="2" t="n">
@@ -12268,6 +12975,9 @@
       <c r="P236" t="n">
         <v>0</v>
       </c>
+      <c r="Q236" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" s="2" t="n">
@@ -12318,6 +13028,9 @@
       <c r="P237" t="n">
         <v>0</v>
       </c>
+      <c r="Q237" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" s="2" t="n">
@@ -12368,6 +13081,9 @@
       <c r="P238" t="n">
         <v>0</v>
       </c>
+      <c r="Q238" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" s="2" t="n">
@@ -12418,6 +13134,9 @@
       <c r="P239" t="n">
         <v>0</v>
       </c>
+      <c r="Q239" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" s="2" t="n">
@@ -12468,6 +13187,9 @@
       <c r="P240" t="n">
         <v>0</v>
       </c>
+      <c r="Q240" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" s="2" t="n">
@@ -12518,6 +13240,9 @@
       <c r="P241" t="n">
         <v>0</v>
       </c>
+      <c r="Q241" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" s="2" t="n">
@@ -12568,6 +13293,9 @@
       <c r="P242" t="n">
         <v>0</v>
       </c>
+      <c r="Q242" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" s="2" t="n">
@@ -12618,6 +13346,9 @@
       <c r="P243" t="n">
         <v>0</v>
       </c>
+      <c r="Q243" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" s="2" t="n">
@@ -12668,6 +13399,9 @@
       <c r="P244" t="n">
         <v>0</v>
       </c>
+      <c r="Q244" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" s="2" t="n">
@@ -12718,6 +13452,9 @@
       <c r="P245" t="n">
         <v>0</v>
       </c>
+      <c r="Q245" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" s="2" t="n">
@@ -12768,6 +13505,9 @@
       <c r="P246" t="n">
         <v>0</v>
       </c>
+      <c r="Q246" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" s="2" t="n">
@@ -12818,6 +13558,9 @@
       <c r="P247" t="n">
         <v>0</v>
       </c>
+      <c r="Q247" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" s="2" t="n">
@@ -12868,6 +13611,9 @@
       <c r="P248" t="n">
         <v>0</v>
       </c>
+      <c r="Q248" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" s="2" t="n">
@@ -12918,6 +13664,9 @@
       <c r="P249" t="n">
         <v>0</v>
       </c>
+      <c r="Q249" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" s="2" t="n">
@@ -12968,6 +13717,9 @@
       <c r="P250" t="n">
         <v>0</v>
       </c>
+      <c r="Q250" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" s="2" t="n">
@@ -13018,6 +13770,9 @@
       <c r="P251" t="n">
         <v>0</v>
       </c>
+      <c r="Q251" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" s="2" t="n">
@@ -13068,6 +13823,9 @@
       <c r="P252" t="n">
         <v>0</v>
       </c>
+      <c r="Q252" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" s="2" t="n">
@@ -13118,6 +13876,9 @@
       <c r="P253" t="n">
         <v>0</v>
       </c>
+      <c r="Q253" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" s="2" t="n">
@@ -13168,6 +13929,9 @@
       <c r="P254" t="n">
         <v>0</v>
       </c>
+      <c r="Q254" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" s="2" t="n">
@@ -13218,6 +13982,9 @@
       <c r="P255" t="n">
         <v>0</v>
       </c>
+      <c r="Q255" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" s="2" t="n">
@@ -13268,6 +14035,9 @@
       <c r="P256" t="n">
         <v>0</v>
       </c>
+      <c r="Q256" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" s="2" t="n">
@@ -13318,6 +14088,9 @@
       <c r="P257" t="n">
         <v>0</v>
       </c>
+      <c r="Q257" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" s="2" t="n">
@@ -13368,6 +14141,9 @@
       <c r="P258" t="n">
         <v>0</v>
       </c>
+      <c r="Q258" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" s="2" t="n">
@@ -13418,6 +14194,9 @@
       <c r="P259" t="n">
         <v>0</v>
       </c>
+      <c r="Q259" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" s="2" t="n">
@@ -13468,6 +14247,9 @@
       <c r="P260" t="n">
         <v>0</v>
       </c>
+      <c r="Q260" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" s="2" t="n">
@@ -13518,6 +14300,9 @@
       <c r="P261" t="n">
         <v>0</v>
       </c>
+      <c r="Q261" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" s="2" t="n">
@@ -13568,6 +14353,9 @@
       <c r="P262" t="n">
         <v>0</v>
       </c>
+      <c r="Q262" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" s="2" t="n">
@@ -13618,6 +14406,9 @@
       <c r="P263" t="n">
         <v>0</v>
       </c>
+      <c r="Q263" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" s="2" t="n">
@@ -13668,6 +14459,9 @@
       <c r="P264" t="n">
         <v>0</v>
       </c>
+      <c r="Q264" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" s="2" t="n">
@@ -13718,6 +14512,9 @@
       <c r="P265" t="n">
         <v>0</v>
       </c>
+      <c r="Q265" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" s="2" t="n">
@@ -13768,6 +14565,9 @@
       <c r="P266" t="n">
         <v>0</v>
       </c>
+      <c r="Q266" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" s="2" t="n">
@@ -13818,6 +14618,9 @@
       <c r="P267" t="n">
         <v>0</v>
       </c>
+      <c r="Q267" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" s="2" t="n">
@@ -13868,6 +14671,9 @@
       <c r="P268" t="n">
         <v>0</v>
       </c>
+      <c r="Q268" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" s="2" t="n">
@@ -13918,6 +14724,9 @@
       <c r="P269" t="n">
         <v>0</v>
       </c>
+      <c r="Q269" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" s="2" t="n">
@@ -13968,6 +14777,9 @@
       <c r="P270" t="n">
         <v>0</v>
       </c>
+      <c r="Q270" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" s="2" t="n">
@@ -14018,6 +14830,9 @@
       <c r="P271" t="n">
         <v>0</v>
       </c>
+      <c r="Q271" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" s="2" t="n">
@@ -14068,6 +14883,9 @@
       <c r="P272" t="n">
         <v>0</v>
       </c>
+      <c r="Q272" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" s="2" t="n">
@@ -14118,6 +14936,9 @@
       <c r="P273" t="n">
         <v>0</v>
       </c>
+      <c r="Q273" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" s="2" t="n">
@@ -14168,6 +14989,9 @@
       <c r="P274" t="n">
         <v>0</v>
       </c>
+      <c r="Q274" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" s="2" t="n">
@@ -14218,6 +15042,9 @@
       <c r="P275" t="n">
         <v>0</v>
       </c>
+      <c r="Q275" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" s="2" t="n">
@@ -14268,6 +15095,9 @@
       <c r="P276" t="n">
         <v>0</v>
       </c>
+      <c r="Q276" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" s="2" t="n">
@@ -14318,6 +15148,9 @@
       <c r="P277" t="n">
         <v>0</v>
       </c>
+      <c r="Q277" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" s="2" t="n">
@@ -14368,6 +15201,9 @@
       <c r="P278" t="n">
         <v>0</v>
       </c>
+      <c r="Q278" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" s="2" t="n">
@@ -14418,6 +15254,9 @@
       <c r="P279" t="n">
         <v>0</v>
       </c>
+      <c r="Q279" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" s="2" t="n">
@@ -14468,6 +15307,9 @@
       <c r="P280" t="n">
         <v>0</v>
       </c>
+      <c r="Q280" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" s="2" t="n">
@@ -14518,6 +15360,9 @@
       <c r="P281" t="n">
         <v>0</v>
       </c>
+      <c r="Q281" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" s="2" t="n">
@@ -14568,6 +15413,9 @@
       <c r="P282" t="n">
         <v>0</v>
       </c>
+      <c r="Q282" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" s="2" t="n">
@@ -14618,6 +15466,9 @@
       <c r="P283" t="n">
         <v>0</v>
       </c>
+      <c r="Q283" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" s="2" t="n">
@@ -14668,6 +15519,9 @@
       <c r="P284" t="n">
         <v>0</v>
       </c>
+      <c r="Q284" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" s="2" t="n">
@@ -14718,6 +15572,9 @@
       <c r="P285" t="n">
         <v>0</v>
       </c>
+      <c r="Q285" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" s="2" t="n">
@@ -14768,6 +15625,9 @@
       <c r="P286" t="n">
         <v>0</v>
       </c>
+      <c r="Q286" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" s="2" t="n">
@@ -14818,6 +15678,9 @@
       <c r="P287" t="n">
         <v>0</v>
       </c>
+      <c r="Q287" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" s="2" t="n">
@@ -14868,6 +15731,9 @@
       <c r="P288" t="n">
         <v>0</v>
       </c>
+      <c r="Q288" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" s="2" t="n">
@@ -14918,6 +15784,9 @@
       <c r="P289" t="n">
         <v>0</v>
       </c>
+      <c r="Q289" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" s="2" t="n">
@@ -14968,6 +15837,9 @@
       <c r="P290" t="n">
         <v>0</v>
       </c>
+      <c r="Q290" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" s="2" t="n">
@@ -15018,6 +15890,9 @@
       <c r="P291" t="n">
         <v>0</v>
       </c>
+      <c r="Q291" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" s="2" t="n">
@@ -15068,6 +15943,9 @@
       <c r="P292" t="n">
         <v>0</v>
       </c>
+      <c r="Q292" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" s="2" t="n">
@@ -15118,6 +15996,9 @@
       <c r="P293" t="n">
         <v>0</v>
       </c>
+      <c r="Q293" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" s="2" t="n">
@@ -15168,6 +16049,9 @@
       <c r="P294" t="n">
         <v>0</v>
       </c>
+      <c r="Q294" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" s="2" t="n">
@@ -15218,6 +16102,9 @@
       <c r="P295" t="n">
         <v>0</v>
       </c>
+      <c r="Q295" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" s="2" t="n">
@@ -15268,6 +16155,9 @@
       <c r="P296" t="n">
         <v>0</v>
       </c>
+      <c r="Q296" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" s="2" t="n">
@@ -15318,6 +16208,9 @@
       <c r="P297" t="n">
         <v>0</v>
       </c>
+      <c r="Q297" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" s="2" t="n">
@@ -15368,6 +16261,9 @@
       <c r="P298" t="n">
         <v>0</v>
       </c>
+      <c r="Q298" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" s="2" t="n">
@@ -15418,6 +16314,9 @@
       <c r="P299" t="n">
         <v>0</v>
       </c>
+      <c r="Q299" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" s="2" t="n">
@@ -15468,6 +16367,9 @@
       <c r="P300" t="n">
         <v>0</v>
       </c>
+      <c r="Q300" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" s="2" t="n">
@@ -15518,6 +16420,9 @@
       <c r="P301" t="n">
         <v>0</v>
       </c>
+      <c r="Q301" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" s="2" t="n">
@@ -15568,6 +16473,9 @@
       <c r="P302" t="n">
         <v>0</v>
       </c>
+      <c r="Q302" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" s="2" t="n">
@@ -15618,6 +16526,9 @@
       <c r="P303" t="n">
         <v>0</v>
       </c>
+      <c r="Q303" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" s="2" t="n">
@@ -15668,6 +16579,9 @@
       <c r="P304" t="n">
         <v>0</v>
       </c>
+      <c r="Q304" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" s="2" t="n">
@@ -15718,6 +16632,9 @@
       <c r="P305" t="n">
         <v>0</v>
       </c>
+      <c r="Q305" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" s="2" t="n">
@@ -15768,6 +16685,9 @@
       <c r="P306" t="n">
         <v>0</v>
       </c>
+      <c r="Q306" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" s="2" t="n">
@@ -15818,6 +16738,9 @@
       <c r="P307" t="n">
         <v>0</v>
       </c>
+      <c r="Q307" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" s="2" t="n">
@@ -15868,6 +16791,9 @@
       <c r="P308" t="n">
         <v>0</v>
       </c>
+      <c r="Q308" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" s="2" t="n">
@@ -15918,6 +16844,9 @@
       <c r="P309" t="n">
         <v>0</v>
       </c>
+      <c r="Q309" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" s="2" t="n">
@@ -15968,6 +16897,9 @@
       <c r="P310" t="n">
         <v>0</v>
       </c>
+      <c r="Q310" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" s="2" t="n">
@@ -16018,6 +16950,9 @@
       <c r="P311" t="n">
         <v>0</v>
       </c>
+      <c r="Q311" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" s="2" t="n">
@@ -16068,6 +17003,9 @@
       <c r="P312" t="n">
         <v>0</v>
       </c>
+      <c r="Q312" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" s="2" t="n">
@@ -16118,6 +17056,9 @@
       <c r="P313" t="n">
         <v>0</v>
       </c>
+      <c r="Q313" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" s="2" t="n">
@@ -16168,6 +17109,9 @@
       <c r="P314" t="n">
         <v>0</v>
       </c>
+      <c r="Q314" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" s="2" t="n">
@@ -16218,6 +17162,9 @@
       <c r="P315" t="n">
         <v>0</v>
       </c>
+      <c r="Q315" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" s="2" t="n">
@@ -16268,6 +17215,9 @@
       <c r="P316" t="n">
         <v>0</v>
       </c>
+      <c r="Q316" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" s="2" t="n">
@@ -16318,6 +17268,9 @@
       <c r="P317" t="n">
         <v>0</v>
       </c>
+      <c r="Q317" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" s="2" t="n">
@@ -16368,6 +17321,9 @@
       <c r="P318" t="n">
         <v>0</v>
       </c>
+      <c r="Q318" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" s="2" t="n">
@@ -16418,6 +17374,9 @@
       <c r="P319" t="n">
         <v>0</v>
       </c>
+      <c r="Q319" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" s="2" t="n">
@@ -16468,6 +17427,9 @@
       <c r="P320" t="n">
         <v>0</v>
       </c>
+      <c r="Q320" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" s="2" t="n">
@@ -16518,6 +17480,9 @@
       <c r="P321" t="n">
         <v>0</v>
       </c>
+      <c r="Q321" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" s="2" t="n">
@@ -16568,6 +17533,9 @@
       <c r="P322" t="n">
         <v>0</v>
       </c>
+      <c r="Q322" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" s="2" t="n">
@@ -16618,6 +17586,9 @@
       <c r="P323" t="n">
         <v>0</v>
       </c>
+      <c r="Q323" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" s="2" t="n">
@@ -16668,6 +17639,9 @@
       <c r="P324" t="n">
         <v>0</v>
       </c>
+      <c r="Q324" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" s="2" t="n">
@@ -16718,6 +17692,9 @@
       <c r="P325" t="n">
         <v>0</v>
       </c>
+      <c r="Q325" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" s="2" t="n">
@@ -16768,6 +17745,9 @@
       <c r="P326" t="n">
         <v>0</v>
       </c>
+      <c r="Q326" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" s="2" t="n">
@@ -16818,6 +17798,9 @@
       <c r="P327" t="n">
         <v>0</v>
       </c>
+      <c r="Q327" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" s="2" t="n">
@@ -16868,6 +17851,9 @@
       <c r="P328" t="n">
         <v>0</v>
       </c>
+      <c r="Q328" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" s="2" t="n">
@@ -16918,6 +17904,9 @@
       <c r="P329" t="n">
         <v>0</v>
       </c>
+      <c r="Q329" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" s="2" t="n">
@@ -16968,6 +17957,9 @@
       <c r="P330" t="n">
         <v>0</v>
       </c>
+      <c r="Q330" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" s="2" t="n">
@@ -17018,6 +18010,9 @@
       <c r="P331" t="n">
         <v>0</v>
       </c>
+      <c r="Q331" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" s="2" t="n">
@@ -17068,6 +18063,9 @@
       <c r="P332" t="n">
         <v>0</v>
       </c>
+      <c r="Q332" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" s="2" t="n">
@@ -17118,6 +18116,9 @@
       <c r="P333" t="n">
         <v>0</v>
       </c>
+      <c r="Q333" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" s="2" t="n">
@@ -17168,6 +18169,9 @@
       <c r="P334" t="n">
         <v>0</v>
       </c>
+      <c r="Q334" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" s="2" t="n">
@@ -17218,6 +18222,9 @@
       <c r="P335" t="n">
         <v>0</v>
       </c>
+      <c r="Q335" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" s="2" t="n">
@@ -17268,6 +18275,9 @@
       <c r="P336" t="n">
         <v>0</v>
       </c>
+      <c r="Q336" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" s="2" t="n">
@@ -17318,6 +18328,9 @@
       <c r="P337" t="n">
         <v>0</v>
       </c>
+      <c r="Q337" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" s="2" t="n">
@@ -17368,6 +18381,9 @@
       <c r="P338" t="n">
         <v>0</v>
       </c>
+      <c r="Q338" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" s="2" t="n">
@@ -17418,6 +18434,9 @@
       <c r="P339" t="n">
         <v>0</v>
       </c>
+      <c r="Q339" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" s="2" t="n">
@@ -17468,6 +18487,9 @@
       <c r="P340" t="n">
         <v>0</v>
       </c>
+      <c r="Q340" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" s="2" t="n">
@@ -17518,6 +18540,9 @@
       <c r="P341" t="n">
         <v>0</v>
       </c>
+      <c r="Q341" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" s="2" t="n">
@@ -17568,6 +18593,9 @@
       <c r="P342" t="n">
         <v>0</v>
       </c>
+      <c r="Q342" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" s="2" t="n">
@@ -17618,6 +18646,9 @@
       <c r="P343" t="n">
         <v>0</v>
       </c>
+      <c r="Q343" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" s="2" t="n">
@@ -17668,6 +18699,9 @@
       <c r="P344" t="n">
         <v>0</v>
       </c>
+      <c r="Q344" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" s="2" t="n">
@@ -17718,6 +18752,9 @@
       <c r="P345" t="n">
         <v>0</v>
       </c>
+      <c r="Q345" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" s="2" t="n">
@@ -17768,6 +18805,9 @@
       <c r="P346" t="n">
         <v>0</v>
       </c>
+      <c r="Q346" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" s="2" t="n">
@@ -17818,6 +18858,9 @@
       <c r="P347" t="n">
         <v>0</v>
       </c>
+      <c r="Q347" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" s="2" t="n">
@@ -17868,6 +18911,9 @@
       <c r="P348" t="n">
         <v>0</v>
       </c>
+      <c r="Q348" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" s="2" t="n">
@@ -17918,6 +18964,9 @@
       <c r="P349" t="n">
         <v>0</v>
       </c>
+      <c r="Q349" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" s="2" t="n">
@@ -17968,6 +19017,9 @@
       <c r="P350" t="n">
         <v>0</v>
       </c>
+      <c r="Q350" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" s="2" t="n">
@@ -18018,6 +19070,9 @@
       <c r="P351" t="n">
         <v>0</v>
       </c>
+      <c r="Q351" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" s="2" t="n">
@@ -18068,6 +19123,9 @@
       <c r="P352" t="n">
         <v>0</v>
       </c>
+      <c r="Q352" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" s="2" t="n">
@@ -18118,6 +19176,9 @@
       <c r="P353" t="n">
         <v>0</v>
       </c>
+      <c r="Q353" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" s="2" t="n">
@@ -18168,6 +19229,9 @@
       <c r="P354" t="n">
         <v>0</v>
       </c>
+      <c r="Q354" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" s="2" t="n">
@@ -18218,6 +19282,9 @@
       <c r="P355" t="n">
         <v>0</v>
       </c>
+      <c r="Q355" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" s="2" t="n">
@@ -18268,6 +19335,9 @@
       <c r="P356" t="n">
         <v>0</v>
       </c>
+      <c r="Q356" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" s="2" t="n">
@@ -18318,6 +19388,9 @@
       <c r="P357" t="n">
         <v>0</v>
       </c>
+      <c r="Q357" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" s="2" t="n">
@@ -18368,6 +19441,9 @@
       <c r="P358" t="n">
         <v>0</v>
       </c>
+      <c r="Q358" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" s="2" t="n">
@@ -18418,6 +19494,9 @@
       <c r="P359" t="n">
         <v>0</v>
       </c>
+      <c r="Q359" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" s="2" t="n">
@@ -18468,6 +19547,9 @@
       <c r="P360" t="n">
         <v>0</v>
       </c>
+      <c r="Q360" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" s="2" t="n">
@@ -18518,6 +19600,9 @@
       <c r="P361" t="n">
         <v>0</v>
       </c>
+      <c r="Q361" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" s="2" t="n">
@@ -18568,6 +19653,9 @@
       <c r="P362" t="n">
         <v>0</v>
       </c>
+      <c r="Q362" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" s="2" t="n">
@@ -18618,6 +19706,9 @@
       <c r="P363" t="n">
         <v>0</v>
       </c>
+      <c r="Q363" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" s="2" t="n">
@@ -18668,6 +19759,9 @@
       <c r="P364" t="n">
         <v>0</v>
       </c>
+      <c r="Q364" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" s="2" t="n">
@@ -18718,6 +19812,9 @@
       <c r="P365" t="n">
         <v>0</v>
       </c>
+      <c r="Q365" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="366">
       <c r="A366" s="2" t="n">
@@ -18768,6 +19865,9 @@
       <c r="P366" t="n">
         <v>0</v>
       </c>
+      <c r="Q366" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="367">
       <c r="A367" s="2" t="n">
@@ -18818,6 +19918,9 @@
       <c r="P367" t="n">
         <v>0</v>
       </c>
+      <c r="Q367" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="368">
       <c r="A368" s="2" t="n">
@@ -18868,6 +19971,9 @@
       <c r="P368" t="n">
         <v>0</v>
       </c>
+      <c r="Q368" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="369">
       <c r="A369" s="2" t="n">
@@ -18918,6 +20024,9 @@
       <c r="P369" t="n">
         <v>0</v>
       </c>
+      <c r="Q369" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="370">
       <c r="A370" s="2" t="n">
@@ -18968,6 +20077,9 @@
       <c r="P370" t="n">
         <v>0</v>
       </c>
+      <c r="Q370" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="371">
       <c r="A371" s="2" t="n">
@@ -19018,6 +20130,9 @@
       <c r="P371" t="n">
         <v>0</v>
       </c>
+      <c r="Q371" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="372">
       <c r="A372" s="2" t="n">
@@ -19068,6 +20183,9 @@
       <c r="P372" t="n">
         <v>0</v>
       </c>
+      <c r="Q372" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="373">
       <c r="A373" s="2" t="n">
@@ -19118,6 +20236,9 @@
       <c r="P373" t="n">
         <v>0</v>
       </c>
+      <c r="Q373" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="374">
       <c r="A374" s="2" t="n">
@@ -19168,6 +20289,9 @@
       <c r="P374" t="n">
         <v>0</v>
       </c>
+      <c r="Q374" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="375">
       <c r="A375" s="2" t="n">
@@ -19218,6 +20342,9 @@
       <c r="P375" t="n">
         <v>0</v>
       </c>
+      <c r="Q375" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="376">
       <c r="A376" s="2" t="n">
@@ -19268,6 +20395,9 @@
       <c r="P376" t="n">
         <v>0</v>
       </c>
+      <c r="Q376" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="377">
       <c r="A377" s="2" t="n">
@@ -19318,6 +20448,9 @@
       <c r="P377" t="n">
         <v>0</v>
       </c>
+      <c r="Q377" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="378">
       <c r="A378" s="2" t="n">
@@ -19368,6 +20501,9 @@
       <c r="P378" t="n">
         <v>0</v>
       </c>
+      <c r="Q378" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="379">
       <c r="A379" s="2" t="n">
@@ -19418,6 +20554,9 @@
       <c r="P379" t="n">
         <v>0</v>
       </c>
+      <c r="Q379" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="380">
       <c r="A380" s="2" t="n">
@@ -19468,6 +20607,9 @@
       <c r="P380" t="n">
         <v>0</v>
       </c>
+      <c r="Q380" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="381">
       <c r="A381" s="2" t="n">
@@ -19518,6 +20660,9 @@
       <c r="P381" t="n">
         <v>0</v>
       </c>
+      <c r="Q381" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="382">
       <c r="A382" s="2" t="n">
@@ -19568,6 +20713,9 @@
       <c r="P382" t="n">
         <v>0</v>
       </c>
+      <c r="Q382" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="383">
       <c r="A383" s="2" t="n">
@@ -19618,6 +20766,9 @@
       <c r="P383" t="n">
         <v>0</v>
       </c>
+      <c r="Q383" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="384">
       <c r="A384" s="2" t="n">
@@ -19668,6 +20819,9 @@
       <c r="P384" t="n">
         <v>0</v>
       </c>
+      <c r="Q384" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="385">
       <c r="A385" s="2" t="n">
@@ -19718,6 +20872,9 @@
       <c r="P385" t="n">
         <v>0</v>
       </c>
+      <c r="Q385" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="386">
       <c r="A386" s="2" t="n">
@@ -19768,6 +20925,9 @@
       <c r="P386" t="n">
         <v>0</v>
       </c>
+      <c r="Q386" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="387">
       <c r="A387" s="2" t="n">
@@ -19818,6 +20978,9 @@
       <c r="P387" t="n">
         <v>0</v>
       </c>
+      <c r="Q387" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="388">
       <c r="A388" s="2" t="n">
@@ -19868,6 +21031,9 @@
       <c r="P388" t="n">
         <v>0</v>
       </c>
+      <c r="Q388" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="389">
       <c r="A389" s="2" t="n">
@@ -19918,6 +21084,9 @@
       <c r="P389" t="n">
         <v>0</v>
       </c>
+      <c r="Q389" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="390">
       <c r="A390" s="2" t="n">
@@ -19968,6 +21137,9 @@
       <c r="P390" t="n">
         <v>0</v>
       </c>
+      <c r="Q390" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="391">
       <c r="A391" s="2" t="n">
@@ -20018,6 +21190,9 @@
       <c r="P391" t="n">
         <v>0</v>
       </c>
+      <c r="Q391" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="392">
       <c r="A392" s="2" t="n">
@@ -20068,6 +21243,9 @@
       <c r="P392" t="n">
         <v>0</v>
       </c>
+      <c r="Q392" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="393">
       <c r="A393" s="2" t="n">
@@ -20118,6 +21296,9 @@
       <c r="P393" t="n">
         <v>0</v>
       </c>
+      <c r="Q393" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="394">
       <c r="A394" s="2" t="n">
@@ -20168,6 +21349,9 @@
       <c r="P394" t="n">
         <v>0</v>
       </c>
+      <c r="Q394" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="395">
       <c r="A395" s="2" t="n">
@@ -20218,6 +21402,9 @@
       <c r="P395" t="n">
         <v>0</v>
       </c>
+      <c r="Q395" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="396">
       <c r="A396" s="2" t="n">
@@ -20268,6 +21455,9 @@
       <c r="P396" t="n">
         <v>0</v>
       </c>
+      <c r="Q396" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="397">
       <c r="A397" s="2" t="n">
@@ -20318,6 +21508,9 @@
       <c r="P397" t="n">
         <v>0</v>
       </c>
+      <c r="Q397" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="398">
       <c r="A398" s="2" t="n">
@@ -20368,6 +21561,9 @@
       <c r="P398" t="n">
         <v>0</v>
       </c>
+      <c r="Q398" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="399">
       <c r="A399" s="2" t="n">
@@ -20418,6 +21614,9 @@
       <c r="P399" t="n">
         <v>0</v>
       </c>
+      <c r="Q399" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="400">
       <c r="A400" s="2" t="n">
@@ -20468,6 +21667,9 @@
       <c r="P400" t="n">
         <v>0</v>
       </c>
+      <c r="Q400" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="401">
       <c r="A401" s="2" t="n">
@@ -20518,6 +21720,9 @@
       <c r="P401" t="n">
         <v>0</v>
       </c>
+      <c r="Q401" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="402">
       <c r="A402" s="2" t="n">
@@ -20568,6 +21773,9 @@
       <c r="P402" t="n">
         <v>0</v>
       </c>
+      <c r="Q402" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="403">
       <c r="A403" s="2" t="n">
@@ -20618,6 +21826,9 @@
       <c r="P403" t="n">
         <v>0</v>
       </c>
+      <c r="Q403" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="404">
       <c r="A404" s="2" t="n">
@@ -20668,6 +21879,9 @@
       <c r="P404" t="n">
         <v>0</v>
       </c>
+      <c r="Q404" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="405">
       <c r="A405" s="2" t="n">
@@ -20718,6 +21932,9 @@
       <c r="P405" t="n">
         <v>0</v>
       </c>
+      <c r="Q405" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="406">
       <c r="A406" s="2" t="n">
@@ -20768,6 +21985,9 @@
       <c r="P406" t="n">
         <v>0</v>
       </c>
+      <c r="Q406" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="407">
       <c r="A407" s="2" t="n">
@@ -20818,6 +22038,9 @@
       <c r="P407" t="n">
         <v>0</v>
       </c>
+      <c r="Q407" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="408">
       <c r="A408" s="2" t="n">
@@ -20868,6 +22091,9 @@
       <c r="P408" t="n">
         <v>0</v>
       </c>
+      <c r="Q408" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="409">
       <c r="A409" s="2" t="n">
@@ -20918,6 +22144,9 @@
       <c r="P409" t="n">
         <v>0</v>
       </c>
+      <c r="Q409" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="410">
       <c r="A410" s="2" t="n">
@@ -20968,6 +22197,9 @@
       <c r="P410" t="n">
         <v>0</v>
       </c>
+      <c r="Q410" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="411">
       <c r="A411" s="2" t="n">
@@ -21018,6 +22250,9 @@
       <c r="P411" t="n">
         <v>0</v>
       </c>
+      <c r="Q411" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="412">
       <c r="A412" s="2" t="n">
@@ -21068,6 +22303,9 @@
       <c r="P412" t="n">
         <v>0</v>
       </c>
+      <c r="Q412" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="413">
       <c r="A413" s="2" t="n">
@@ -21118,6 +22356,9 @@
       <c r="P413" t="n">
         <v>0</v>
       </c>
+      <c r="Q413" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="414">
       <c r="A414" s="2" t="n">
@@ -21168,6 +22409,9 @@
       <c r="P414" t="n">
         <v>0</v>
       </c>
+      <c r="Q414" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="415">
       <c r="A415" s="2" t="n">
@@ -21218,6 +22462,9 @@
       <c r="P415" t="n">
         <v>0</v>
       </c>
+      <c r="Q415" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="416">
       <c r="A416" s="2" t="n">
@@ -21268,6 +22515,9 @@
       <c r="P416" t="n">
         <v>0</v>
       </c>
+      <c r="Q416" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="417">
       <c r="A417" s="2" t="n">
@@ -21318,6 +22568,9 @@
       <c r="P417" t="n">
         <v>2</v>
       </c>
+      <c r="Q417" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="418">
       <c r="A418" s="2" t="n">
@@ -21368,6 +22621,9 @@
       <c r="P418" t="n">
         <v>0</v>
       </c>
+      <c r="Q418" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="419">
       <c r="A419" s="2" t="n">
@@ -21418,6 +22674,9 @@
       <c r="P419" t="n">
         <v>0</v>
       </c>
+      <c r="Q419" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="420">
       <c r="A420" s="2" t="n">
@@ -21468,6 +22727,9 @@
       <c r="P420" t="n">
         <v>0</v>
       </c>
+      <c r="Q420" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="421">
       <c r="A421" s="2" t="n">
@@ -21518,6 +22780,9 @@
       <c r="P421" t="n">
         <v>0</v>
       </c>
+      <c r="Q421" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="422">
       <c r="A422" s="2" t="n">
@@ -21568,6 +22833,9 @@
       <c r="P422" t="n">
         <v>0</v>
       </c>
+      <c r="Q422" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="423">
       <c r="A423" s="2" t="n">
@@ -21618,6 +22886,9 @@
       <c r="P423" t="n">
         <v>0</v>
       </c>
+      <c r="Q423" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="424">
       <c r="A424" s="2" t="n">
@@ -21668,6 +22939,9 @@
       <c r="P424" t="n">
         <v>0</v>
       </c>
+      <c r="Q424" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="425">
       <c r="A425" s="2" t="n">
@@ -21718,6 +22992,9 @@
       <c r="P425" t="n">
         <v>0</v>
       </c>
+      <c r="Q425" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="426">
       <c r="A426" s="2" t="n">
@@ -21768,6 +23045,9 @@
       <c r="P426" t="n">
         <v>0</v>
       </c>
+      <c r="Q426" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="427">
       <c r="A427" s="2" t="n">
@@ -21818,6 +23098,9 @@
       <c r="P427" t="n">
         <v>0</v>
       </c>
+      <c r="Q427" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="428">
       <c r="A428" s="2" t="n">
@@ -21868,6 +23151,9 @@
       <c r="P428" t="n">
         <v>0</v>
       </c>
+      <c r="Q428" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="429">
       <c r="A429" s="2" t="n">
@@ -21918,6 +23204,9 @@
       <c r="P429" t="n">
         <v>0</v>
       </c>
+      <c r="Q429" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="430">
       <c r="A430" s="2" t="n">
@@ -21968,6 +23257,9 @@
       <c r="P430" t="n">
         <v>0</v>
       </c>
+      <c r="Q430" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="431">
       <c r="A431" s="2" t="n">
@@ -22018,6 +23310,9 @@
       <c r="P431" t="n">
         <v>0</v>
       </c>
+      <c r="Q431" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="432">
       <c r="A432" s="2" t="n">
@@ -22068,6 +23363,9 @@
       <c r="P432" t="n">
         <v>0</v>
       </c>
+      <c r="Q432" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="433">
       <c r="A433" s="2" t="n">
@@ -22118,6 +23416,9 @@
       <c r="P433" t="n">
         <v>0</v>
       </c>
+      <c r="Q433" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="434">
       <c r="A434" s="2" t="n">
@@ -22168,6 +23469,9 @@
       <c r="P434" t="n">
         <v>0</v>
       </c>
+      <c r="Q434" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="435">
       <c r="A435" s="2" t="n">
@@ -22218,6 +23522,9 @@
       <c r="P435" t="n">
         <v>2</v>
       </c>
+      <c r="Q435" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="436">
       <c r="A436" s="2" t="n">
@@ -22268,6 +23575,9 @@
       <c r="P436" t="n">
         <v>0</v>
       </c>
+      <c r="Q436" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="437">
       <c r="A437" s="2" t="n">
@@ -22318,6 +23628,9 @@
       <c r="P437" t="n">
         <v>0</v>
       </c>
+      <c r="Q437" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="438">
       <c r="A438" s="2" t="n">
@@ -22368,6 +23681,9 @@
       <c r="P438" t="n">
         <v>0</v>
       </c>
+      <c r="Q438" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="439">
       <c r="A439" s="2" t="n">
@@ -22418,6 +23734,9 @@
       <c r="P439" t="n">
         <v>0</v>
       </c>
+      <c r="Q439" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="440">
       <c r="A440" s="2" t="n">
@@ -22468,6 +23787,9 @@
       <c r="P440" t="n">
         <v>0</v>
       </c>
+      <c r="Q440" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="441">
       <c r="A441" s="2" t="n">
@@ -22518,6 +23840,9 @@
       <c r="P441" t="n">
         <v>0</v>
       </c>
+      <c r="Q441" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="442">
       <c r="A442" s="2" t="n">
@@ -22568,6 +23893,9 @@
       <c r="P442" t="n">
         <v>0</v>
       </c>
+      <c r="Q442" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="443">
       <c r="A443" s="2" t="n">
@@ -22618,6 +23946,9 @@
       <c r="P443" t="n">
         <v>0</v>
       </c>
+      <c r="Q443" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="444">
       <c r="A444" s="2" t="n">
@@ -22668,6 +23999,9 @@
       <c r="P444" t="n">
         <v>0</v>
       </c>
+      <c r="Q444" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="445">
       <c r="A445" s="2" t="n">
@@ -22718,6 +24052,9 @@
       <c r="P445" t="n">
         <v>0</v>
       </c>
+      <c r="Q445" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="446">
       <c r="A446" s="2" t="n">
@@ -22768,6 +24105,9 @@
       <c r="P446" t="n">
         <v>0</v>
       </c>
+      <c r="Q446" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="447">
       <c r="A447" s="2" t="n">
@@ -22818,6 +24158,9 @@
       <c r="P447" t="n">
         <v>0</v>
       </c>
+      <c r="Q447" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="448">
       <c r="A448" s="2" t="n">
@@ -22868,6 +24211,9 @@
       <c r="P448" t="n">
         <v>0</v>
       </c>
+      <c r="Q448" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="449">
       <c r="A449" s="2" t="n">
@@ -22918,6 +24264,9 @@
       <c r="P449" t="n">
         <v>0</v>
       </c>
+      <c r="Q449" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="450">
       <c r="A450" s="2" t="n">
@@ -22968,6 +24317,9 @@
       <c r="P450" t="n">
         <v>0</v>
       </c>
+      <c r="Q450" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="451">
       <c r="A451" s="2" t="n">
@@ -23018,6 +24370,9 @@
       <c r="P451" t="n">
         <v>0</v>
       </c>
+      <c r="Q451" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="452">
       <c r="A452" s="2" t="n">
@@ -23068,6 +24423,9 @@
       <c r="P452" t="n">
         <v>0</v>
       </c>
+      <c r="Q452" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="453">
       <c r="A453" s="2" t="n">
@@ -23118,6 +24476,9 @@
       <c r="P453" t="n">
         <v>0</v>
       </c>
+      <c r="Q453" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="454">
       <c r="A454" s="2" t="n">
@@ -23168,6 +24529,9 @@
       <c r="P454" t="n">
         <v>0</v>
       </c>
+      <c r="Q454" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="455">
       <c r="A455" s="2" t="n">
@@ -23218,6 +24582,9 @@
       <c r="P455" t="n">
         <v>0</v>
       </c>
+      <c r="Q455" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="456">
       <c r="A456" s="2" t="n">
@@ -23268,6 +24635,9 @@
       <c r="P456" t="n">
         <v>0</v>
       </c>
+      <c r="Q456" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="457">
       <c r="A457" s="2" t="n">
@@ -23318,6 +24688,9 @@
       <c r="P457" t="n">
         <v>0</v>
       </c>
+      <c r="Q457" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="458">
       <c r="A458" s="2" t="n">
@@ -23368,6 +24741,9 @@
       <c r="P458" t="n">
         <v>0</v>
       </c>
+      <c r="Q458" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="459">
       <c r="A459" s="2" t="n">
@@ -23418,6 +24794,9 @@
       <c r="P459" t="n">
         <v>0</v>
       </c>
+      <c r="Q459" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="460">
       <c r="A460" s="2" t="n">
@@ -23468,6 +24847,9 @@
       <c r="P460" t="n">
         <v>0</v>
       </c>
+      <c r="Q460" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="461">
       <c r="A461" s="2" t="n">
@@ -23518,6 +24900,9 @@
       <c r="P461" t="n">
         <v>0</v>
       </c>
+      <c r="Q461" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="462">
       <c r="A462" s="2" t="n">
@@ -23568,6 +24953,9 @@
       <c r="P462" t="n">
         <v>0</v>
       </c>
+      <c r="Q462" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="463">
       <c r="A463" s="2" t="n">
@@ -23618,6 +25006,9 @@
       <c r="P463" t="n">
         <v>0</v>
       </c>
+      <c r="Q463" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="464">
       <c r="A464" s="2" t="n">
@@ -23668,6 +25059,9 @@
       <c r="P464" t="n">
         <v>0</v>
       </c>
+      <c r="Q464" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="465">
       <c r="A465" s="2" t="n">
@@ -23718,6 +25112,9 @@
       <c r="P465" t="n">
         <v>0</v>
       </c>
+      <c r="Q465" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="466">
       <c r="A466" s="2" t="n">
@@ -23768,6 +25165,9 @@
       <c r="P466" t="n">
         <v>0</v>
       </c>
+      <c r="Q466" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="467">
       <c r="A467" s="2" t="n">
@@ -23818,6 +25218,9 @@
       <c r="P467" t="n">
         <v>0</v>
       </c>
+      <c r="Q467" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="468">
       <c r="A468" s="2" t="n">
@@ -23868,6 +25271,9 @@
       <c r="P468" t="n">
         <v>0</v>
       </c>
+      <c r="Q468" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="469">
       <c r="A469" s="2" t="n">
@@ -23918,6 +25324,9 @@
       <c r="P469" t="n">
         <v>0</v>
       </c>
+      <c r="Q469" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="470">
       <c r="A470" s="2" t="n">
@@ -23968,6 +25377,9 @@
       <c r="P470" t="n">
         <v>0</v>
       </c>
+      <c r="Q470" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="471">
       <c r="A471" s="2" t="n">
@@ -24018,6 +25430,9 @@
       <c r="P471" t="n">
         <v>0</v>
       </c>
+      <c r="Q471" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="472">
       <c r="A472" s="2" t="n">
@@ -24068,6 +25483,9 @@
       <c r="P472" t="n">
         <v>0</v>
       </c>
+      <c r="Q472" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="473">
       <c r="A473" s="2" t="n">
@@ -24118,6 +25536,9 @@
       <c r="P473" t="n">
         <v>0</v>
       </c>
+      <c r="Q473" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="474">
       <c r="A474" s="2" t="n">
@@ -24168,6 +25589,9 @@
       <c r="P474" t="n">
         <v>0</v>
       </c>
+      <c r="Q474" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="475">
       <c r="A475" s="2" t="n">
@@ -24218,6 +25642,9 @@
       <c r="P475" t="n">
         <v>0</v>
       </c>
+      <c r="Q475" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="476">
       <c r="A476" s="2" t="n">
@@ -24268,6 +25695,9 @@
       <c r="P476" t="n">
         <v>0</v>
       </c>
+      <c r="Q476" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="477">
       <c r="A477" s="2" t="n">
@@ -24318,6 +25748,9 @@
       <c r="P477" t="n">
         <v>0</v>
       </c>
+      <c r="Q477" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="478">
       <c r="A478" s="2" t="n">
@@ -24368,6 +25801,9 @@
       <c r="P478" t="n">
         <v>0</v>
       </c>
+      <c r="Q478" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="479">
       <c r="A479" s="2" t="n">
@@ -24418,6 +25854,9 @@
       <c r="P479" t="n">
         <v>0</v>
       </c>
+      <c r="Q479" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="480">
       <c r="A480" s="2" t="n">
@@ -24468,6 +25907,9 @@
       <c r="P480" t="n">
         <v>0</v>
       </c>
+      <c r="Q480" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="481">
       <c r="A481" s="2" t="n">
@@ -24518,6 +25960,9 @@
       <c r="P481" t="n">
         <v>0</v>
       </c>
+      <c r="Q481" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="482">
       <c r="A482" s="2" t="n">
@@ -24568,6 +26013,9 @@
       <c r="P482" t="n">
         <v>0</v>
       </c>
+      <c r="Q482" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="483">
       <c r="A483" s="2" t="n">
@@ -24618,6 +26066,9 @@
       <c r="P483" t="n">
         <v>0</v>
       </c>
+      <c r="Q483" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="484">
       <c r="A484" s="2" t="n">
@@ -24668,6 +26119,9 @@
       <c r="P484" t="n">
         <v>0</v>
       </c>
+      <c r="Q484" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="485">
       <c r="A485" s="2" t="n">
@@ -24718,6 +26172,9 @@
       <c r="P485" t="n">
         <v>0</v>
       </c>
+      <c r="Q485" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="486">
       <c r="A486" s="2" t="n">
@@ -24768,6 +26225,9 @@
       <c r="P486" t="n">
         <v>0</v>
       </c>
+      <c r="Q486" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="487">
       <c r="A487" s="2" t="n">
@@ -24818,6 +26278,9 @@
       <c r="P487" t="n">
         <v>0</v>
       </c>
+      <c r="Q487" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="488">
       <c r="A488" s="2" t="n">
@@ -24868,6 +26331,9 @@
       <c r="P488" t="n">
         <v>0</v>
       </c>
+      <c r="Q488" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="489">
       <c r="A489" s="2" t="n">
@@ -24918,6 +26384,9 @@
       <c r="P489" t="n">
         <v>0</v>
       </c>
+      <c r="Q489" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="490">
       <c r="A490" s="2" t="n">
@@ -24968,6 +26437,9 @@
       <c r="P490" t="n">
         <v>0</v>
       </c>
+      <c r="Q490" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="491">
       <c r="A491" s="2" t="n">
@@ -25018,6 +26490,9 @@
       <c r="P491" t="n">
         <v>0</v>
       </c>
+      <c r="Q491" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="492">
       <c r="A492" s="2" t="n">
@@ -25068,6 +26543,9 @@
       <c r="P492" t="n">
         <v>0</v>
       </c>
+      <c r="Q492" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="493">
       <c r="A493" s="2" t="n">
@@ -25118,6 +26596,9 @@
       <c r="P493" t="n">
         <v>0</v>
       </c>
+      <c r="Q493" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="494">
       <c r="A494" s="2" t="n">
@@ -25168,6 +26649,9 @@
       <c r="P494" t="n">
         <v>0</v>
       </c>
+      <c r="Q494" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="495">
       <c r="A495" s="2" t="n">
@@ -25218,6 +26702,9 @@
       <c r="P495" t="n">
         <v>0</v>
       </c>
+      <c r="Q495" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="496">
       <c r="A496" s="2" t="n">
@@ -25268,6 +26755,9 @@
       <c r="P496" t="n">
         <v>0</v>
       </c>
+      <c r="Q496" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="497">
       <c r="A497" s="2" t="n">
@@ -25318,6 +26808,9 @@
       <c r="P497" t="n">
         <v>0</v>
       </c>
+      <c r="Q497" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="498">
       <c r="A498" s="2" t="n">
@@ -25368,6 +26861,9 @@
       <c r="P498" t="n">
         <v>0</v>
       </c>
+      <c r="Q498" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="499">
       <c r="A499" s="2" t="n">
@@ -25418,6 +26914,9 @@
       <c r="P499" t="n">
         <v>0</v>
       </c>
+      <c r="Q499" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="500">
       <c r="A500" s="2" t="n">
@@ -25468,6 +26967,9 @@
       <c r="P500" t="n">
         <v>0</v>
       </c>
+      <c r="Q500" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="501">
       <c r="A501" s="2" t="n">
@@ -25518,6 +27020,9 @@
       <c r="P501" t="n">
         <v>0</v>
       </c>
+      <c r="Q501" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="502">
       <c r="A502" s="2" t="n">
@@ -25568,6 +27073,9 @@
       <c r="P502" t="n">
         <v>0</v>
       </c>
+      <c r="Q502" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="503">
       <c r="A503" s="2" t="n">
@@ -25618,6 +27126,9 @@
       <c r="P503" t="n">
         <v>0</v>
       </c>
+      <c r="Q503" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="504">
       <c r="A504" s="2" t="n">
@@ -25668,6 +27179,9 @@
       <c r="P504" t="n">
         <v>0</v>
       </c>
+      <c r="Q504" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="505">
       <c r="A505" s="2" t="n">
@@ -25718,6 +27232,9 @@
       <c r="P505" t="n">
         <v>0</v>
       </c>
+      <c r="Q505" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="506">
       <c r="A506" s="2" t="n">
@@ -25768,6 +27285,9 @@
       <c r="P506" t="n">
         <v>0</v>
       </c>
+      <c r="Q506" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="507">
       <c r="A507" s="2" t="n">
@@ -25818,6 +27338,9 @@
       <c r="P507" t="n">
         <v>0</v>
       </c>
+      <c r="Q507" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="508">
       <c r="A508" s="2" t="n">
@@ -25868,6 +27391,9 @@
       <c r="P508" t="n">
         <v>0</v>
       </c>
+      <c r="Q508" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="509">
       <c r="A509" s="2" t="n">
@@ -25918,6 +27444,9 @@
       <c r="P509" t="n">
         <v>0</v>
       </c>
+      <c r="Q509" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="510">
       <c r="A510" s="2" t="n">
@@ -25968,6 +27497,9 @@
       <c r="P510" t="n">
         <v>0</v>
       </c>
+      <c r="Q510" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="511">
       <c r="A511" s="2" t="n">
@@ -26018,6 +27550,9 @@
       <c r="P511" t="n">
         <v>0</v>
       </c>
+      <c r="Q511" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="512">
       <c r="A512" s="2" t="n">
@@ -26068,6 +27603,9 @@
       <c r="P512" t="n">
         <v>0</v>
       </c>
+      <c r="Q512" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="513">
       <c r="A513" s="2" t="n">
@@ -26118,6 +27656,9 @@
       <c r="P513" t="n">
         <v>0</v>
       </c>
+      <c r="Q513" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="514">
       <c r="A514" s="2" t="n">
@@ -26168,6 +27709,9 @@
       <c r="P514" t="n">
         <v>0</v>
       </c>
+      <c r="Q514" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="515">
       <c r="A515" s="2" t="n">
@@ -26218,6 +27762,9 @@
       <c r="P515" t="n">
         <v>0</v>
       </c>
+      <c r="Q515" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="516">
       <c r="A516" s="2" t="n">
@@ -26268,6 +27815,9 @@
       <c r="P516" t="n">
         <v>0</v>
       </c>
+      <c r="Q516" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="517">
       <c r="A517" s="2" t="n">
@@ -26318,6 +27868,9 @@
       <c r="P517" t="n">
         <v>0</v>
       </c>
+      <c r="Q517" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="518">
       <c r="A518" s="2" t="n">
@@ -26368,6 +27921,9 @@
       <c r="P518" t="n">
         <v>0</v>
       </c>
+      <c r="Q518" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="519">
       <c r="A519" s="2" t="n">
@@ -26418,6 +27974,9 @@
       <c r="P519" t="n">
         <v>0</v>
       </c>
+      <c r="Q519" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="520">
       <c r="A520" s="2" t="n">
@@ -26468,6 +28027,9 @@
       <c r="P520" t="n">
         <v>0</v>
       </c>
+      <c r="Q520" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="521">
       <c r="A521" s="2" t="n">
@@ -26518,6 +28080,9 @@
       <c r="P521" t="n">
         <v>0</v>
       </c>
+      <c r="Q521" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="522">
       <c r="A522" s="2" t="n">
@@ -26568,6 +28133,9 @@
       <c r="P522" t="n">
         <v>0</v>
       </c>
+      <c r="Q522" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="523">
       <c r="A523" s="2" t="n">
@@ -26618,6 +28186,9 @@
       <c r="P523" t="n">
         <v>0</v>
       </c>
+      <c r="Q523" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="524">
       <c r="A524" s="2" t="n">
@@ -26668,6 +28239,9 @@
       <c r="P524" t="n">
         <v>0</v>
       </c>
+      <c r="Q524" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="525">
       <c r="A525" s="2" t="n">
@@ -26718,6 +28292,9 @@
       <c r="P525" t="n">
         <v>0</v>
       </c>
+      <c r="Q525" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="526">
       <c r="A526" s="2" t="n">
@@ -26768,6 +28345,9 @@
       <c r="P526" t="n">
         <v>0</v>
       </c>
+      <c r="Q526" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="527">
       <c r="A527" s="2" t="n">
@@ -26818,6 +28398,9 @@
       <c r="P527" t="n">
         <v>0</v>
       </c>
+      <c r="Q527" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="528">
       <c r="A528" s="2" t="n">
@@ -26868,6 +28451,9 @@
       <c r="P528" t="n">
         <v>0</v>
       </c>
+      <c r="Q528" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="529">
       <c r="A529" s="2" t="n">
@@ -26918,6 +28504,9 @@
       <c r="P529" t="n">
         <v>0</v>
       </c>
+      <c r="Q529" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="530">
       <c r="A530" s="2" t="n">
@@ -26968,6 +28557,9 @@
       <c r="P530" t="n">
         <v>0</v>
       </c>
+      <c r="Q530" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="531">
       <c r="A531" s="2" t="n">
@@ -27018,6 +28610,9 @@
       <c r="P531" t="n">
         <v>0</v>
       </c>
+      <c r="Q531" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="532">
       <c r="A532" s="2" t="n">
@@ -27068,6 +28663,9 @@
       <c r="P532" t="n">
         <v>0</v>
       </c>
+      <c r="Q532" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="533">
       <c r="A533" s="2" t="n">
@@ -27118,6 +28716,9 @@
       <c r="P533" t="n">
         <v>0</v>
       </c>
+      <c r="Q533" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="534">
       <c r="A534" s="2" t="n">
@@ -27168,6 +28769,9 @@
       <c r="P534" t="n">
         <v>0</v>
       </c>
+      <c r="Q534" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="535">
       <c r="A535" s="2" t="n">
@@ -27218,6 +28822,9 @@
       <c r="P535" t="n">
         <v>0</v>
       </c>
+      <c r="Q535" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="536">
       <c r="A536" s="2" t="n">
@@ -27268,6 +28875,9 @@
       <c r="P536" t="n">
         <v>0</v>
       </c>
+      <c r="Q536" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="537">
       <c r="A537" s="2" t="n">
@@ -27318,6 +28928,9 @@
       <c r="P537" t="n">
         <v>0</v>
       </c>
+      <c r="Q537" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="538">
       <c r="A538" s="2" t="n">
@@ -27368,6 +28981,9 @@
       <c r="P538" t="n">
         <v>0</v>
       </c>
+      <c r="Q538" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="539">
       <c r="A539" s="2" t="n">
@@ -27418,6 +29034,9 @@
       <c r="P539" t="n">
         <v>0</v>
       </c>
+      <c r="Q539" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="540">
       <c r="A540" s="2" t="n">
@@ -27468,6 +29087,9 @@
       <c r="P540" t="n">
         <v>0</v>
       </c>
+      <c r="Q540" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="541">
       <c r="A541" s="2" t="n">
@@ -27518,6 +29140,9 @@
       <c r="P541" t="n">
         <v>0</v>
       </c>
+      <c r="Q541" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="542">
       <c r="A542" s="2" t="n">
@@ -27568,6 +29193,9 @@
       <c r="P542" t="n">
         <v>0</v>
       </c>
+      <c r="Q542" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="543">
       <c r="A543" s="2" t="n">
@@ -27618,6 +29246,9 @@
       <c r="P543" t="n">
         <v>0</v>
       </c>
+      <c r="Q543" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="544">
       <c r="A544" s="2" t="n">
@@ -27668,6 +29299,9 @@
       <c r="P544" t="n">
         <v>0</v>
       </c>
+      <c r="Q544" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="545">
       <c r="A545" s="2" t="n">
@@ -27718,6 +29352,9 @@
       <c r="P545" t="n">
         <v>0</v>
       </c>
+      <c r="Q545" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="546">
       <c r="A546" s="2" t="n">
@@ -27768,6 +29405,9 @@
       <c r="P546" t="n">
         <v>0</v>
       </c>
+      <c r="Q546" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="547">
       <c r="A547" s="2" t="n">
@@ -27818,6 +29458,9 @@
       <c r="P547" t="n">
         <v>0</v>
       </c>
+      <c r="Q547" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="548">
       <c r="A548" s="2" t="n">
@@ -27868,6 +29511,9 @@
       <c r="P548" t="n">
         <v>0</v>
       </c>
+      <c r="Q548" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="549">
       <c r="A549" s="2" t="n">
@@ -27918,6 +29564,9 @@
       <c r="P549" t="n">
         <v>0</v>
       </c>
+      <c r="Q549" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="550">
       <c r="A550" s="2" t="n">
@@ -27968,6 +29617,9 @@
       <c r="P550" t="n">
         <v>0</v>
       </c>
+      <c r="Q550" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="551">
       <c r="A551" s="2" t="n">
@@ -28018,6 +29670,9 @@
       <c r="P551" t="n">
         <v>0</v>
       </c>
+      <c r="Q551" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="552">
       <c r="A552" s="2" t="n">
@@ -28068,6 +29723,9 @@
       <c r="P552" t="n">
         <v>0</v>
       </c>
+      <c r="Q552" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="553">
       <c r="A553" s="2" t="n">
@@ -28118,6 +29776,9 @@
       <c r="P553" t="n">
         <v>0</v>
       </c>
+      <c r="Q553" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="554">
       <c r="A554" s="2" t="n">
@@ -28168,6 +29829,9 @@
       <c r="P554" t="n">
         <v>0</v>
       </c>
+      <c r="Q554" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="555">
       <c r="A555" s="2" t="n">
@@ -28218,6 +29882,9 @@
       <c r="P555" t="n">
         <v>0</v>
       </c>
+      <c r="Q555" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="556">
       <c r="A556" s="2" t="n">
@@ -28268,6 +29935,9 @@
       <c r="P556" t="n">
         <v>0</v>
       </c>
+      <c r="Q556" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="557">
       <c r="A557" s="2" t="n">
@@ -28318,6 +29988,9 @@
       <c r="P557" t="n">
         <v>0</v>
       </c>
+      <c r="Q557" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="558">
       <c r="A558" s="2" t="n">
@@ -28368,6 +30041,9 @@
       <c r="P558" t="n">
         <v>0</v>
       </c>
+      <c r="Q558" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="559">
       <c r="A559" s="2" t="n">
@@ -28418,6 +30094,9 @@
       <c r="P559" t="n">
         <v>0</v>
       </c>
+      <c r="Q559" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="560">
       <c r="A560" s="2" t="n">
@@ -28468,6 +30147,9 @@
       <c r="P560" t="n">
         <v>0</v>
       </c>
+      <c r="Q560" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="561">
       <c r="A561" s="2" t="n">
@@ -28518,6 +30200,9 @@
       <c r="P561" t="n">
         <v>0</v>
       </c>
+      <c r="Q561" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="562">
       <c r="A562" s="2" t="n">
@@ -28568,6 +30253,9 @@
       <c r="P562" t="n">
         <v>0</v>
       </c>
+      <c r="Q562" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="563">
       <c r="A563" s="2" t="n">
@@ -28618,6 +30306,9 @@
       <c r="P563" t="n">
         <v>0</v>
       </c>
+      <c r="Q563" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="564">
       <c r="A564" s="2" t="n">
@@ -28668,6 +30359,9 @@
       <c r="P564" t="n">
         <v>0</v>
       </c>
+      <c r="Q564" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="565">
       <c r="A565" s="2" t="n">
@@ -28718,6 +30412,9 @@
       <c r="P565" t="n">
         <v>0</v>
       </c>
+      <c r="Q565" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="566">
       <c r="A566" s="2" t="n">
@@ -28768,6 +30465,9 @@
       <c r="P566" t="n">
         <v>0</v>
       </c>
+      <c r="Q566" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="567">
       <c r="A567" s="2" t="n">
@@ -28818,6 +30518,9 @@
       <c r="P567" t="n">
         <v>0</v>
       </c>
+      <c r="Q567" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="568">
       <c r="A568" s="2" t="n">
@@ -28868,6 +30571,9 @@
       <c r="P568" t="n">
         <v>0</v>
       </c>
+      <c r="Q568" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="569">
       <c r="A569" s="2" t="n">
@@ -28918,6 +30624,9 @@
       <c r="P569" t="n">
         <v>0</v>
       </c>
+      <c r="Q569" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="570">
       <c r="A570" s="2" t="n">
@@ -28968,6 +30677,9 @@
       <c r="P570" t="n">
         <v>0</v>
       </c>
+      <c r="Q570" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="571">
       <c r="A571" s="2" t="n">
@@ -29018,6 +30730,9 @@
       <c r="P571" t="n">
         <v>0</v>
       </c>
+      <c r="Q571" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="572">
       <c r="A572" s="2" t="n">
@@ -29068,6 +30783,9 @@
       <c r="P572" t="n">
         <v>0</v>
       </c>
+      <c r="Q572" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="573">
       <c r="A573" s="2" t="n">
@@ -29118,6 +30836,9 @@
       <c r="P573" t="n">
         <v>0</v>
       </c>
+      <c r="Q573" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="574">
       <c r="A574" s="2" t="n">
@@ -29168,6 +30889,9 @@
       <c r="P574" t="n">
         <v>0</v>
       </c>
+      <c r="Q574" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="575">
       <c r="A575" s="2" t="n">
@@ -29218,6 +30942,9 @@
       <c r="P575" t="n">
         <v>0</v>
       </c>
+      <c r="Q575" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="576">
       <c r="A576" s="2" t="n">
@@ -29268,6 +30995,9 @@
       <c r="P576" t="n">
         <v>0</v>
       </c>
+      <c r="Q576" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="577">
       <c r="A577" s="2" t="n">
@@ -29318,6 +31048,9 @@
       <c r="P577" t="n">
         <v>0</v>
       </c>
+      <c r="Q577" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="578">
       <c r="A578" s="2" t="n">
@@ -29368,6 +31101,9 @@
       <c r="P578" t="n">
         <v>0</v>
       </c>
+      <c r="Q578" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="579">
       <c r="A579" s="2" t="n">
@@ -29418,6 +31154,9 @@
       <c r="P579" t="n">
         <v>0</v>
       </c>
+      <c r="Q579" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="580">
       <c r="A580" s="2" t="n">
@@ -29468,6 +31207,9 @@
       <c r="P580" t="n">
         <v>0</v>
       </c>
+      <c r="Q580" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="581">
       <c r="A581" s="2" t="n">
@@ -29518,6 +31260,9 @@
       <c r="P581" t="n">
         <v>0</v>
       </c>
+      <c r="Q581" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="582">
       <c r="A582" s="2" t="n">
@@ -29568,6 +31313,9 @@
       <c r="P582" t="n">
         <v>0</v>
       </c>
+      <c r="Q582" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="583">
       <c r="A583" s="2" t="n">
@@ -29618,6 +31366,9 @@
       <c r="P583" t="n">
         <v>0</v>
       </c>
+      <c r="Q583" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="584">
       <c r="A584" s="2" t="n">
@@ -29668,6 +31419,9 @@
       <c r="P584" t="n">
         <v>0</v>
       </c>
+      <c r="Q584" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="585">
       <c r="A585" s="2" t="n">
@@ -29718,6 +31472,9 @@
       <c r="P585" t="n">
         <v>0</v>
       </c>
+      <c r="Q585" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="586">
       <c r="A586" s="2" t="n">
@@ -29768,6 +31525,9 @@
       <c r="P586" t="n">
         <v>0</v>
       </c>
+      <c r="Q586" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="587">
       <c r="A587" s="2" t="n">
@@ -29818,6 +31578,9 @@
       <c r="P587" t="n">
         <v>0</v>
       </c>
+      <c r="Q587" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="588">
       <c r="A588" s="2" t="n">
@@ -29868,6 +31631,9 @@
       <c r="P588" t="n">
         <v>0</v>
       </c>
+      <c r="Q588" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="589">
       <c r="A589" s="2" t="n">
@@ -29918,6 +31684,9 @@
       <c r="P589" t="n">
         <v>0</v>
       </c>
+      <c r="Q589" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="590">
       <c r="A590" s="2" t="n">
@@ -29968,6 +31737,9 @@
       <c r="P590" t="n">
         <v>0</v>
       </c>
+      <c r="Q590" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="591">
       <c r="A591" s="2" t="n">
@@ -30018,6 +31790,9 @@
       <c r="P591" t="n">
         <v>0</v>
       </c>
+      <c r="Q591" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="592">
       <c r="A592" s="2" t="n">
@@ -30068,6 +31843,9 @@
       <c r="P592" t="n">
         <v>0</v>
       </c>
+      <c r="Q592" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="593">
       <c r="A593" s="2" t="n">
@@ -30118,6 +31896,9 @@
       <c r="P593" t="n">
         <v>0</v>
       </c>
+      <c r="Q593" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="594">
       <c r="A594" s="2" t="n">
@@ -30168,6 +31949,9 @@
       <c r="P594" t="n">
         <v>0</v>
       </c>
+      <c r="Q594" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="595">
       <c r="A595" s="2" t="n">
@@ -30218,6 +32002,9 @@
       <c r="P595" t="n">
         <v>0</v>
       </c>
+      <c r="Q595" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="596">
       <c r="A596" s="2" t="n">
@@ -30268,6 +32055,9 @@
       <c r="P596" t="n">
         <v>0</v>
       </c>
+      <c r="Q596" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="597">
       <c r="A597" s="2" t="n">
@@ -30318,6 +32108,9 @@
       <c r="P597" t="n">
         <v>0</v>
       </c>
+      <c r="Q597" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="598">
       <c r="A598" s="2" t="n">
@@ -30368,6 +32161,9 @@
       <c r="P598" t="n">
         <v>0</v>
       </c>
+      <c r="Q598" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="599">
       <c r="A599" s="2" t="n">
@@ -30418,6 +32214,9 @@
       <c r="P599" t="n">
         <v>0</v>
       </c>
+      <c r="Q599" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="600">
       <c r="A600" s="2" t="n">
@@ -30468,6 +32267,9 @@
       <c r="P600" t="n">
         <v>0</v>
       </c>
+      <c r="Q600" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="601">
       <c r="A601" s="2" t="n">
@@ -30518,6 +32320,9 @@
       <c r="P601" t="n">
         <v>0</v>
       </c>
+      <c r="Q601" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="602">
       <c r="A602" s="2" t="n">
@@ -30568,6 +32373,9 @@
       <c r="P602" t="n">
         <v>0</v>
       </c>
+      <c r="Q602" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="603">
       <c r="A603" s="2" t="n">
@@ -30618,6 +32426,9 @@
       <c r="P603" t="n">
         <v>0</v>
       </c>
+      <c r="Q603" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="604">
       <c r="A604" s="2" t="n">
@@ -30668,6 +32479,9 @@
       <c r="P604" t="n">
         <v>0</v>
       </c>
+      <c r="Q604" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="605">
       <c r="A605" s="2" t="n">
@@ -30718,6 +32532,9 @@
       <c r="P605" t="n">
         <v>0</v>
       </c>
+      <c r="Q605" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="606">
       <c r="A606" s="2" t="n">
@@ -30768,6 +32585,9 @@
       <c r="P606" t="n">
         <v>0</v>
       </c>
+      <c r="Q606" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="607">
       <c r="A607" s="2" t="n">
@@ -30818,6 +32638,9 @@
       <c r="P607" t="n">
         <v>0</v>
       </c>
+      <c r="Q607" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="608">
       <c r="A608" s="2" t="n">
@@ -30868,6 +32691,9 @@
       <c r="P608" t="n">
         <v>0</v>
       </c>
+      <c r="Q608" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="609">
       <c r="A609" s="2" t="n">
@@ -30918,6 +32744,9 @@
       <c r="P609" t="n">
         <v>0</v>
       </c>
+      <c r="Q609" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="610">
       <c r="A610" s="2" t="n">
@@ -30968,6 +32797,9 @@
       <c r="P610" t="n">
         <v>0</v>
       </c>
+      <c r="Q610" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="611">
       <c r="A611" s="2" t="n">
@@ -31018,6 +32850,9 @@
       <c r="P611" t="n">
         <v>0</v>
       </c>
+      <c r="Q611" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="612">
       <c r="A612" s="2" t="n">
@@ -31068,6 +32903,9 @@
       <c r="P612" t="n">
         <v>0</v>
       </c>
+      <c r="Q612" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="613">
       <c r="A613" s="2" t="n">
@@ -31118,6 +32956,9 @@
       <c r="P613" t="n">
         <v>0</v>
       </c>
+      <c r="Q613" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="614">
       <c r="A614" s="2" t="n">
@@ -31168,6 +33009,9 @@
       <c r="P614" t="n">
         <v>0</v>
       </c>
+      <c r="Q614" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="615">
       <c r="A615" s="2" t="n">
@@ -31218,6 +33062,9 @@
       <c r="P615" t="n">
         <v>0</v>
       </c>
+      <c r="Q615" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="616">
       <c r="A616" s="2" t="n">
@@ -31268,6 +33115,9 @@
       <c r="P616" t="n">
         <v>0</v>
       </c>
+      <c r="Q616" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="617">
       <c r="A617" s="2" t="n">
@@ -31318,6 +33168,9 @@
       <c r="P617" t="n">
         <v>0</v>
       </c>
+      <c r="Q617" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="618">
       <c r="A618" s="2" t="n">
@@ -31368,6 +33221,9 @@
       <c r="P618" t="n">
         <v>0</v>
       </c>
+      <c r="Q618" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="619">
       <c r="A619" s="2" t="n">
@@ -31418,6 +33274,9 @@
       <c r="P619" t="n">
         <v>0</v>
       </c>
+      <c r="Q619" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="620">
       <c r="A620" s="2" t="n">
@@ -31468,6 +33327,9 @@
       <c r="P620" t="n">
         <v>0</v>
       </c>
+      <c r="Q620" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="621">
       <c r="A621" s="2" t="n">
@@ -31518,6 +33380,9 @@
       <c r="P621" t="n">
         <v>0</v>
       </c>
+      <c r="Q621" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="622">
       <c r="A622" s="2" t="n">
@@ -31568,6 +33433,9 @@
       <c r="P622" t="n">
         <v>0</v>
       </c>
+      <c r="Q622" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="623">
       <c r="A623" s="2" t="n">
@@ -31618,6 +33486,9 @@
       <c r="P623" t="n">
         <v>0</v>
       </c>
+      <c r="Q623" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="624">
       <c r="A624" s="2" t="n">
@@ -31668,6 +33539,9 @@
       <c r="P624" t="n">
         <v>0</v>
       </c>
+      <c r="Q624" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="625">
       <c r="A625" s="2" t="n">
@@ -31718,6 +33592,9 @@
       <c r="P625" t="n">
         <v>0</v>
       </c>
+      <c r="Q625" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="626">
       <c r="A626" s="2" t="n">
@@ -31768,6 +33645,9 @@
       <c r="P626" t="n">
         <v>0</v>
       </c>
+      <c r="Q626" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="627">
       <c r="A627" s="2" t="n">
@@ -31818,6 +33698,9 @@
       <c r="P627" t="n">
         <v>0</v>
       </c>
+      <c r="Q627" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="628">
       <c r="A628" s="2" t="n">
@@ -31868,6 +33751,9 @@
       <c r="P628" t="n">
         <v>0</v>
       </c>
+      <c r="Q628" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="629">
       <c r="A629" s="2" t="n">
@@ -31918,6 +33804,9 @@
       <c r="P629" t="n">
         <v>0</v>
       </c>
+      <c r="Q629" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="630">
       <c r="A630" s="2" t="n">
@@ -31968,6 +33857,9 @@
       <c r="P630" t="n">
         <v>0</v>
       </c>
+      <c r="Q630" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="631">
       <c r="A631" s="2" t="n">
@@ -32018,6 +33910,9 @@
       <c r="P631" t="n">
         <v>0</v>
       </c>
+      <c r="Q631" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="632">
       <c r="A632" s="2" t="n">
@@ -32068,6 +33963,9 @@
       <c r="P632" t="n">
         <v>0</v>
       </c>
+      <c r="Q632" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="633">
       <c r="A633" s="2" t="n">
@@ -32118,6 +34016,9 @@
       <c r="P633" t="n">
         <v>0</v>
       </c>
+      <c r="Q633" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="634">
       <c r="A634" s="2" t="n">
@@ -32168,6 +34069,9 @@
       <c r="P634" t="n">
         <v>0</v>
       </c>
+      <c r="Q634" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="635">
       <c r="A635" s="2" t="n">
@@ -32218,6 +34122,9 @@
       <c r="P635" t="n">
         <v>0</v>
       </c>
+      <c r="Q635" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="636">
       <c r="A636" s="2" t="n">
@@ -32268,6 +34175,9 @@
       <c r="P636" t="n">
         <v>0</v>
       </c>
+      <c r="Q636" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="637">
       <c r="A637" s="2" t="n">
@@ -32318,6 +34228,9 @@
       <c r="P637" t="n">
         <v>0</v>
       </c>
+      <c r="Q637" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="638">
       <c r="A638" s="2" t="n">
@@ -32368,6 +34281,9 @@
       <c r="P638" t="n">
         <v>0</v>
       </c>
+      <c r="Q638" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="639">
       <c r="A639" s="2" t="n">
@@ -32418,6 +34334,9 @@
       <c r="P639" t="n">
         <v>0</v>
       </c>
+      <c r="Q639" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="640">
       <c r="A640" s="2" t="n">
@@ -32468,6 +34387,9 @@
       <c r="P640" t="n">
         <v>0</v>
       </c>
+      <c r="Q640" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="641">
       <c r="A641" s="2" t="n">
@@ -32518,6 +34440,9 @@
       <c r="P641" t="n">
         <v>0</v>
       </c>
+      <c r="Q641" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="642">
       <c r="A642" s="2" t="n">
@@ -32568,6 +34493,9 @@
       <c r="P642" t="n">
         <v>0</v>
       </c>
+      <c r="Q642" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="643">
       <c r="A643" s="2" t="n">
@@ -32618,6 +34546,9 @@
       <c r="P643" t="n">
         <v>0</v>
       </c>
+      <c r="Q643" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="644">
       <c r="A644" s="2" t="n">
@@ -32668,6 +34599,9 @@
       <c r="P644" t="n">
         <v>0</v>
       </c>
+      <c r="Q644" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="645">
       <c r="A645" s="2" t="n">
@@ -32718,6 +34652,9 @@
       <c r="P645" t="n">
         <v>0</v>
       </c>
+      <c r="Q645" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="646">
       <c r="A646" s="2" t="n">
@@ -32768,6 +34705,9 @@
       <c r="P646" t="n">
         <v>0</v>
       </c>
+      <c r="Q646" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="647">
       <c r="A647" s="2" t="n">
@@ -32818,6 +34758,9 @@
       <c r="P647" t="n">
         <v>0</v>
       </c>
+      <c r="Q647" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="648">
       <c r="A648" s="2" t="n">
@@ -32868,6 +34811,9 @@
       <c r="P648" t="n">
         <v>0</v>
       </c>
+      <c r="Q648" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="649">
       <c r="A649" s="2" t="n">
@@ -32918,6 +34864,9 @@
       <c r="P649" t="n">
         <v>0</v>
       </c>
+      <c r="Q649" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="650">
       <c r="A650" s="2" t="n">
@@ -32968,6 +34917,9 @@
       <c r="P650" t="n">
         <v>0</v>
       </c>
+      <c r="Q650" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="651">
       <c r="A651" s="2" t="n">
@@ -33018,6 +34970,9 @@
       <c r="P651" t="n">
         <v>0</v>
       </c>
+      <c r="Q651" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="652">
       <c r="A652" s="2" t="n">
@@ -33068,6 +35023,9 @@
       <c r="P652" t="n">
         <v>0</v>
       </c>
+      <c r="Q652" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="653">
       <c r="A653" s="2" t="n">
@@ -33118,6 +35076,9 @@
       <c r="P653" t="n">
         <v>0</v>
       </c>
+      <c r="Q653" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="654">
       <c r="A654" s="2" t="n">
@@ -33168,6 +35129,9 @@
       <c r="P654" t="n">
         <v>0</v>
       </c>
+      <c r="Q654" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="655">
       <c r="A655" s="2" t="n">
@@ -33218,6 +35182,9 @@
       <c r="P655" t="n">
         <v>0</v>
       </c>
+      <c r="Q655" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="656">
       <c r="A656" s="2" t="n">
@@ -33268,6 +35235,9 @@
       <c r="P656" t="n">
         <v>0</v>
       </c>
+      <c r="Q656" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="657">
       <c r="A657" s="2" t="n">
@@ -33318,6 +35288,9 @@
       <c r="P657" t="n">
         <v>0</v>
       </c>
+      <c r="Q657" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="658">
       <c r="A658" s="2" t="n">
@@ -33368,6 +35341,9 @@
       <c r="P658" t="n">
         <v>0</v>
       </c>
+      <c r="Q658" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="659">
       <c r="A659" s="2" t="n">
@@ -33418,6 +35394,9 @@
       <c r="P659" t="n">
         <v>0</v>
       </c>
+      <c r="Q659" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="660">
       <c r="A660" s="2" t="n">
@@ -33468,6 +35447,9 @@
       <c r="P660" t="n">
         <v>0</v>
       </c>
+      <c r="Q660" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="661">
       <c r="A661" s="2" t="n">
@@ -33518,6 +35500,9 @@
       <c r="P661" t="n">
         <v>0</v>
       </c>
+      <c r="Q661" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="662">
       <c r="A662" s="2" t="n">
@@ -33568,6 +35553,9 @@
       <c r="P662" t="n">
         <v>0</v>
       </c>
+      <c r="Q662" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="663">
       <c r="A663" s="2" t="n">
@@ -33618,6 +35606,9 @@
       <c r="P663" t="n">
         <v>0</v>
       </c>
+      <c r="Q663" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="664">
       <c r="A664" s="2" t="n">
@@ -33668,6 +35659,9 @@
       <c r="P664" t="n">
         <v>0</v>
       </c>
+      <c r="Q664" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="665">
       <c r="A665" s="2" t="n">
@@ -33718,6 +35712,9 @@
       <c r="P665" t="n">
         <v>0</v>
       </c>
+      <c r="Q665" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="666">
       <c r="A666" s="2" t="n">
@@ -33768,6 +35765,9 @@
       <c r="P666" t="n">
         <v>0</v>
       </c>
+      <c r="Q666" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="667">
       <c r="A667" s="2" t="n">
@@ -33818,6 +35818,9 @@
       <c r="P667" t="n">
         <v>0</v>
       </c>
+      <c r="Q667" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="668">
       <c r="A668" s="2" t="n">
@@ -33868,6 +35871,9 @@
       <c r="P668" t="n">
         <v>0</v>
       </c>
+      <c r="Q668" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="669">
       <c r="A669" s="2" t="n">
@@ -33918,6 +35924,9 @@
       <c r="P669" t="n">
         <v>0</v>
       </c>
+      <c r="Q669" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="670">
       <c r="A670" s="2" t="n">
@@ -33968,6 +35977,9 @@
       <c r="P670" t="n">
         <v>0</v>
       </c>
+      <c r="Q670" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="671">
       <c r="A671" s="2" t="n">
@@ -34018,6 +36030,9 @@
       <c r="P671" t="n">
         <v>0</v>
       </c>
+      <c r="Q671" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="672">
       <c r="A672" s="2" t="n">
@@ -34068,6 +36083,9 @@
       <c r="P672" t="n">
         <v>0</v>
       </c>
+      <c r="Q672" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="673">
       <c r="A673" s="2" t="n">
@@ -34118,6 +36136,9 @@
       <c r="P673" t="n">
         <v>0</v>
       </c>
+      <c r="Q673" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="674">
       <c r="A674" s="2" t="n">
@@ -34168,6 +36189,9 @@
       <c r="P674" t="n">
         <v>0</v>
       </c>
+      <c r="Q674" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="675">
       <c r="A675" s="2" t="n">
@@ -34218,6 +36242,9 @@
       <c r="P675" t="n">
         <v>2</v>
       </c>
+      <c r="Q675" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="676">
       <c r="A676" s="2" t="n">
@@ -34268,6 +36295,9 @@
       <c r="P676" t="n">
         <v>0</v>
       </c>
+      <c r="Q676" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="677">
       <c r="A677" s="2" t="n">
@@ -34318,6 +36348,9 @@
       <c r="P677" t="n">
         <v>0</v>
       </c>
+      <c r="Q677" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="678">
       <c r="A678" s="2" t="n">
@@ -34368,6 +36401,9 @@
       <c r="P678" t="n">
         <v>0</v>
       </c>
+      <c r="Q678" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="679">
       <c r="A679" s="2" t="n">
@@ -34418,6 +36454,9 @@
       <c r="P679" t="n">
         <v>0</v>
       </c>
+      <c r="Q679" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="680">
       <c r="A680" s="2" t="n">
@@ -34468,6 +36507,9 @@
       <c r="P680" t="n">
         <v>0</v>
       </c>
+      <c r="Q680" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="681">
       <c r="A681" s="2" t="n">
@@ -34518,6 +36560,9 @@
       <c r="P681" t="n">
         <v>0</v>
       </c>
+      <c r="Q681" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="682">
       <c r="A682" s="2" t="n">
@@ -34568,6 +36613,9 @@
       <c r="P682" t="n">
         <v>0</v>
       </c>
+      <c r="Q682" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="683">
       <c r="A683" s="2" t="n">
@@ -34618,6 +36666,9 @@
       <c r="P683" t="n">
         <v>0</v>
       </c>
+      <c r="Q683" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="684">
       <c r="A684" s="2" t="n">
@@ -34668,6 +36719,9 @@
       <c r="P684" t="n">
         <v>0</v>
       </c>
+      <c r="Q684" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="685">
       <c r="A685" s="2" t="n">
@@ -34718,6 +36772,9 @@
       <c r="P685" t="n">
         <v>0</v>
       </c>
+      <c r="Q685" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="686">
       <c r="A686" s="2" t="n">
@@ -34768,6 +36825,9 @@
       <c r="P686" t="n">
         <v>0</v>
       </c>
+      <c r="Q686" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="687">
       <c r="A687" s="2" t="n">
@@ -34818,6 +36878,9 @@
       <c r="P687" t="n">
         <v>0</v>
       </c>
+      <c r="Q687" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="688">
       <c r="A688" s="2" t="n">
@@ -34868,6 +36931,9 @@
       <c r="P688" t="n">
         <v>0</v>
       </c>
+      <c r="Q688" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="689">
       <c r="A689" s="2" t="n">
@@ -34918,6 +36984,9 @@
       <c r="P689" t="n">
         <v>0</v>
       </c>
+      <c r="Q689" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="690">
       <c r="A690" s="2" t="n">
@@ -34968,6 +37037,9 @@
       <c r="P690" t="n">
         <v>0</v>
       </c>
+      <c r="Q690" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="691">
       <c r="A691" s="2" t="n">
@@ -35018,6 +37090,9 @@
       <c r="P691" t="n">
         <v>0</v>
       </c>
+      <c r="Q691" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="692">
       <c r="A692" s="2" t="n">
@@ -35068,6 +37143,9 @@
       <c r="P692" t="n">
         <v>2</v>
       </c>
+      <c r="Q692" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="693">
       <c r="A693" s="2" t="n">
@@ -35118,6 +37196,9 @@
       <c r="P693" t="n">
         <v>0</v>
       </c>
+      <c r="Q693" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="694">
       <c r="A694" s="2" t="n">
@@ -35168,6 +37249,9 @@
       <c r="P694" t="n">
         <v>0</v>
       </c>
+      <c r="Q694" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="695">
       <c r="A695" s="2" t="n">
@@ -35218,6 +37302,9 @@
       <c r="P695" t="n">
         <v>0</v>
       </c>
+      <c r="Q695" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="696">
       <c r="A696" s="2" t="n">
@@ -35268,6 +37355,9 @@
       <c r="P696" t="n">
         <v>0</v>
       </c>
+      <c r="Q696" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="697">
       <c r="A697" s="2" t="n">
@@ -35318,6 +37408,9 @@
       <c r="P697" t="n">
         <v>0</v>
       </c>
+      <c r="Q697" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="698">
       <c r="A698" s="2" t="n">
@@ -35368,6 +37461,9 @@
       <c r="P698" t="n">
         <v>0</v>
       </c>
+      <c r="Q698" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="699">
       <c r="A699" s="2" t="n">
@@ -35418,6 +37514,9 @@
       <c r="P699" t="n">
         <v>0</v>
       </c>
+      <c r="Q699" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="700">
       <c r="A700" s="2" t="n">
@@ -35468,6 +37567,9 @@
       <c r="P700" t="n">
         <v>0</v>
       </c>
+      <c r="Q700" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="701">
       <c r="A701" s="2" t="n">
@@ -35518,6 +37620,9 @@
       <c r="P701" t="n">
         <v>0</v>
       </c>
+      <c r="Q701" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="702">
       <c r="A702" s="2" t="n">
@@ -35568,6 +37673,9 @@
       <c r="P702" t="n">
         <v>0</v>
       </c>
+      <c r="Q702" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="703">
       <c r="A703" s="2" t="n">
@@ -35618,6 +37726,9 @@
       <c r="P703" t="n">
         <v>0</v>
       </c>
+      <c r="Q703" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="704">
       <c r="A704" s="2" t="n">
@@ -35668,6 +37779,9 @@
       <c r="P704" t="n">
         <v>0</v>
       </c>
+      <c r="Q704" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="705">
       <c r="A705" s="2" t="n">
@@ -35718,6 +37832,9 @@
       <c r="P705" t="n">
         <v>0</v>
       </c>
+      <c r="Q705" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="706">
       <c r="A706" s="2" t="n">
@@ -35768,6 +37885,9 @@
       <c r="P706" t="n">
         <v>0</v>
       </c>
+      <c r="Q706" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="707">
       <c r="A707" s="2" t="n">
@@ -35818,6 +37938,9 @@
       <c r="P707" t="n">
         <v>0</v>
       </c>
+      <c r="Q707" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="708">
       <c r="A708" s="2" t="n">
@@ -35868,6 +37991,9 @@
       <c r="P708" t="n">
         <v>0</v>
       </c>
+      <c r="Q708" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="709">
       <c r="A709" s="2" t="n">
@@ -35918,6 +38044,9 @@
       <c r="P709" t="n">
         <v>0</v>
       </c>
+      <c r="Q709" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="710">
       <c r="A710" s="2" t="n">
@@ -35968,6 +38097,9 @@
       <c r="P710" t="n">
         <v>0</v>
       </c>
+      <c r="Q710" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="711">
       <c r="A711" s="2" t="n">
@@ -36018,6 +38150,9 @@
       <c r="P711" t="n">
         <v>0</v>
       </c>
+      <c r="Q711" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="712">
       <c r="A712" s="2" t="n">
@@ -36068,6 +38203,9 @@
       <c r="P712" t="n">
         <v>0</v>
       </c>
+      <c r="Q712" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="713">
       <c r="A713" s="2" t="n">
@@ -36118,6 +38256,9 @@
       <c r="P713" t="n">
         <v>0</v>
       </c>
+      <c r="Q713" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="714">
       <c r="A714" s="2" t="n">
@@ -36168,6 +38309,9 @@
       <c r="P714" t="n">
         <v>0</v>
       </c>
+      <c r="Q714" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="715">
       <c r="A715" s="2" t="n">
@@ -36218,6 +38362,9 @@
       <c r="P715" t="n">
         <v>0</v>
       </c>
+      <c r="Q715" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="716">
       <c r="A716" s="2" t="n">
@@ -36268,6 +38415,9 @@
       <c r="P716" t="n">
         <v>0</v>
       </c>
+      <c r="Q716" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="717">
       <c r="A717" s="2" t="n">
@@ -36318,6 +38468,9 @@
       <c r="P717" t="n">
         <v>0</v>
       </c>
+      <c r="Q717" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="718">
       <c r="A718" s="2" t="n">
@@ -36368,6 +38521,9 @@
       <c r="P718" t="n">
         <v>0</v>
       </c>
+      <c r="Q718" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="719">
       <c r="A719" s="2" t="n">
@@ -36418,6 +38574,9 @@
       <c r="P719" t="n">
         <v>0</v>
       </c>
+      <c r="Q719" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="720">
       <c r="A720" s="2" t="n">
@@ -36468,6 +38627,9 @@
       <c r="P720" t="n">
         <v>0</v>
       </c>
+      <c r="Q720" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="721">
       <c r="A721" s="2" t="n">
@@ -36518,6 +38680,9 @@
       <c r="P721" t="n">
         <v>0</v>
       </c>
+      <c r="Q721" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="722">
       <c r="A722" s="2" t="n">
@@ -36568,6 +38733,9 @@
       <c r="P722" t="n">
         <v>0</v>
       </c>
+      <c r="Q722" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="723">
       <c r="A723" s="2" t="n">
@@ -36618,6 +38786,9 @@
       <c r="P723" t="n">
         <v>0</v>
       </c>
+      <c r="Q723" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="724">
       <c r="A724" s="2" t="n">
@@ -36668,6 +38839,9 @@
       <c r="P724" t="n">
         <v>0</v>
       </c>
+      <c r="Q724" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="725">
       <c r="A725" s="2" t="n">
@@ -36718,6 +38892,9 @@
       <c r="P725" t="n">
         <v>0</v>
       </c>
+      <c r="Q725" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="726">
       <c r="A726" s="2" t="n">
@@ -36768,6 +38945,9 @@
       <c r="P726" t="n">
         <v>0</v>
       </c>
+      <c r="Q726" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="727">
       <c r="A727" s="2" t="n">
@@ -36818,6 +38998,9 @@
       <c r="P727" t="n">
         <v>0</v>
       </c>
+      <c r="Q727" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="728">
       <c r="A728" s="2" t="n">
@@ -36868,6 +39051,9 @@
       <c r="P728" t="n">
         <v>0</v>
       </c>
+      <c r="Q728" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="729">
       <c r="A729" s="2" t="n">
@@ -36918,6 +39104,9 @@
       <c r="P729" t="n">
         <v>0</v>
       </c>
+      <c r="Q729" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="730">
       <c r="A730" s="2" t="n">
@@ -36968,6 +39157,9 @@
       <c r="P730" t="n">
         <v>0</v>
       </c>
+      <c r="Q730" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="731">
       <c r="A731" s="2" t="n">
@@ -37018,6 +39210,9 @@
       <c r="P731" t="n">
         <v>0</v>
       </c>
+      <c r="Q731" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="732">
       <c r="A732" s="2" t="n">
@@ -37068,6 +39263,9 @@
       <c r="P732" t="n">
         <v>0</v>
       </c>
+      <c r="Q732" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="733">
       <c r="A733" s="2" t="n">
@@ -37118,6 +39316,9 @@
       <c r="P733" t="n">
         <v>0</v>
       </c>
+      <c r="Q733" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="734">
       <c r="A734" s="2" t="n">
@@ -37168,6 +39369,9 @@
       <c r="P734" t="n">
         <v>0</v>
       </c>
+      <c r="Q734" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="735">
       <c r="A735" s="2" t="n">
@@ -37218,6 +39422,9 @@
       <c r="P735" t="n">
         <v>0</v>
       </c>
+      <c r="Q735" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="736">
       <c r="A736" s="2" t="n">
@@ -37268,6 +39475,9 @@
       <c r="P736" t="n">
         <v>0</v>
       </c>
+      <c r="Q736" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="737">
       <c r="A737" s="2" t="n">
@@ -37318,6 +39528,9 @@
       <c r="P737" t="n">
         <v>0</v>
       </c>
+      <c r="Q737" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="738">
       <c r="A738" s="2" t="n">
@@ -37368,6 +39581,9 @@
       <c r="P738" t="n">
         <v>0</v>
       </c>
+      <c r="Q738" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="739">
       <c r="A739" s="2" t="n">
@@ -37418,6 +39634,9 @@
       <c r="P739" t="n">
         <v>0</v>
       </c>
+      <c r="Q739" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="740">
       <c r="A740" s="2" t="n">
@@ -37468,6 +39687,9 @@
       <c r="P740" t="n">
         <v>0</v>
       </c>
+      <c r="Q740" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="741">
       <c r="A741" s="2" t="n">
@@ -37518,6 +39740,9 @@
       <c r="P741" t="n">
         <v>0</v>
       </c>
+      <c r="Q741" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="742">
       <c r="A742" s="2" t="n">
@@ -37568,6 +39793,9 @@
       <c r="P742" t="n">
         <v>0</v>
       </c>
+      <c r="Q742" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="743">
       <c r="A743" s="2" t="n">
@@ -37618,6 +39846,9 @@
       <c r="P743" t="n">
         <v>0</v>
       </c>
+      <c r="Q743" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="744">
       <c r="A744" s="2" t="n">
@@ -37668,6 +39899,9 @@
       <c r="P744" t="n">
         <v>0</v>
       </c>
+      <c r="Q744" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="745">
       <c r="A745" s="2" t="n">
@@ -37718,6 +39952,9 @@
       <c r="P745" t="n">
         <v>0</v>
       </c>
+      <c r="Q745" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="746">
       <c r="A746" s="2" t="n">
@@ -37768,6 +40005,9 @@
       <c r="P746" t="n">
         <v>0</v>
       </c>
+      <c r="Q746" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="747">
       <c r="A747" s="2" t="n">
@@ -37818,6 +40058,9 @@
       <c r="P747" t="n">
         <v>0</v>
       </c>
+      <c r="Q747" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="748">
       <c r="A748" s="2" t="n">
@@ -37868,6 +40111,9 @@
       <c r="P748" t="n">
         <v>0</v>
       </c>
+      <c r="Q748" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="749">
       <c r="A749" s="2" t="n">
@@ -37918,6 +40164,9 @@
       <c r="P749" t="n">
         <v>0</v>
       </c>
+      <c r="Q749" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="750">
       <c r="A750" s="2" t="n">
@@ -37968,6 +40217,9 @@
       <c r="P750" t="n">
         <v>0</v>
       </c>
+      <c r="Q750" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="751">
       <c r="A751" s="2" t="n">
@@ -38018,6 +40270,9 @@
       <c r="P751" t="n">
         <v>0</v>
       </c>
+      <c r="Q751" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="752">
       <c r="A752" s="2" t="n">
@@ -38068,6 +40323,9 @@
       <c r="P752" t="n">
         <v>0</v>
       </c>
+      <c r="Q752" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="753">
       <c r="A753" s="2" t="n">
@@ -38118,6 +40376,9 @@
       <c r="P753" t="n">
         <v>0</v>
       </c>
+      <c r="Q753" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="754">
       <c r="A754" s="2" t="n">
@@ -38168,6 +40429,9 @@
       <c r="P754" t="n">
         <v>0</v>
       </c>
+      <c r="Q754" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="755">
       <c r="A755" s="2" t="n">
@@ -38218,6 +40482,9 @@
       <c r="P755" t="n">
         <v>0</v>
       </c>
+      <c r="Q755" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="756">
       <c r="A756" s="2" t="n">
@@ -38268,6 +40535,9 @@
       <c r="P756" t="n">
         <v>0</v>
       </c>
+      <c r="Q756" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="757">
       <c r="A757" s="2" t="n">
@@ -38318,6 +40588,9 @@
       <c r="P757" t="n">
         <v>0</v>
       </c>
+      <c r="Q757" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="758">
       <c r="A758" s="2" t="n">
@@ -38368,6 +40641,9 @@
       <c r="P758" t="n">
         <v>0</v>
       </c>
+      <c r="Q758" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="759">
       <c r="A759" s="2" t="n">
@@ -38418,6 +40694,9 @@
       <c r="P759" t="n">
         <v>0</v>
       </c>
+      <c r="Q759" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="760">
       <c r="A760" s="2" t="n">
@@ -38468,6 +40747,9 @@
       <c r="P760" t="n">
         <v>0</v>
       </c>
+      <c r="Q760" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="761">
       <c r="A761" s="2" t="n">
@@ -38518,6 +40800,9 @@
       <c r="P761" t="n">
         <v>0</v>
       </c>
+      <c r="Q761" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="762">
       <c r="A762" s="2" t="n">
@@ -38568,6 +40853,9 @@
       <c r="P762" t="n">
         <v>0</v>
       </c>
+      <c r="Q762" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="763">
       <c r="A763" s="2" t="n">
@@ -38618,6 +40906,9 @@
       <c r="P763" t="n">
         <v>0</v>
       </c>
+      <c r="Q763" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="764">
       <c r="A764" s="2" t="n">
@@ -38668,6 +40959,9 @@
       <c r="P764" t="n">
         <v>0</v>
       </c>
+      <c r="Q764" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="765">
       <c r="A765" s="2" t="n">
@@ -38718,6 +41012,9 @@
       <c r="P765" t="n">
         <v>0</v>
       </c>
+      <c r="Q765" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="766">
       <c r="A766" s="2" t="n">
@@ -38768,6 +41065,9 @@
       <c r="P766" t="n">
         <v>0</v>
       </c>
+      <c r="Q766" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="767">
       <c r="A767" s="2" t="n">
@@ -38818,6 +41118,9 @@
       <c r="P767" t="n">
         <v>0</v>
       </c>
+      <c r="Q767" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="768">
       <c r="A768" s="2" t="n">
@@ -38868,6 +41171,9 @@
       <c r="P768" t="n">
         <v>0</v>
       </c>
+      <c r="Q768" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="769">
       <c r="A769" s="2" t="n">
@@ -38918,6 +41224,9 @@
       <c r="P769" t="n">
         <v>0</v>
       </c>
+      <c r="Q769" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="770">
       <c r="A770" s="2" t="n">
@@ -38968,6 +41277,9 @@
       <c r="P770" t="n">
         <v>0</v>
       </c>
+      <c r="Q770" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="771">
       <c r="A771" s="2" t="n">
@@ -39018,6 +41330,9 @@
       <c r="P771" t="n">
         <v>0</v>
       </c>
+      <c r="Q771" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="772">
       <c r="A772" s="2" t="n">
@@ -39068,6 +41383,9 @@
       <c r="P772" t="n">
         <v>0</v>
       </c>
+      <c r="Q772" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="773">
       <c r="A773" s="2" t="n">
@@ -39118,6 +41436,9 @@
       <c r="P773" t="n">
         <v>0</v>
       </c>
+      <c r="Q773" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="774">
       <c r="A774" s="2" t="n">
@@ -39168,6 +41489,9 @@
       <c r="P774" t="n">
         <v>0</v>
       </c>
+      <c r="Q774" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="775">
       <c r="A775" s="2" t="n">
@@ -39218,6 +41542,9 @@
       <c r="P775" t="n">
         <v>0</v>
       </c>
+      <c r="Q775" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="776">
       <c r="A776" s="2" t="n">
@@ -39268,6 +41595,9 @@
       <c r="P776" t="n">
         <v>0</v>
       </c>
+      <c r="Q776" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="777">
       <c r="A777" s="2" t="n">
@@ -39318,6 +41648,9 @@
       <c r="P777" t="n">
         <v>0</v>
       </c>
+      <c r="Q777" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="778">
       <c r="A778" s="2" t="n">
@@ -39368,6 +41701,9 @@
       <c r="P778" t="n">
         <v>0</v>
       </c>
+      <c r="Q778" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="779">
       <c r="A779" s="2" t="n">
@@ -39418,6 +41754,9 @@
       <c r="P779" t="n">
         <v>0</v>
       </c>
+      <c r="Q779" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="780">
       <c r="A780" s="2" t="n">
@@ -39468,6 +41807,9 @@
       <c r="P780" t="n">
         <v>0</v>
       </c>
+      <c r="Q780" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="781">
       <c r="A781" s="2" t="n">
@@ -39518,6 +41860,9 @@
       <c r="P781" t="n">
         <v>0</v>
       </c>
+      <c r="Q781" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="782">
       <c r="A782" s="2" t="n">
@@ -39568,6 +41913,9 @@
       <c r="P782" t="n">
         <v>0</v>
       </c>
+      <c r="Q782" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="783">
       <c r="A783" s="2" t="n">
@@ -39618,6 +41966,9 @@
       <c r="P783" t="n">
         <v>0</v>
       </c>
+      <c r="Q783" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="784">
       <c r="A784" s="2" t="n">
@@ -39668,6 +42019,9 @@
       <c r="P784" t="n">
         <v>0</v>
       </c>
+      <c r="Q784" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="785">
       <c r="A785" s="2" t="n">
@@ -39718,6 +42072,9 @@
       <c r="P785" t="n">
         <v>0</v>
       </c>
+      <c r="Q785" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="786">
       <c r="A786" s="2" t="n">
@@ -39768,6 +42125,9 @@
       <c r="P786" t="n">
         <v>0</v>
       </c>
+      <c r="Q786" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="787">
       <c r="A787" s="2" t="n">
@@ -39818,6 +42178,9 @@
       <c r="P787" t="n">
         <v>0</v>
       </c>
+      <c r="Q787" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="788">
       <c r="A788" s="2" t="n">
@@ -39868,6 +42231,9 @@
       <c r="P788" t="n">
         <v>0</v>
       </c>
+      <c r="Q788" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="789">
       <c r="A789" s="2" t="n">
@@ -39918,6 +42284,9 @@
       <c r="P789" t="n">
         <v>0</v>
       </c>
+      <c r="Q789" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="790">
       <c r="A790" s="2" t="n">
@@ -39968,6 +42337,9 @@
       <c r="P790" t="n">
         <v>0</v>
       </c>
+      <c r="Q790" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="791">
       <c r="A791" s="2" t="n">
@@ -40018,6 +42390,9 @@
       <c r="P791" t="n">
         <v>0</v>
       </c>
+      <c r="Q791" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="792">
       <c r="A792" s="2" t="n">
@@ -40068,6 +42443,9 @@
       <c r="P792" t="n">
         <v>0</v>
       </c>
+      <c r="Q792" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="793">
       <c r="A793" s="2" t="n">
@@ -40118,6 +42496,9 @@
       <c r="P793" t="n">
         <v>0</v>
       </c>
+      <c r="Q793" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="794">
       <c r="A794" s="2" t="n">
@@ -40168,6 +42549,9 @@
       <c r="P794" t="n">
         <v>0</v>
       </c>
+      <c r="Q794" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="795">
       <c r="A795" s="2" t="n">
@@ -40218,6 +42602,9 @@
       <c r="P795" t="n">
         <v>0</v>
       </c>
+      <c r="Q795" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="796">
       <c r="A796" s="2" t="n">
@@ -40268,6 +42655,9 @@
       <c r="P796" t="n">
         <v>0</v>
       </c>
+      <c r="Q796" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="797">
       <c r="A797" s="2" t="n">
@@ -40318,6 +42708,9 @@
       <c r="P797" t="n">
         <v>0</v>
       </c>
+      <c r="Q797" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="798">
       <c r="A798" s="2" t="n">
@@ -40368,6 +42761,9 @@
       <c r="P798" t="n">
         <v>0</v>
       </c>
+      <c r="Q798" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="799">
       <c r="A799" s="2" t="n">
@@ -40418,6 +42814,9 @@
       <c r="P799" t="n">
         <v>0</v>
       </c>
+      <c r="Q799" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="800">
       <c r="A800" s="2" t="n">
@@ -40468,6 +42867,9 @@
       <c r="P800" t="n">
         <v>0</v>
       </c>
+      <c r="Q800" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="801">
       <c r="A801" s="2" t="n">
@@ -40518,6 +42920,9 @@
       <c r="P801" t="n">
         <v>0</v>
       </c>
+      <c r="Q801" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="802">
       <c r="A802" s="2" t="n">
@@ -40568,6 +42973,9 @@
       <c r="P802" t="n">
         <v>0</v>
       </c>
+      <c r="Q802" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="803">
       <c r="A803" s="2" t="n">
@@ -40618,6 +43026,9 @@
       <c r="P803" t="n">
         <v>0</v>
       </c>
+      <c r="Q803" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="804">
       <c r="A804" s="2" t="n">
@@ -40668,6 +43079,9 @@
       <c r="P804" t="n">
         <v>0</v>
       </c>
+      <c r="Q804" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="805">
       <c r="A805" s="2" t="n">
@@ -40718,6 +43132,9 @@
       <c r="P805" t="n">
         <v>0</v>
       </c>
+      <c r="Q805" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="806">
       <c r="A806" s="2" t="n">
@@ -40768,6 +43185,9 @@
       <c r="P806" t="n">
         <v>0</v>
       </c>
+      <c r="Q806" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="807">
       <c r="A807" s="2" t="n">
@@ -40818,6 +43238,9 @@
       <c r="P807" t="n">
         <v>0</v>
       </c>
+      <c r="Q807" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="808">
       <c r="A808" s="2" t="n">
@@ -40868,6 +43291,9 @@
       <c r="P808" t="n">
         <v>0</v>
       </c>
+      <c r="Q808" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="809">
       <c r="A809" s="2" t="n">
@@ -40918,6 +43344,9 @@
       <c r="P809" t="n">
         <v>0</v>
       </c>
+      <c r="Q809" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="810">
       <c r="A810" s="2" t="n">
@@ -40968,6 +43397,9 @@
       <c r="P810" t="n">
         <v>0</v>
       </c>
+      <c r="Q810" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="811">
       <c r="A811" s="2" t="n">
@@ -41018,6 +43450,9 @@
       <c r="P811" t="n">
         <v>0</v>
       </c>
+      <c r="Q811" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="812">
       <c r="A812" s="2" t="n">
@@ -41068,6 +43503,9 @@
       <c r="P812" t="n">
         <v>0</v>
       </c>
+      <c r="Q812" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="813">
       <c r="A813" s="2" t="n">
@@ -41118,6 +43556,9 @@
       <c r="P813" t="n">
         <v>0</v>
       </c>
+      <c r="Q813" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="814">
       <c r="A814" s="2" t="n">
@@ -41168,6 +43609,9 @@
       <c r="P814" t="n">
         <v>0</v>
       </c>
+      <c r="Q814" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="815">
       <c r="A815" s="2" t="n">
@@ -41218,6 +43662,9 @@
       <c r="P815" t="n">
         <v>0</v>
       </c>
+      <c r="Q815" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="816">
       <c r="A816" s="2" t="n">
@@ -41268,6 +43715,9 @@
       <c r="P816" t="n">
         <v>0</v>
       </c>
+      <c r="Q816" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="817">
       <c r="A817" s="2" t="n">
@@ -41318,6 +43768,9 @@
       <c r="P817" t="n">
         <v>0</v>
       </c>
+      <c r="Q817" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="818">
       <c r="A818" s="2" t="n">
@@ -41368,6 +43821,9 @@
       <c r="P818" t="n">
         <v>0</v>
       </c>
+      <c r="Q818" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="819">
       <c r="A819" s="2" t="n">
@@ -41418,6 +43874,9 @@
       <c r="P819" t="n">
         <v>0</v>
       </c>
+      <c r="Q819" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="820">
       <c r="A820" s="2" t="n">
@@ -41468,6 +43927,9 @@
       <c r="P820" t="n">
         <v>0</v>
       </c>
+      <c r="Q820" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="821">
       <c r="A821" s="2" t="n">
@@ -41518,6 +43980,9 @@
       <c r="P821" t="n">
         <v>0</v>
       </c>
+      <c r="Q821" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="822">
       <c r="A822" s="2" t="n">
@@ -41568,6 +44033,9 @@
       <c r="P822" t="n">
         <v>0</v>
       </c>
+      <c r="Q822" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="823">
       <c r="A823" s="2" t="n">
@@ -41618,6 +44086,9 @@
       <c r="P823" t="n">
         <v>0</v>
       </c>
+      <c r="Q823" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="824">
       <c r="A824" s="2" t="n">
@@ -41668,6 +44139,9 @@
       <c r="P824" t="n">
         <v>0</v>
       </c>
+      <c r="Q824" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="825">
       <c r="A825" s="2" t="n">
@@ -41718,6 +44192,9 @@
       <c r="P825" t="n">
         <v>0</v>
       </c>
+      <c r="Q825" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="826">
       <c r="A826" s="2" t="n">
@@ -41768,6 +44245,9 @@
       <c r="P826" t="n">
         <v>0</v>
       </c>
+      <c r="Q826" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="827">
       <c r="A827" s="2" t="n">
@@ -41818,6 +44298,9 @@
       <c r="P827" t="n">
         <v>0</v>
       </c>
+      <c r="Q827" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="828">
       <c r="A828" s="2" t="n">
@@ -41868,6 +44351,9 @@
       <c r="P828" t="n">
         <v>0</v>
       </c>
+      <c r="Q828" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="829">
       <c r="A829" s="2" t="n">
@@ -41918,6 +44404,9 @@
       <c r="P829" t="n">
         <v>0</v>
       </c>
+      <c r="Q829" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="830">
       <c r="A830" s="2" t="n">
@@ -41968,6 +44457,9 @@
       <c r="P830" t="n">
         <v>0</v>
       </c>
+      <c r="Q830" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="831">
       <c r="A831" s="2" t="n">
@@ -42018,6 +44510,9 @@
       <c r="P831" t="n">
         <v>0</v>
       </c>
+      <c r="Q831" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="832">
       <c r="A832" s="2" t="n">
@@ -42068,6 +44563,9 @@
       <c r="P832" t="n">
         <v>0</v>
       </c>
+      <c r="Q832" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="833">
       <c r="A833" s="2" t="n">
@@ -42118,6 +44616,9 @@
       <c r="P833" t="n">
         <v>0</v>
       </c>
+      <c r="Q833" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="834">
       <c r="A834" s="2" t="n">
@@ -42168,6 +44669,9 @@
       <c r="P834" t="n">
         <v>0</v>
       </c>
+      <c r="Q834" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="835">
       <c r="A835" s="2" t="n">
@@ -42218,6 +44722,9 @@
       <c r="P835" t="n">
         <v>0</v>
       </c>
+      <c r="Q835" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="836">
       <c r="A836" s="2" t="n">
@@ -42268,6 +44775,9 @@
       <c r="P836" t="n">
         <v>0</v>
       </c>
+      <c r="Q836" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="837">
       <c r="A837" s="2" t="n">
@@ -42318,6 +44828,9 @@
       <c r="P837" t="n">
         <v>0</v>
       </c>
+      <c r="Q837" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="838">
       <c r="A838" s="2" t="n">
@@ -42368,6 +44881,9 @@
       <c r="P838" t="n">
         <v>0</v>
       </c>
+      <c r="Q838" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="839">
       <c r="A839" s="2" t="n">
@@ -42418,6 +44934,9 @@
       <c r="P839" t="n">
         <v>0</v>
       </c>
+      <c r="Q839" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="840">
       <c r="A840" s="2" t="n">
@@ -42468,6 +44987,9 @@
       <c r="P840" t="n">
         <v>0</v>
       </c>
+      <c r="Q840" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="841">
       <c r="A841" s="2" t="n">
@@ -42518,6 +45040,9 @@
       <c r="P841" t="n">
         <v>0</v>
       </c>
+      <c r="Q841" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="842">
       <c r="A842" s="2" t="n">
@@ -42568,6 +45093,9 @@
       <c r="P842" t="n">
         <v>0</v>
       </c>
+      <c r="Q842" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="843">
       <c r="A843" s="2" t="n">
@@ -42618,6 +45146,9 @@
       <c r="P843" t="n">
         <v>0</v>
       </c>
+      <c r="Q843" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="844">
       <c r="A844" s="2" t="n">
@@ -42668,6 +45199,9 @@
       <c r="P844" t="n">
         <v>0</v>
       </c>
+      <c r="Q844" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="845">
       <c r="A845" s="2" t="n">
@@ -42718,6 +45252,9 @@
       <c r="P845" t="n">
         <v>0</v>
       </c>
+      <c r="Q845" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="846">
       <c r="A846" s="2" t="n">
@@ -42768,6 +45305,9 @@
       <c r="P846" t="n">
         <v>0</v>
       </c>
+      <c r="Q846" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="847">
       <c r="A847" s="2" t="n">
@@ -42818,6 +45358,9 @@
       <c r="P847" t="n">
         <v>0</v>
       </c>
+      <c r="Q847" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="848">
       <c r="A848" s="2" t="n">
@@ -42868,6 +45411,9 @@
       <c r="P848" t="n">
         <v>0</v>
       </c>
+      <c r="Q848" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="849">
       <c r="A849" s="2" t="n">
@@ -42918,6 +45464,9 @@
       <c r="P849" t="n">
         <v>0</v>
       </c>
+      <c r="Q849" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="850">
       <c r="A850" s="2" t="n">
@@ -42968,6 +45517,9 @@
       <c r="P850" t="n">
         <v>0</v>
       </c>
+      <c r="Q850" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="851">
       <c r="A851" s="2" t="n">
@@ -43018,6 +45570,9 @@
       <c r="P851" t="n">
         <v>0</v>
       </c>
+      <c r="Q851" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="852">
       <c r="A852" s="2" t="n">
@@ -43068,6 +45623,9 @@
       <c r="P852" t="n">
         <v>0</v>
       </c>
+      <c r="Q852" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="853">
       <c r="A853" s="2" t="n">
@@ -43118,6 +45676,9 @@
       <c r="P853" t="n">
         <v>0</v>
       </c>
+      <c r="Q853" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="854">
       <c r="A854" s="2" t="n">
@@ -43168,6 +45729,9 @@
       <c r="P854" t="n">
         <v>0</v>
       </c>
+      <c r="Q854" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="855">
       <c r="A855" s="2" t="n">
@@ -43218,6 +45782,9 @@
       <c r="P855" t="n">
         <v>0</v>
       </c>
+      <c r="Q855" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="856">
       <c r="A856" s="2" t="n">
@@ -43268,6 +45835,9 @@
       <c r="P856" t="n">
         <v>0</v>
       </c>
+      <c r="Q856" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="857">
       <c r="A857" s="2" t="n">
@@ -43318,6 +45888,9 @@
       <c r="P857" t="n">
         <v>0</v>
       </c>
+      <c r="Q857" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="858">
       <c r="A858" s="2" t="n">
@@ -43368,6 +45941,9 @@
       <c r="P858" t="n">
         <v>0</v>
       </c>
+      <c r="Q858" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="859">
       <c r="A859" s="2" t="n">
@@ -43418,6 +45994,9 @@
       <c r="P859" t="n">
         <v>0</v>
       </c>
+      <c r="Q859" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="860">
       <c r="A860" s="2" t="n">
@@ -43468,6 +46047,9 @@
       <c r="P860" t="n">
         <v>0</v>
       </c>
+      <c r="Q860" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="861">
       <c r="A861" s="2" t="n">
@@ -43518,6 +46100,9 @@
       <c r="P861" t="n">
         <v>0</v>
       </c>
+      <c r="Q861" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="862">
       <c r="A862" s="2" t="n">
@@ -43568,6 +46153,9 @@
       <c r="P862" t="n">
         <v>0</v>
       </c>
+      <c r="Q862" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="863">
       <c r="A863" s="2" t="n">
@@ -43618,6 +46206,9 @@
       <c r="P863" t="n">
         <v>0</v>
       </c>
+      <c r="Q863" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="864">
       <c r="A864" s="2" t="n">
@@ -43668,6 +46259,9 @@
       <c r="P864" t="n">
         <v>0</v>
       </c>
+      <c r="Q864" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="865">
       <c r="A865" s="2" t="n">
@@ -43718,6 +46312,9 @@
       <c r="P865" t="n">
         <v>2</v>
       </c>
+      <c r="Q865" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="866">
       <c r="A866" s="2" t="n">
@@ -43768,6 +46365,9 @@
       <c r="P866" t="n">
         <v>0</v>
       </c>
+      <c r="Q866" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="867">
       <c r="A867" s="2" t="n">
@@ -43818,6 +46418,9 @@
       <c r="P867" t="n">
         <v>0</v>
       </c>
+      <c r="Q867" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="868">
       <c r="A868" s="2" t="n">
@@ -43868,6 +46471,9 @@
       <c r="P868" t="n">
         <v>2</v>
       </c>
+      <c r="Q868" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="869">
       <c r="A869" s="2" t="n">
@@ -43918,6 +46524,9 @@
       <c r="P869" t="n">
         <v>0</v>
       </c>
+      <c r="Q869" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="870">
       <c r="A870" s="2" t="n">
@@ -43968,6 +46577,9 @@
       <c r="P870" t="n">
         <v>0</v>
       </c>
+      <c r="Q870" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="871">
       <c r="A871" s="2" t="n">
@@ -44018,6 +46630,9 @@
       <c r="P871" t="n">
         <v>0</v>
       </c>
+      <c r="Q871" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="872">
       <c r="A872" s="2" t="n">
@@ -44068,6 +46683,9 @@
       <c r="P872" t="n">
         <v>0</v>
       </c>
+      <c r="Q872" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="873">
       <c r="A873" s="2" t="n">
@@ -44118,6 +46736,9 @@
       <c r="P873" t="n">
         <v>0</v>
       </c>
+      <c r="Q873" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="874">
       <c r="A874" s="2" t="n">
@@ -44168,6 +46789,9 @@
       <c r="P874" t="n">
         <v>0</v>
       </c>
+      <c r="Q874" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="875">
       <c r="A875" s="2" t="n">
@@ -44218,6 +46842,9 @@
       <c r="P875" t="n">
         <v>0</v>
       </c>
+      <c r="Q875" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="876">
       <c r="A876" s="2" t="n">
@@ -44268,6 +46895,9 @@
       <c r="P876" t="n">
         <v>0</v>
       </c>
+      <c r="Q876" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="877">
       <c r="A877" s="2" t="n">
@@ -44318,6 +46948,9 @@
       <c r="P877" t="n">
         <v>0</v>
       </c>
+      <c r="Q877" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="878">
       <c r="A878" s="2" t="n">
@@ -44368,6 +47001,9 @@
       <c r="P878" t="n">
         <v>0</v>
       </c>
+      <c r="Q878" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="879">
       <c r="A879" s="2" t="n">
@@ -44418,6 +47054,9 @@
       <c r="P879" t="n">
         <v>0</v>
       </c>
+      <c r="Q879" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="880">
       <c r="A880" s="2" t="n">
@@ -44468,6 +47107,9 @@
       <c r="P880" t="n">
         <v>1</v>
       </c>
+      <c r="Q880" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="881">
       <c r="A881" s="2" t="n">
@@ -44518,6 +47160,9 @@
       <c r="P881" t="n">
         <v>2</v>
       </c>
+      <c r="Q881" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="882">
       <c r="A882" s="2" t="n">
@@ -44568,6 +47213,9 @@
       <c r="P882" t="n">
         <v>0</v>
       </c>
+      <c r="Q882" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="883">
       <c r="A883" s="2" t="n">
@@ -44618,6 +47266,9 @@
       <c r="P883" t="n">
         <v>0</v>
       </c>
+      <c r="Q883" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="884">
       <c r="A884" s="2" t="n">
@@ -44668,6 +47319,9 @@
       <c r="P884" t="n">
         <v>0</v>
       </c>
+      <c r="Q884" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="885">
       <c r="A885" s="2" t="n">
@@ -44718,6 +47372,9 @@
       <c r="P885" t="n">
         <v>0</v>
       </c>
+      <c r="Q885" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="886">
       <c r="A886" s="2" t="n">
@@ -44768,6 +47425,9 @@
       <c r="P886" t="n">
         <v>0</v>
       </c>
+      <c r="Q886" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="887">
       <c r="A887" s="2" t="n">
@@ -44818,6 +47478,9 @@
       <c r="P887" t="n">
         <v>0</v>
       </c>
+      <c r="Q887" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="888">
       <c r="A888" s="2" t="n">
@@ -44868,6 +47531,9 @@
       <c r="P888" t="n">
         <v>0</v>
       </c>
+      <c r="Q888" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="889">
       <c r="A889" s="2" t="n">
@@ -44918,6 +47584,9 @@
       <c r="P889" t="n">
         <v>0</v>
       </c>
+      <c r="Q889" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="890">
       <c r="A890" s="2" t="n">
@@ -44968,6 +47637,9 @@
       <c r="P890" t="n">
         <v>0</v>
       </c>
+      <c r="Q890" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="891">
       <c r="A891" s="2" t="n">
@@ -45018,6 +47690,9 @@
       <c r="P891" t="n">
         <v>0</v>
       </c>
+      <c r="Q891" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="892">
       <c r="A892" s="2" t="n">
@@ -45068,6 +47743,9 @@
       <c r="P892" t="n">
         <v>1</v>
       </c>
+      <c r="Q892" t="n">
+        <v>1</v>
+      </c>
     </row>
     <row r="893">
       <c r="A893" s="2" t="n">
@@ -45118,6 +47796,9 @@
       <c r="P893" t="n">
         <v>0</v>
       </c>
+      <c r="Q893" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="894">
       <c r="A894" s="2" t="n">
@@ -45168,6 +47849,9 @@
       <c r="P894" t="n">
         <v>0</v>
       </c>
+      <c r="Q894" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="895">
       <c r="A895" s="2" t="n">
@@ -45218,6 +47902,9 @@
       <c r="P895" t="n">
         <v>0</v>
       </c>
+      <c r="Q895" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="896">
       <c r="A896" s="2" t="n">
@@ -45268,6 +47955,9 @@
       <c r="P896" t="n">
         <v>0</v>
       </c>
+      <c r="Q896" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="897">
       <c r="A897" s="2" t="n">
@@ -45318,6 +48008,9 @@
       <c r="P897" t="n">
         <v>0</v>
       </c>
+      <c r="Q897" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="898">
       <c r="A898" s="2" t="n">
@@ -45368,6 +48061,9 @@
       <c r="P898" t="n">
         <v>0</v>
       </c>
+      <c r="Q898" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="899">
       <c r="A899" s="2" t="n">
@@ -45418,6 +48114,9 @@
       <c r="P899" t="n">
         <v>0</v>
       </c>
+      <c r="Q899" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="900">
       <c r="A900" s="2" t="n">
@@ -45468,6 +48167,9 @@
       <c r="P900" t="n">
         <v>0</v>
       </c>
+      <c r="Q900" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="901">
       <c r="A901" s="2" t="n">
@@ -45518,6 +48220,9 @@
       <c r="P901" t="n">
         <v>0</v>
       </c>
+      <c r="Q901" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="902">
       <c r="A902" s="2" t="n">
@@ -45568,6 +48273,9 @@
       <c r="P902" t="n">
         <v>0</v>
       </c>
+      <c r="Q902" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="903">
       <c r="A903" s="2" t="n">
@@ -45618,6 +48326,9 @@
       <c r="P903" t="n">
         <v>0</v>
       </c>
+      <c r="Q903" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="904">
       <c r="A904" s="2" t="n">
@@ -45668,6 +48379,9 @@
       <c r="P904" t="n">
         <v>0</v>
       </c>
+      <c r="Q904" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="905">
       <c r="A905" s="2" t="n">
@@ -45718,6 +48432,9 @@
       <c r="P905" t="n">
         <v>0</v>
       </c>
+      <c r="Q905" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="906">
       <c r="A906" s="2" t="n">
@@ -45768,6 +48485,9 @@
       <c r="P906" t="n">
         <v>0</v>
       </c>
+      <c r="Q906" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="907">
       <c r="A907" s="2" t="n">
@@ -45818,6 +48538,9 @@
       <c r="P907" t="n">
         <v>0</v>
       </c>
+      <c r="Q907" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="908">
       <c r="A908" s="2" t="n">
@@ -45868,6 +48591,9 @@
       <c r="P908" t="n">
         <v>0</v>
       </c>
+      <c r="Q908" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="909">
       <c r="A909" s="2" t="n">
@@ -45918,6 +48644,9 @@
       <c r="P909" t="n">
         <v>0</v>
       </c>
+      <c r="Q909" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="910">
       <c r="A910" s="2" t="n">
@@ -45968,6 +48697,9 @@
       <c r="P910" t="n">
         <v>0</v>
       </c>
+      <c r="Q910" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="911">
       <c r="A911" s="2" t="n">
@@ -46018,6 +48750,9 @@
       <c r="P911" t="n">
         <v>0</v>
       </c>
+      <c r="Q911" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="912">
       <c r="A912" s="2" t="n">
@@ -46068,6 +48803,9 @@
       <c r="P912" t="n">
         <v>0</v>
       </c>
+      <c r="Q912" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="913">
       <c r="A913" s="2" t="n">
@@ -46118,6 +48856,9 @@
       <c r="P913" t="n">
         <v>0</v>
       </c>
+      <c r="Q913" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="914">
       <c r="A914" s="2" t="n">
@@ -46168,6 +48909,9 @@
       <c r="P914" t="n">
         <v>0</v>
       </c>
+      <c r="Q914" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="915">
       <c r="A915" s="2" t="n">
@@ -46218,6 +48962,9 @@
       <c r="P915" t="n">
         <v>0</v>
       </c>
+      <c r="Q915" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="916">
       <c r="A916" s="2" t="n">
@@ -46268,6 +49015,9 @@
       <c r="P916" t="n">
         <v>0</v>
       </c>
+      <c r="Q916" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="917">
       <c r="A917" s="2" t="n">
@@ -46318,6 +49068,9 @@
       <c r="P917" t="n">
         <v>0</v>
       </c>
+      <c r="Q917" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="918">
       <c r="A918" s="2" t="n">
@@ -46368,6 +49121,9 @@
       <c r="P918" t="n">
         <v>0</v>
       </c>
+      <c r="Q918" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="919">
       <c r="A919" s="2" t="n">
@@ -46418,6 +49174,9 @@
       <c r="P919" t="n">
         <v>0</v>
       </c>
+      <c r="Q919" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="920">
       <c r="A920" s="2" t="n">
@@ -46468,6 +49227,9 @@
       <c r="P920" t="n">
         <v>0</v>
       </c>
+      <c r="Q920" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="921">
       <c r="A921" s="2" t="n">
@@ -46518,6 +49280,9 @@
       <c r="P921" t="n">
         <v>0</v>
       </c>
+      <c r="Q921" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="922">
       <c r="A922" s="2" t="n">
@@ -46568,6 +49333,9 @@
       <c r="P922" t="n">
         <v>0</v>
       </c>
+      <c r="Q922" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="923">
       <c r="A923" s="2" t="n">
@@ -46618,6 +49386,9 @@
       <c r="P923" t="n">
         <v>0</v>
       </c>
+      <c r="Q923" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="924">
       <c r="A924" s="2" t="n">
@@ -46668,6 +49439,9 @@
       <c r="P924" t="n">
         <v>0</v>
       </c>
+      <c r="Q924" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="925">
       <c r="A925" s="2" t="n">
@@ -46718,6 +49492,9 @@
       <c r="P925" t="n">
         <v>0</v>
       </c>
+      <c r="Q925" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="926">
       <c r="A926" s="2" t="n">
@@ -46768,6 +49545,9 @@
       <c r="P926" t="n">
         <v>0</v>
       </c>
+      <c r="Q926" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="927">
       <c r="A927" s="2" t="n">
@@ -46818,6 +49598,9 @@
       <c r="P927" t="n">
         <v>0</v>
       </c>
+      <c r="Q927" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="928">
       <c r="A928" s="2" t="n">
@@ -46868,6 +49651,9 @@
       <c r="P928" t="n">
         <v>0</v>
       </c>
+      <c r="Q928" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="929">
       <c r="A929" s="2" t="n">
@@ -46918,6 +49704,9 @@
       <c r="P929" t="n">
         <v>0</v>
       </c>
+      <c r="Q929" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="930">
       <c r="A930" s="2" t="n">
@@ -46968,6 +49757,9 @@
       <c r="P930" t="n">
         <v>0</v>
       </c>
+      <c r="Q930" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="931">
       <c r="A931" s="2" t="n">
@@ -47018,6 +49810,9 @@
       <c r="P931" t="n">
         <v>0</v>
       </c>
+      <c r="Q931" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="932">
       <c r="A932" s="2" t="n">
@@ -47068,6 +49863,9 @@
       <c r="P932" t="n">
         <v>0</v>
       </c>
+      <c r="Q932" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="933">
       <c r="A933" s="2" t="n">
@@ -47118,6 +49916,9 @@
       <c r="P933" t="n">
         <v>0</v>
       </c>
+      <c r="Q933" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="934">
       <c r="A934" s="2" t="n">
@@ -47168,6 +49969,9 @@
       <c r="P934" t="n">
         <v>0</v>
       </c>
+      <c r="Q934" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="935">
       <c r="A935" s="2" t="n">
@@ -47218,6 +50022,9 @@
       <c r="P935" t="n">
         <v>0</v>
       </c>
+      <c r="Q935" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="936">
       <c r="A936" s="2" t="n">
@@ -47268,6 +50075,9 @@
       <c r="P936" t="n">
         <v>0</v>
       </c>
+      <c r="Q936" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="937">
       <c r="A937" s="2" t="n">
@@ -47318,6 +50128,9 @@
       <c r="P937" t="n">
         <v>0</v>
       </c>
+      <c r="Q937" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="938">
       <c r="A938" s="2" t="n">
@@ -47368,6 +50181,9 @@
       <c r="P938" t="n">
         <v>0</v>
       </c>
+      <c r="Q938" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="939">
       <c r="A939" s="2" t="n">
@@ -47418,6 +50234,9 @@
       <c r="P939" t="n">
         <v>0</v>
       </c>
+      <c r="Q939" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="940">
       <c r="A940" s="2" t="n">
@@ -47468,6 +50287,9 @@
       <c r="P940" t="n">
         <v>0</v>
       </c>
+      <c r="Q940" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="941">
       <c r="A941" s="2" t="n">
@@ -47518,6 +50340,9 @@
       <c r="P941" t="n">
         <v>0</v>
       </c>
+      <c r="Q941" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="942">
       <c r="A942" s="2" t="n">
@@ -47568,6 +50393,9 @@
       <c r="P942" t="n">
         <v>0</v>
       </c>
+      <c r="Q942" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="943">
       <c r="A943" s="2" t="n">
@@ -47618,6 +50446,9 @@
       <c r="P943" t="n">
         <v>0</v>
       </c>
+      <c r="Q943" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="944">
       <c r="A944" s="2" t="n">
@@ -47668,6 +50499,9 @@
       <c r="P944" t="n">
         <v>0</v>
       </c>
+      <c r="Q944" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="945">
       <c r="A945" s="2" t="n">
@@ -47718,6 +50552,9 @@
       <c r="P945" t="n">
         <v>0</v>
       </c>
+      <c r="Q945" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="946">
       <c r="A946" s="2" t="n">
@@ -47768,6 +50605,9 @@
       <c r="P946" t="n">
         <v>0</v>
       </c>
+      <c r="Q946" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="947">
       <c r="A947" s="2" t="n">
@@ -47818,6 +50658,9 @@
       <c r="P947" t="n">
         <v>0</v>
       </c>
+      <c r="Q947" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="948">
       <c r="A948" s="2" t="n">
@@ -47868,6 +50711,9 @@
       <c r="P948" t="n">
         <v>0</v>
       </c>
+      <c r="Q948" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="949">
       <c r="A949" s="2" t="n">
@@ -47918,6 +50764,9 @@
       <c r="P949" t="n">
         <v>2</v>
       </c>
+      <c r="Q949" t="n">
+        <v>2</v>
+      </c>
     </row>
     <row r="950">
       <c r="A950" s="2" t="n">
@@ -47968,6 +50817,9 @@
       <c r="P950" t="n">
         <v>0</v>
       </c>
+      <c r="Q950" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="951">
       <c r="A951" s="2" t="n">
@@ -48018,6 +50870,9 @@
       <c r="P951" t="n">
         <v>0</v>
       </c>
+      <c r="Q951" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="952">
       <c r="A952" s="2" t="n">
@@ -48068,6 +50923,9 @@
       <c r="P952" t="n">
         <v>0</v>
       </c>
+      <c r="Q952" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="953">
       <c r="A953" s="2" t="n">
@@ -48118,6 +50976,9 @@
       <c r="P953" t="n">
         <v>0</v>
       </c>
+      <c r="Q953" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="954">
       <c r="A954" s="2" t="n">
@@ -48168,6 +51029,9 @@
       <c r="P954" t="n">
         <v>0</v>
       </c>
+      <c r="Q954" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="955">
       <c r="A955" s="2" t="n">
@@ -48218,6 +51082,9 @@
       <c r="P955" t="n">
         <v>0</v>
       </c>
+      <c r="Q955" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="956">
       <c r="A956" s="2" t="n">
@@ -48268,6 +51135,9 @@
       <c r="P956" t="n">
         <v>0</v>
       </c>
+      <c r="Q956" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="957">
       <c r="A957" s="2" t="n">
@@ -48318,6 +51188,9 @@
       <c r="P957" t="n">
         <v>0</v>
       </c>
+      <c r="Q957" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="958">
       <c r="A958" s="2" t="n">
@@ -48368,6 +51241,9 @@
       <c r="P958" t="n">
         <v>0</v>
       </c>
+      <c r="Q958" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="959">
       <c r="A959" s="2" t="n">
@@ -48418,6 +51294,9 @@
       <c r="P959" t="n">
         <v>0</v>
       </c>
+      <c r="Q959" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="960">
       <c r="A960" s="2" t="n">
@@ -48468,6 +51347,9 @@
       <c r="P960" t="n">
         <v>0</v>
       </c>
+      <c r="Q960" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="961">
       <c r="A961" s="2" t="n">
@@ -48518,6 +51400,9 @@
       <c r="P961" t="n">
         <v>0</v>
       </c>
+      <c r="Q961" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="962">
       <c r="A962" s="2" t="n">
@@ -48568,6 +51453,9 @@
       <c r="P962" t="n">
         <v>0</v>
       </c>
+      <c r="Q962" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="963">
       <c r="A963" s="2" t="n">
@@ -48618,6 +51506,9 @@
       <c r="P963" t="n">
         <v>0</v>
       </c>
+      <c r="Q963" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="964">
       <c r="A964" s="2" t="n">
@@ -48668,6 +51559,9 @@
       <c r="P964" t="n">
         <v>0</v>
       </c>
+      <c r="Q964" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="965">
       <c r="A965" s="2" t="n">
@@ -48718,6 +51612,9 @@
       <c r="P965" t="n">
         <v>0</v>
       </c>
+      <c r="Q965" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="966">
       <c r="A966" s="2" t="n">
@@ -48768,6 +51665,9 @@
       <c r="P966" t="n">
         <v>0</v>
       </c>
+      <c r="Q966" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="967">
       <c r="A967" s="2" t="n">
@@ -48818,6 +51718,9 @@
       <c r="P967" t="n">
         <v>0</v>
       </c>
+      <c r="Q967" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="968">
       <c r="A968" s="2" t="n">
@@ -48868,6 +51771,9 @@
       <c r="P968" t="n">
         <v>0</v>
       </c>
+      <c r="Q968" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="969">
       <c r="A969" s="2" t="n">
@@ -48918,6 +51824,9 @@
       <c r="P969" t="n">
         <v>0</v>
       </c>
+      <c r="Q969" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="970">
       <c r="A970" s="2" t="n">
@@ -48968,6 +51877,9 @@
       <c r="P970" t="n">
         <v>0</v>
       </c>
+      <c r="Q970" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="971">
       <c r="A971" s="2" t="n">
@@ -49018,6 +51930,9 @@
       <c r="P971" t="n">
         <v>0</v>
       </c>
+      <c r="Q971" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="972">
       <c r="A972" s="2" t="n">
@@ -49068,6 +51983,9 @@
       <c r="P972" t="n">
         <v>0</v>
       </c>
+      <c r="Q972" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="973">
       <c r="A973" s="2" t="n">
@@ -49118,6 +52036,9 @@
       <c r="P973" t="n">
         <v>0</v>
       </c>
+      <c r="Q973" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="974">
       <c r="A974" s="2" t="n">
@@ -49168,6 +52089,9 @@
       <c r="P974" t="n">
         <v>0</v>
       </c>
+      <c r="Q974" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="975">
       <c r="A975" s="2" t="n">
@@ -49218,6 +52142,9 @@
       <c r="P975" t="n">
         <v>0</v>
       </c>
+      <c r="Q975" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="976">
       <c r="A976" s="2" t="n">
@@ -49268,6 +52195,9 @@
       <c r="P976" t="n">
         <v>0</v>
       </c>
+      <c r="Q976" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="977">
       <c r="A977" s="2" t="n">
@@ -49318,6 +52248,9 @@
       <c r="P977" t="n">
         <v>0</v>
       </c>
+      <c r="Q977" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="978">
       <c r="A978" s="2" t="n">
@@ -49368,6 +52301,9 @@
       <c r="P978" t="n">
         <v>0</v>
       </c>
+      <c r="Q978" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="979">
       <c r="A979" s="2" t="n">
@@ -49418,6 +52354,9 @@
       <c r="P979" t="n">
         <v>0</v>
       </c>
+      <c r="Q979" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="980">
       <c r="A980" s="2" t="n">
@@ -49468,6 +52407,9 @@
       <c r="P980" t="n">
         <v>0</v>
       </c>
+      <c r="Q980" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="981">
       <c r="A981" s="2" t="n">
@@ -49518,6 +52460,9 @@
       <c r="P981" t="n">
         <v>0</v>
       </c>
+      <c r="Q981" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="982">
       <c r="A982" s="2" t="n">
@@ -49568,6 +52513,9 @@
       <c r="P982" t="n">
         <v>0</v>
       </c>
+      <c r="Q982" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="983">
       <c r="A983" s="2" t="n">
@@ -49613,9 +52561,12 @@
         <v>18</v>
       </c>
       <c r="O983" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P983" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q983" t="n">
         <v>0</v>
       </c>
     </row>
@@ -49668,6 +52619,9 @@
       <c r="P984" t="n">
         <v>0</v>
       </c>
+      <c r="Q984" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="985">
       <c r="A985" s="2" t="n">
@@ -49718,6 +52672,9 @@
       <c r="P985" t="n">
         <v>0</v>
       </c>
+      <c r="Q985" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="986">
       <c r="A986" s="2" t="n">
@@ -49768,6 +52725,9 @@
       <c r="P986" t="n">
         <v>0</v>
       </c>
+      <c r="Q986" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="987">
       <c r="A987" s="2" t="n">
@@ -49818,6 +52778,60 @@
       <c r="P987" t="n">
         <v>0</v>
       </c>
+      <c r="Q987" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="988">
+      <c r="A988" s="2" t="n">
+        <v>45446</v>
+      </c>
+      <c r="B988" t="n">
+        <v>24.39999961853027</v>
+      </c>
+      <c r="C988" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="D988" t="n">
+        <v>23.54999923706055</v>
+      </c>
+      <c r="E988" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="F988" t="n">
+        <v>23.60000038146973</v>
+      </c>
+      <c r="G988" t="n">
+        <v>0</v>
+      </c>
+      <c r="H988" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I988" t="n">
+        <v>6</v>
+      </c>
+      <c r="J988" t="n">
+        <v>3</v>
+      </c>
+      <c r="K988" t="n">
+        <v>0</v>
+      </c>
+      <c r="L988" t="n">
+        <v>0</v>
+      </c>
+      <c r="M988" t="n">
+        <v>0</v>
+      </c>
+      <c r="N988" t="n">
+        <v>23</v>
+      </c>
+      <c r="O988" t="n">
+        <v>0</v>
+      </c>
+      <c r="P988" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q988" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/YESBANK.NS.xlsx
+++ b/stock_historical_data/1wk/YESBANK.NS.xlsx
@@ -52831,7 +52831,9 @@
       <c r="P988" t="n">
         <v>0</v>
       </c>
-      <c r="Q988" t="inlineStr"/>
+      <c r="Q988" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/YESBANK.NS.xlsx
+++ b/stock_historical_data/1wk/YESBANK.NS.xlsx
@@ -55853,7 +55853,9 @@
       <c r="Q989" t="n">
         <v>2</v>
       </c>
-      <c r="R989" t="inlineStr"/>
+      <c r="R989" t="n">
+        <v>0</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/YESBANK.NS.xlsx
+++ b/stock_historical_data/1wk/YESBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R989"/>
+  <dimension ref="A1:R991"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -55857,6 +55857,114 @@
         <v>0</v>
       </c>
     </row>
+    <row r="990">
+      <c r="A990" s="2" t="n">
+        <v>45460</v>
+      </c>
+      <c r="B990" t="n">
+        <v>23.80999946594238</v>
+      </c>
+      <c r="C990" t="n">
+        <v>24.64999961853027</v>
+      </c>
+      <c r="D990" t="n">
+        <v>23.5</v>
+      </c>
+      <c r="E990" t="n">
+        <v>23.84000015258789</v>
+      </c>
+      <c r="F990" t="n">
+        <v>23.84000015258789</v>
+      </c>
+      <c r="G990" t="n">
+        <v>532160658</v>
+      </c>
+      <c r="H990" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I990" t="n">
+        <v>6</v>
+      </c>
+      <c r="J990" t="n">
+        <v>17</v>
+      </c>
+      <c r="K990" t="n">
+        <v>0</v>
+      </c>
+      <c r="L990" t="n">
+        <v>0</v>
+      </c>
+      <c r="M990" t="n">
+        <v>0</v>
+      </c>
+      <c r="N990" t="n">
+        <v>25</v>
+      </c>
+      <c r="O990" t="n">
+        <v>0</v>
+      </c>
+      <c r="P990" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q990" t="n">
+        <v>0</v>
+      </c>
+      <c r="R990" t="inlineStr"/>
+    </row>
+    <row r="991">
+      <c r="A991" s="2" t="n">
+        <v>45467</v>
+      </c>
+      <c r="B991" t="n">
+        <v>23.88999938964844</v>
+      </c>
+      <c r="C991" t="n">
+        <v>24.45000076293945</v>
+      </c>
+      <c r="D991" t="n">
+        <v>23.31999969482422</v>
+      </c>
+      <c r="E991" t="n">
+        <v>23.69000053405762</v>
+      </c>
+      <c r="F991" t="n">
+        <v>23.69000053405762</v>
+      </c>
+      <c r="G991" t="n">
+        <v>604019276</v>
+      </c>
+      <c r="H991" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I991" t="n">
+        <v>6</v>
+      </c>
+      <c r="J991" t="n">
+        <v>24</v>
+      </c>
+      <c r="K991" t="n">
+        <v>0</v>
+      </c>
+      <c r="L991" t="n">
+        <v>0</v>
+      </c>
+      <c r="M991" t="n">
+        <v>0</v>
+      </c>
+      <c r="N991" t="n">
+        <v>26</v>
+      </c>
+      <c r="O991" t="n">
+        <v>0</v>
+      </c>
+      <c r="P991" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q991" t="n">
+        <v>0</v>
+      </c>
+      <c r="R991" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/stock_historical_data/1wk/YESBANK.NS.xlsx
+++ b/stock_historical_data/1wk/YESBANK.NS.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R991"/>
+  <dimension ref="A1:R1016"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3603,7 +3603,7 @@
         <v>0</v>
       </c>
       <c r="Q56" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R56" t="n">
         <v>0</v>
@@ -3939,7 +3939,7 @@
         <v>0</v>
       </c>
       <c r="Q62" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R62" t="n">
         <v>0</v>
@@ -55789,7 +55789,7 @@
         <v>23</v>
       </c>
       <c r="O988" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="P988" t="n">
         <v>0</v>
@@ -55909,7 +55909,9 @@
       <c r="Q990" t="n">
         <v>0</v>
       </c>
-      <c r="R990" t="inlineStr"/>
+      <c r="R990" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="991">
       <c r="A991" s="2" t="n">
@@ -55963,7 +55965,1309 @@
       <c r="Q991" t="n">
         <v>0</v>
       </c>
-      <c r="R991" t="inlineStr"/>
+      <c r="R991" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="992">
+      <c r="A992" s="2" t="n">
+        <v>45474</v>
+      </c>
+      <c r="B992" t="n">
+        <v>23.78000068664551</v>
+      </c>
+      <c r="C992" t="n">
+        <v>27.04000091552734</v>
+      </c>
+      <c r="D992" t="n">
+        <v>23.61000061035156</v>
+      </c>
+      <c r="E992" t="n">
+        <v>26.63999938964844</v>
+      </c>
+      <c r="F992" t="inlineStr"/>
+      <c r="G992" t="n">
+        <v>1511973132</v>
+      </c>
+      <c r="H992" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I992" t="n">
+        <v>7</v>
+      </c>
+      <c r="J992" t="n">
+        <v>1</v>
+      </c>
+      <c r="K992" t="n">
+        <v>0</v>
+      </c>
+      <c r="L992" t="n">
+        <v>0</v>
+      </c>
+      <c r="M992" t="n">
+        <v>0</v>
+      </c>
+      <c r="N992" t="n">
+        <v>27</v>
+      </c>
+      <c r="O992" t="n">
+        <v>0</v>
+      </c>
+      <c r="P992" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q992" t="n">
+        <v>0</v>
+      </c>
+      <c r="R992" t="inlineStr"/>
+    </row>
+    <row r="993">
+      <c r="A993" s="2" t="n">
+        <v>45481</v>
+      </c>
+      <c r="B993" t="n">
+        <v>26.95000076293945</v>
+      </c>
+      <c r="C993" t="n">
+        <v>27.44000053405762</v>
+      </c>
+      <c r="D993" t="n">
+        <v>24.60000038146973</v>
+      </c>
+      <c r="E993" t="n">
+        <v>25.60000038146973</v>
+      </c>
+      <c r="F993" t="inlineStr"/>
+      <c r="G993" t="n">
+        <v>2153691920</v>
+      </c>
+      <c r="H993" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I993" t="n">
+        <v>7</v>
+      </c>
+      <c r="J993" t="n">
+        <v>8</v>
+      </c>
+      <c r="K993" t="n">
+        <v>0</v>
+      </c>
+      <c r="L993" t="n">
+        <v>0</v>
+      </c>
+      <c r="M993" t="n">
+        <v>0</v>
+      </c>
+      <c r="N993" t="n">
+        <v>28</v>
+      </c>
+      <c r="O993" t="n">
+        <v>1</v>
+      </c>
+      <c r="P993" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q993" t="n">
+        <v>0</v>
+      </c>
+      <c r="R993" t="inlineStr"/>
+    </row>
+    <row r="994">
+      <c r="A994" s="2" t="n">
+        <v>45488</v>
+      </c>
+      <c r="B994" t="n">
+        <v>25.64999961853027</v>
+      </c>
+      <c r="C994" t="n">
+        <v>26.85000038146973</v>
+      </c>
+      <c r="D994" t="n">
+        <v>24.6200008392334</v>
+      </c>
+      <c r="E994" t="n">
+        <v>24.77000045776367</v>
+      </c>
+      <c r="F994" t="inlineStr"/>
+      <c r="G994" t="n">
+        <v>913604801</v>
+      </c>
+      <c r="H994" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I994" t="n">
+        <v>7</v>
+      </c>
+      <c r="J994" t="n">
+        <v>15</v>
+      </c>
+      <c r="K994" t="n">
+        <v>0</v>
+      </c>
+      <c r="L994" t="n">
+        <v>0</v>
+      </c>
+      <c r="M994" t="n">
+        <v>0</v>
+      </c>
+      <c r="N994" t="n">
+        <v>29</v>
+      </c>
+      <c r="O994" t="n">
+        <v>0</v>
+      </c>
+      <c r="P994" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q994" t="n">
+        <v>1</v>
+      </c>
+      <c r="R994" t="inlineStr"/>
+    </row>
+    <row r="995">
+      <c r="A995" s="2" t="n">
+        <v>45495</v>
+      </c>
+      <c r="B995" t="n">
+        <v>25.89999961853027</v>
+      </c>
+      <c r="C995" t="n">
+        <v>26.19000053405762</v>
+      </c>
+      <c r="D995" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="E995" t="n">
+        <v>24.96999931335449</v>
+      </c>
+      <c r="F995" t="inlineStr"/>
+      <c r="G995" t="n">
+        <v>878292252</v>
+      </c>
+      <c r="H995" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I995" t="n">
+        <v>7</v>
+      </c>
+      <c r="J995" t="n">
+        <v>22</v>
+      </c>
+      <c r="K995" t="n">
+        <v>0</v>
+      </c>
+      <c r="L995" t="n">
+        <v>0</v>
+      </c>
+      <c r="M995" t="n">
+        <v>0</v>
+      </c>
+      <c r="N995" t="n">
+        <v>30</v>
+      </c>
+      <c r="O995" t="n">
+        <v>0</v>
+      </c>
+      <c r="P995" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q995" t="n">
+        <v>0</v>
+      </c>
+      <c r="R995" t="inlineStr"/>
+    </row>
+    <row r="996">
+      <c r="A996" s="2" t="n">
+        <v>45502</v>
+      </c>
+      <c r="B996" t="n">
+        <v>25.25</v>
+      </c>
+      <c r="C996" t="n">
+        <v>27.20000076293945</v>
+      </c>
+      <c r="D996" t="n">
+        <v>24.79999923706055</v>
+      </c>
+      <c r="E996" t="n">
+        <v>25.45000076293945</v>
+      </c>
+      <c r="F996" t="inlineStr"/>
+      <c r="G996" t="n">
+        <v>1574024328</v>
+      </c>
+      <c r="H996" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I996" t="n">
+        <v>7</v>
+      </c>
+      <c r="J996" t="n">
+        <v>29</v>
+      </c>
+      <c r="K996" t="n">
+        <v>0</v>
+      </c>
+      <c r="L996" t="n">
+        <v>0</v>
+      </c>
+      <c r="M996" t="n">
+        <v>0</v>
+      </c>
+      <c r="N996" t="n">
+        <v>31</v>
+      </c>
+      <c r="O996" t="n">
+        <v>0</v>
+      </c>
+      <c r="P996" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q996" t="n">
+        <v>0</v>
+      </c>
+      <c r="R996" t="inlineStr"/>
+    </row>
+    <row r="997">
+      <c r="A997" s="2" t="n">
+        <v>45509</v>
+      </c>
+      <c r="B997" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C997" t="n">
+        <v>24.75</v>
+      </c>
+      <c r="D997" t="n">
+        <v>23.15999984741211</v>
+      </c>
+      <c r="E997" t="n">
+        <v>23.94000053405762</v>
+      </c>
+      <c r="F997" t="inlineStr"/>
+      <c r="G997" t="n">
+        <v>948897467</v>
+      </c>
+      <c r="H997" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I997" t="n">
+        <v>8</v>
+      </c>
+      <c r="J997" t="n">
+        <v>5</v>
+      </c>
+      <c r="K997" t="n">
+        <v>0</v>
+      </c>
+      <c r="L997" t="n">
+        <v>0</v>
+      </c>
+      <c r="M997" t="n">
+        <v>0</v>
+      </c>
+      <c r="N997" t="n">
+        <v>32</v>
+      </c>
+      <c r="O997" t="n">
+        <v>0</v>
+      </c>
+      <c r="P997" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q997" t="n">
+        <v>0</v>
+      </c>
+      <c r="R997" t="inlineStr"/>
+    </row>
+    <row r="998">
+      <c r="A998" s="2" t="n">
+        <v>45516</v>
+      </c>
+      <c r="B998" t="n">
+        <v>23.88999938964844</v>
+      </c>
+      <c r="C998" t="n">
+        <v>25.10000038146973</v>
+      </c>
+      <c r="D998" t="n">
+        <v>23.54000091552734</v>
+      </c>
+      <c r="E998" t="n">
+        <v>24.27000045776367</v>
+      </c>
+      <c r="F998" t="inlineStr"/>
+      <c r="G998" t="n">
+        <v>586574800</v>
+      </c>
+      <c r="H998" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I998" t="n">
+        <v>8</v>
+      </c>
+      <c r="J998" t="n">
+        <v>12</v>
+      </c>
+      <c r="K998" t="n">
+        <v>0</v>
+      </c>
+      <c r="L998" t="n">
+        <v>0</v>
+      </c>
+      <c r="M998" t="n">
+        <v>0</v>
+      </c>
+      <c r="N998" t="n">
+        <v>33</v>
+      </c>
+      <c r="O998" t="n">
+        <v>0</v>
+      </c>
+      <c r="P998" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q998" t="n">
+        <v>0</v>
+      </c>
+      <c r="R998" t="inlineStr"/>
+    </row>
+    <row r="999">
+      <c r="A999" s="2" t="n">
+        <v>45523</v>
+      </c>
+      <c r="B999" t="n">
+        <v>24.29000091552734</v>
+      </c>
+      <c r="C999" t="n">
+        <v>24.94000053405762</v>
+      </c>
+      <c r="D999" t="n">
+        <v>24.25</v>
+      </c>
+      <c r="E999" t="n">
+        <v>24.38999938964844</v>
+      </c>
+      <c r="F999" t="inlineStr"/>
+      <c r="G999" t="n">
+        <v>498804833</v>
+      </c>
+      <c r="H999" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I999" t="n">
+        <v>8</v>
+      </c>
+      <c r="J999" t="n">
+        <v>19</v>
+      </c>
+      <c r="K999" t="n">
+        <v>0</v>
+      </c>
+      <c r="L999" t="n">
+        <v>0</v>
+      </c>
+      <c r="M999" t="n">
+        <v>0</v>
+      </c>
+      <c r="N999" t="n">
+        <v>34</v>
+      </c>
+      <c r="O999" t="n">
+        <v>0</v>
+      </c>
+      <c r="P999" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q999" t="n">
+        <v>2</v>
+      </c>
+      <c r="R999" t="inlineStr"/>
+    </row>
+    <row r="1000">
+      <c r="A1000" s="2" t="n">
+        <v>45530</v>
+      </c>
+      <c r="B1000" t="n">
+        <v>24.5</v>
+      </c>
+      <c r="C1000" t="n">
+        <v>24.53000068664551</v>
+      </c>
+      <c r="D1000" t="n">
+        <v>23.54999923706055</v>
+      </c>
+      <c r="E1000" t="n">
+        <v>23.61000061035156</v>
+      </c>
+      <c r="F1000" t="inlineStr"/>
+      <c r="G1000" t="n">
+        <v>421883396</v>
+      </c>
+      <c r="H1000" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1000" t="n">
+        <v>8</v>
+      </c>
+      <c r="J1000" t="n">
+        <v>26</v>
+      </c>
+      <c r="K1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1000" t="n">
+        <v>35</v>
+      </c>
+      <c r="O1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1000" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1000" t="inlineStr"/>
+    </row>
+    <row r="1001">
+      <c r="A1001" s="2" t="n">
+        <v>45537</v>
+      </c>
+      <c r="B1001" t="n">
+        <v>23.61000061035156</v>
+      </c>
+      <c r="C1001" t="n">
+        <v>24.02000045776367</v>
+      </c>
+      <c r="D1001" t="n">
+        <v>23.10000038146973</v>
+      </c>
+      <c r="E1001" t="n">
+        <v>23.13999938964844</v>
+      </c>
+      <c r="F1001" t="inlineStr"/>
+      <c r="G1001" t="n">
+        <v>427939155</v>
+      </c>
+      <c r="H1001" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1001" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1001" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1001" t="n">
+        <v>36</v>
+      </c>
+      <c r="O1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1001" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1001" t="inlineStr"/>
+    </row>
+    <row r="1002">
+      <c r="A1002" s="2" t="n">
+        <v>45544</v>
+      </c>
+      <c r="B1002" t="n">
+        <v>23.04999923706055</v>
+      </c>
+      <c r="C1002" t="n">
+        <v>24.40999984741211</v>
+      </c>
+      <c r="D1002" t="n">
+        <v>22.51000022888184</v>
+      </c>
+      <c r="E1002" t="n">
+        <v>23.29999923706055</v>
+      </c>
+      <c r="F1002" t="inlineStr"/>
+      <c r="G1002" t="n">
+        <v>636180013</v>
+      </c>
+      <c r="H1002" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1002" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1002" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1002" t="n">
+        <v>37</v>
+      </c>
+      <c r="O1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1002" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1002" t="inlineStr"/>
+    </row>
+    <row r="1003">
+      <c r="A1003" s="2" t="n">
+        <v>45551</v>
+      </c>
+      <c r="B1003" t="n">
+        <v>23.30999946594238</v>
+      </c>
+      <c r="C1003" t="n">
+        <v>23.96999931335449</v>
+      </c>
+      <c r="D1003" t="n">
+        <v>22.79999923706055</v>
+      </c>
+      <c r="E1003" t="n">
+        <v>23</v>
+      </c>
+      <c r="F1003" t="inlineStr"/>
+      <c r="G1003" t="n">
+        <v>470073033</v>
+      </c>
+      <c r="H1003" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1003" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1003" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1003" t="n">
+        <v>38</v>
+      </c>
+      <c r="O1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1003" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1003" t="inlineStr"/>
+    </row>
+    <row r="1004">
+      <c r="A1004" s="2" t="n">
+        <v>45558</v>
+      </c>
+      <c r="B1004" t="n">
+        <v>23.19000053405762</v>
+      </c>
+      <c r="C1004" t="n">
+        <v>23.19000053405762</v>
+      </c>
+      <c r="D1004" t="n">
+        <v>22.64999961853027</v>
+      </c>
+      <c r="E1004" t="n">
+        <v>22.73999977111816</v>
+      </c>
+      <c r="F1004" t="inlineStr"/>
+      <c r="G1004" t="n">
+        <v>304299480</v>
+      </c>
+      <c r="H1004" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1004" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1004" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1004" t="n">
+        <v>39</v>
+      </c>
+      <c r="O1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1004" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1004" t="inlineStr"/>
+    </row>
+    <row r="1005">
+      <c r="A1005" s="2" t="n">
+        <v>45565</v>
+      </c>
+      <c r="B1005" t="n">
+        <v>22.72999954223633</v>
+      </c>
+      <c r="C1005" t="n">
+        <v>22.73999977111816</v>
+      </c>
+      <c r="D1005" t="n">
+        <v>21.52000045776367</v>
+      </c>
+      <c r="E1005" t="n">
+        <v>21.95000076293945</v>
+      </c>
+      <c r="F1005" t="inlineStr"/>
+      <c r="G1005" t="n">
+        <v>347338972</v>
+      </c>
+      <c r="H1005" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1005" t="n">
+        <v>9</v>
+      </c>
+      <c r="J1005" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1005" t="n">
+        <v>40</v>
+      </c>
+      <c r="O1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1005" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1005" t="inlineStr"/>
+    </row>
+    <row r="1006">
+      <c r="A1006" s="2" t="n">
+        <v>45572</v>
+      </c>
+      <c r="B1006" t="n">
+        <v>22.20999908447266</v>
+      </c>
+      <c r="C1006" t="n">
+        <v>22.26000022888184</v>
+      </c>
+      <c r="D1006" t="n">
+        <v>20.77000045776367</v>
+      </c>
+      <c r="E1006" t="n">
+        <v>21.39999961853027</v>
+      </c>
+      <c r="F1006" t="inlineStr"/>
+      <c r="G1006" t="n">
+        <v>446878765</v>
+      </c>
+      <c r="H1006" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1006" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1006" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1006" t="n">
+        <v>41</v>
+      </c>
+      <c r="O1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1006" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1006" t="inlineStr"/>
+    </row>
+    <row r="1007">
+      <c r="A1007" s="2" t="n">
+        <v>45579</v>
+      </c>
+      <c r="B1007" t="n">
+        <v>21.39999961853027</v>
+      </c>
+      <c r="C1007" t="n">
+        <v>21.48999977111816</v>
+      </c>
+      <c r="D1007" t="n">
+        <v>20.56999969482422</v>
+      </c>
+      <c r="E1007" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="F1007" t="inlineStr"/>
+      <c r="G1007" t="n">
+        <v>250419774</v>
+      </c>
+      <c r="H1007" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1007" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1007" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1007" t="n">
+        <v>42</v>
+      </c>
+      <c r="O1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1007" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1007" t="inlineStr"/>
+    </row>
+    <row r="1008">
+      <c r="A1008" s="2" t="n">
+        <v>45586</v>
+      </c>
+      <c r="B1008" t="n">
+        <v>21.10000038146973</v>
+      </c>
+      <c r="C1008" t="n">
+        <v>21.52000045776367</v>
+      </c>
+      <c r="D1008" t="n">
+        <v>19.21999931335449</v>
+      </c>
+      <c r="E1008" t="n">
+        <v>19.3799991607666</v>
+      </c>
+      <c r="F1008" t="inlineStr"/>
+      <c r="G1008" t="n">
+        <v>395300821</v>
+      </c>
+      <c r="H1008" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1008" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1008" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1008" t="n">
+        <v>43</v>
+      </c>
+      <c r="O1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1008" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1008" t="inlineStr"/>
+    </row>
+    <row r="1009">
+      <c r="A1009" s="2" t="n">
+        <v>45593</v>
+      </c>
+      <c r="B1009" t="n">
+        <v>20.35000038146973</v>
+      </c>
+      <c r="C1009" t="n">
+        <v>21.29000091552734</v>
+      </c>
+      <c r="D1009" t="n">
+        <v>20.10000038146973</v>
+      </c>
+      <c r="E1009" t="n">
+        <v>20.70999908447266</v>
+      </c>
+      <c r="F1009" t="inlineStr"/>
+      <c r="G1009" t="n">
+        <v>485903164</v>
+      </c>
+      <c r="H1009" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1009" t="n">
+        <v>10</v>
+      </c>
+      <c r="J1009" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1009" t="n">
+        <v>44</v>
+      </c>
+      <c r="O1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1009" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1009" t="inlineStr"/>
+    </row>
+    <row r="1010">
+      <c r="A1010" s="2" t="n">
+        <v>45600</v>
+      </c>
+      <c r="B1010" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="C1010" t="n">
+        <v>21.13999938964844</v>
+      </c>
+      <c r="D1010" t="n">
+        <v>20.06999969482422</v>
+      </c>
+      <c r="E1010" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="F1010" t="inlineStr"/>
+      <c r="G1010" t="n">
+        <v>292924603</v>
+      </c>
+      <c r="H1010" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1010" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1010" t="n">
+        <v>4</v>
+      </c>
+      <c r="K1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1010" t="n">
+        <v>45</v>
+      </c>
+      <c r="O1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1010" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1010" t="inlineStr"/>
+    </row>
+    <row r="1011">
+      <c r="A1011" s="2" t="n">
+        <v>45607</v>
+      </c>
+      <c r="B1011" t="n">
+        <v>20.15999984741211</v>
+      </c>
+      <c r="C1011" t="n">
+        <v>20.32999992370605</v>
+      </c>
+      <c r="D1011" t="n">
+        <v>19.02000045776367</v>
+      </c>
+      <c r="E1011" t="n">
+        <v>19.30999946594238</v>
+      </c>
+      <c r="F1011" t="inlineStr"/>
+      <c r="G1011" t="n">
+        <v>274366308</v>
+      </c>
+      <c r="H1011" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1011" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1011" t="n">
+        <v>11</v>
+      </c>
+      <c r="K1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1011" t="n">
+        <v>46</v>
+      </c>
+      <c r="O1011" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1011" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1011" t="inlineStr"/>
+    </row>
+    <row r="1012">
+      <c r="A1012" s="2" t="n">
+        <v>45614</v>
+      </c>
+      <c r="B1012" t="n">
+        <v>19.29000091552734</v>
+      </c>
+      <c r="C1012" t="n">
+        <v>19.81999969482422</v>
+      </c>
+      <c r="D1012" t="n">
+        <v>19.04000091552734</v>
+      </c>
+      <c r="E1012" t="n">
+        <v>19.20999908447266</v>
+      </c>
+      <c r="F1012" t="inlineStr"/>
+      <c r="G1012" t="n">
+        <v>223370399</v>
+      </c>
+      <c r="H1012" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1012" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1012" t="n">
+        <v>18</v>
+      </c>
+      <c r="K1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1012" t="n">
+        <v>47</v>
+      </c>
+      <c r="O1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1012" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1012" t="inlineStr"/>
+    </row>
+    <row r="1013">
+      <c r="A1013" s="2" t="n">
+        <v>45621</v>
+      </c>
+      <c r="B1013" t="n">
+        <v>19.51000022888184</v>
+      </c>
+      <c r="C1013" t="n">
+        <v>20.64999961853027</v>
+      </c>
+      <c r="D1013" t="n">
+        <v>19.05999946594238</v>
+      </c>
+      <c r="E1013" t="n">
+        <v>19.95999908447266</v>
+      </c>
+      <c r="F1013" t="inlineStr"/>
+      <c r="G1013" t="n">
+        <v>611320063</v>
+      </c>
+      <c r="H1013" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1013" t="n">
+        <v>11</v>
+      </c>
+      <c r="J1013" t="n">
+        <v>25</v>
+      </c>
+      <c r="K1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1013" t="n">
+        <v>48</v>
+      </c>
+      <c r="O1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1013" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1013" t="inlineStr"/>
+    </row>
+    <row r="1014">
+      <c r="A1014" s="2" t="n">
+        <v>45628</v>
+      </c>
+      <c r="B1014" t="n">
+        <v>19.95999908447266</v>
+      </c>
+      <c r="C1014" t="n">
+        <v>21.57999992370605</v>
+      </c>
+      <c r="D1014" t="n">
+        <v>19.89999961853027</v>
+      </c>
+      <c r="E1014" t="n">
+        <v>21.48999977111816</v>
+      </c>
+      <c r="F1014" t="inlineStr"/>
+      <c r="G1014" t="n">
+        <v>564295134</v>
+      </c>
+      <c r="H1014" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1014" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1014" t="n">
+        <v>2</v>
+      </c>
+      <c r="K1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1014" t="n">
+        <v>49</v>
+      </c>
+      <c r="O1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1014" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1014" t="inlineStr"/>
+    </row>
+    <row r="1015">
+      <c r="A1015" s="2" t="n">
+        <v>45635</v>
+      </c>
+      <c r="B1015" t="n">
+        <v>21.48999977111816</v>
+      </c>
+      <c r="C1015" t="n">
+        <v>22.02000045776367</v>
+      </c>
+      <c r="D1015" t="n">
+        <v>20.70000076293945</v>
+      </c>
+      <c r="E1015" t="n">
+        <v>21.09000015258789</v>
+      </c>
+      <c r="F1015" t="inlineStr"/>
+      <c r="G1015" t="n">
+        <v>548915070</v>
+      </c>
+      <c r="H1015" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1015" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1015" t="n">
+        <v>9</v>
+      </c>
+      <c r="K1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1015" t="n">
+        <v>50</v>
+      </c>
+      <c r="O1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1015" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1015" t="inlineStr"/>
+    </row>
+    <row r="1016">
+      <c r="A1016" s="2" t="n">
+        <v>45642</v>
+      </c>
+      <c r="B1016" t="n">
+        <v>21.14999961853027</v>
+      </c>
+      <c r="C1016" t="n">
+        <v>21.57999992370605</v>
+      </c>
+      <c r="D1016" t="n">
+        <v>19.75</v>
+      </c>
+      <c r="E1016" t="n">
+        <v>19.82999992370605</v>
+      </c>
+      <c r="F1016" t="inlineStr"/>
+      <c r="G1016" t="n">
+        <v>434170151</v>
+      </c>
+      <c r="H1016" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1016" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1016" t="n">
+        <v>16</v>
+      </c>
+      <c r="K1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1016" t="n">
+        <v>51</v>
+      </c>
+      <c r="O1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1016" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1016" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/stock_historical_data/1wk/YESBANK.NS.xlsx
+++ b/stock_historical_data/1wk/YESBANK.NS.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1016"/>
+  <dimension ref="A1:R1035"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -5003,7 +5003,7 @@
         <v>0</v>
       </c>
       <c r="Q81" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R81" t="n">
         <v>0</v>
@@ -5339,7 +5339,7 @@
         <v>0</v>
       </c>
       <c r="Q87" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="R87" t="n">
         <v>0</v>
@@ -5731,7 +5731,7 @@
         <v>0</v>
       </c>
       <c r="Q94" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="R94" t="n">
         <v>0</v>
@@ -56019,7 +56019,9 @@
       <c r="Q992" t="n">
         <v>0</v>
       </c>
-      <c r="R992" t="inlineStr"/>
+      <c r="R992" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="993">
       <c r="A993" s="2" t="n">
@@ -56071,7 +56073,9 @@
       <c r="Q993" t="n">
         <v>0</v>
       </c>
-      <c r="R993" t="inlineStr"/>
+      <c r="R993" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="994">
       <c r="A994" s="2" t="n">
@@ -56123,7 +56127,9 @@
       <c r="Q994" t="n">
         <v>1</v>
       </c>
-      <c r="R994" t="inlineStr"/>
+      <c r="R994" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="995">
       <c r="A995" s="2" t="n">
@@ -56175,7 +56181,9 @@
       <c r="Q995" t="n">
         <v>0</v>
       </c>
-      <c r="R995" t="inlineStr"/>
+      <c r="R995" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="996">
       <c r="A996" s="2" t="n">
@@ -56227,7 +56235,9 @@
       <c r="Q996" t="n">
         <v>0</v>
       </c>
-      <c r="R996" t="inlineStr"/>
+      <c r="R996" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="997">
       <c r="A997" s="2" t="n">
@@ -56279,7 +56289,9 @@
       <c r="Q997" t="n">
         <v>0</v>
       </c>
-      <c r="R997" t="inlineStr"/>
+      <c r="R997" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="998">
       <c r="A998" s="2" t="n">
@@ -56331,7 +56343,9 @@
       <c r="Q998" t="n">
         <v>0</v>
       </c>
-      <c r="R998" t="inlineStr"/>
+      <c r="R998" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="999">
       <c r="A999" s="2" t="n">
@@ -56383,7 +56397,9 @@
       <c r="Q999" t="n">
         <v>2</v>
       </c>
-      <c r="R999" t="inlineStr"/>
+      <c r="R999" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1000">
       <c r="A1000" s="2" t="n">
@@ -56435,7 +56451,9 @@
       <c r="Q1000" t="n">
         <v>0</v>
       </c>
-      <c r="R1000" t="inlineStr"/>
+      <c r="R1000" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1001">
       <c r="A1001" s="2" t="n">
@@ -56487,7 +56505,9 @@
       <c r="Q1001" t="n">
         <v>0</v>
       </c>
-      <c r="R1001" t="inlineStr"/>
+      <c r="R1001" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1002">
       <c r="A1002" s="2" t="n">
@@ -56539,7 +56559,9 @@
       <c r="Q1002" t="n">
         <v>0</v>
       </c>
-      <c r="R1002" t="inlineStr"/>
+      <c r="R1002" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1003">
       <c r="A1003" s="2" t="n">
@@ -56591,7 +56613,9 @@
       <c r="Q1003" t="n">
         <v>0</v>
       </c>
-      <c r="R1003" t="inlineStr"/>
+      <c r="R1003" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1004">
       <c r="A1004" s="2" t="n">
@@ -56643,7 +56667,9 @@
       <c r="Q1004" t="n">
         <v>0</v>
       </c>
-      <c r="R1004" t="inlineStr"/>
+      <c r="R1004" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1005">
       <c r="A1005" s="2" t="n">
@@ -56695,7 +56721,9 @@
       <c r="Q1005" t="n">
         <v>0</v>
       </c>
-      <c r="R1005" t="inlineStr"/>
+      <c r="R1005" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1006">
       <c r="A1006" s="2" t="n">
@@ -56747,7 +56775,9 @@
       <c r="Q1006" t="n">
         <v>0</v>
       </c>
-      <c r="R1006" t="inlineStr"/>
+      <c r="R1006" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1007">
       <c r="A1007" s="2" t="n">
@@ -56799,7 +56829,9 @@
       <c r="Q1007" t="n">
         <v>0</v>
       </c>
-      <c r="R1007" t="inlineStr"/>
+      <c r="R1007" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1008">
       <c r="A1008" s="2" t="n">
@@ -56851,7 +56883,9 @@
       <c r="Q1008" t="n">
         <v>0</v>
       </c>
-      <c r="R1008" t="inlineStr"/>
+      <c r="R1008" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1009">
       <c r="A1009" s="2" t="n">
@@ -56903,7 +56937,9 @@
       <c r="Q1009" t="n">
         <v>0</v>
       </c>
-      <c r="R1009" t="inlineStr"/>
+      <c r="R1009" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1010">
       <c r="A1010" s="2" t="n">
@@ -56955,7 +56991,9 @@
       <c r="Q1010" t="n">
         <v>0</v>
       </c>
-      <c r="R1010" t="inlineStr"/>
+      <c r="R1010" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1011">
       <c r="A1011" s="2" t="n">
@@ -57007,7 +57045,9 @@
       <c r="Q1011" t="n">
         <v>0</v>
       </c>
-      <c r="R1011" t="inlineStr"/>
+      <c r="R1011" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1012">
       <c r="A1012" s="2" t="n">
@@ -57059,7 +57099,9 @@
       <c r="Q1012" t="n">
         <v>0</v>
       </c>
-      <c r="R1012" t="inlineStr"/>
+      <c r="R1012" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1013">
       <c r="A1013" s="2" t="n">
@@ -57111,7 +57153,9 @@
       <c r="Q1013" t="n">
         <v>0</v>
       </c>
-      <c r="R1013" t="inlineStr"/>
+      <c r="R1013" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1014">
       <c r="A1014" s="2" t="n">
@@ -57163,7 +57207,9 @@
       <c r="Q1014" t="n">
         <v>0</v>
       </c>
-      <c r="R1014" t="inlineStr"/>
+      <c r="R1014" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1015">
       <c r="A1015" s="2" t="n">
@@ -57207,7 +57253,7 @@
         <v>50</v>
       </c>
       <c r="O1015" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="P1015" t="n">
         <v>0</v>
@@ -57215,7 +57261,9 @@
       <c r="Q1015" t="n">
         <v>0</v>
       </c>
-      <c r="R1015" t="inlineStr"/>
+      <c r="R1015" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="1016">
       <c r="A1016" s="2" t="n">
@@ -57267,7 +57315,997 @@
       <c r="Q1016" t="n">
         <v>0</v>
       </c>
-      <c r="R1016" t="inlineStr"/>
+      <c r="R1016" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="1017">
+      <c r="A1017" s="2" t="n">
+        <v>45649</v>
+      </c>
+      <c r="B1017" t="n">
+        <v>19.89999961853027</v>
+      </c>
+      <c r="C1017" t="n">
+        <v>20.1200008392334</v>
+      </c>
+      <c r="D1017" t="n">
+        <v>19.70999908447266</v>
+      </c>
+      <c r="E1017" t="n">
+        <v>19.81999969482422</v>
+      </c>
+      <c r="F1017" t="inlineStr"/>
+      <c r="G1017" t="n">
+        <v>196561998</v>
+      </c>
+      <c r="H1017" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1017" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1017" t="n">
+        <v>23</v>
+      </c>
+      <c r="K1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1017" t="n">
+        <v>52</v>
+      </c>
+      <c r="O1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1017" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1017" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1017" t="inlineStr"/>
+    </row>
+    <row r="1018">
+      <c r="A1018" s="2" t="n">
+        <v>45656</v>
+      </c>
+      <c r="B1018" t="n">
+        <v>19.82999992370605</v>
+      </c>
+      <c r="C1018" t="n">
+        <v>20.19000053405762</v>
+      </c>
+      <c r="D1018" t="n">
+        <v>19.31999969482422</v>
+      </c>
+      <c r="E1018" t="n">
+        <v>19.95999908447266</v>
+      </c>
+      <c r="F1018" t="inlineStr"/>
+      <c r="G1018" t="n">
+        <v>362601727</v>
+      </c>
+      <c r="H1018" t="n">
+        <v>2024</v>
+      </c>
+      <c r="I1018" t="n">
+        <v>12</v>
+      </c>
+      <c r="J1018" t="n">
+        <v>30</v>
+      </c>
+      <c r="K1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1018" t="n">
+        <v>1</v>
+      </c>
+      <c r="O1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1018" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1018" t="inlineStr"/>
+    </row>
+    <row r="1019">
+      <c r="A1019" s="2" t="n">
+        <v>45663</v>
+      </c>
+      <c r="B1019" t="n">
+        <v>19.97999954223633</v>
+      </c>
+      <c r="C1019" t="n">
+        <v>20.03000068664551</v>
+      </c>
+      <c r="D1019" t="n">
+        <v>17.92000007629395</v>
+      </c>
+      <c r="E1019" t="n">
+        <v>17.95999908447266</v>
+      </c>
+      <c r="F1019" t="inlineStr"/>
+      <c r="G1019" t="n">
+        <v>449315060</v>
+      </c>
+      <c r="H1019" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1019" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1019" t="n">
+        <v>6</v>
+      </c>
+      <c r="K1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1019" t="n">
+        <v>2</v>
+      </c>
+      <c r="O1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1019" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1019" t="inlineStr"/>
+    </row>
+    <row r="1020">
+      <c r="A1020" s="2" t="n">
+        <v>45670</v>
+      </c>
+      <c r="B1020" t="n">
+        <v>17.93000030517578</v>
+      </c>
+      <c r="C1020" t="n">
+        <v>18.55999946594238</v>
+      </c>
+      <c r="D1020" t="n">
+        <v>17.05999946594238</v>
+      </c>
+      <c r="E1020" t="n">
+        <v>18.26000022888184</v>
+      </c>
+      <c r="F1020" t="inlineStr"/>
+      <c r="G1020" t="n">
+        <v>451471696</v>
+      </c>
+      <c r="H1020" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1020" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1020" t="n">
+        <v>13</v>
+      </c>
+      <c r="K1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1020" t="n">
+        <v>3</v>
+      </c>
+      <c r="O1020" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1020" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1020" t="inlineStr"/>
+    </row>
+    <row r="1021">
+      <c r="A1021" s="2" t="n">
+        <v>45677</v>
+      </c>
+      <c r="B1021" t="n">
+        <v>18.29000091552734</v>
+      </c>
+      <c r="C1021" t="n">
+        <v>19.1299991607666</v>
+      </c>
+      <c r="D1021" t="n">
+        <v>17.97999954223633</v>
+      </c>
+      <c r="E1021" t="n">
+        <v>18.23999977111816</v>
+      </c>
+      <c r="F1021" t="inlineStr"/>
+      <c r="G1021" t="n">
+        <v>434325637</v>
+      </c>
+      <c r="H1021" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1021" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1021" t="n">
+        <v>20</v>
+      </c>
+      <c r="K1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1021" t="n">
+        <v>4</v>
+      </c>
+      <c r="O1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1021" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1021" t="n">
+        <v>2</v>
+      </c>
+      <c r="R1021" t="inlineStr"/>
+    </row>
+    <row r="1022">
+      <c r="A1022" s="2" t="n">
+        <v>45684</v>
+      </c>
+      <c r="B1022" t="n">
+        <v>18.6299991607666</v>
+      </c>
+      <c r="C1022" t="n">
+        <v>19.3799991607666</v>
+      </c>
+      <c r="D1022" t="n">
+        <v>18.14999961853027</v>
+      </c>
+      <c r="E1022" t="n">
+        <v>19.03000068664551</v>
+      </c>
+      <c r="F1022" t="inlineStr"/>
+      <c r="G1022" t="n">
+        <v>707914747</v>
+      </c>
+      <c r="H1022" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1022" t="n">
+        <v>1</v>
+      </c>
+      <c r="J1022" t="n">
+        <v>27</v>
+      </c>
+      <c r="K1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1022" t="n">
+        <v>5</v>
+      </c>
+      <c r="O1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1022" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1022" t="inlineStr"/>
+    </row>
+    <row r="1023">
+      <c r="A1023" s="2" t="n">
+        <v>45691</v>
+      </c>
+      <c r="B1023" t="n">
+        <v>18.93000030517578</v>
+      </c>
+      <c r="C1023" t="n">
+        <v>19.55999946594238</v>
+      </c>
+      <c r="D1023" t="n">
+        <v>18.65999984741211</v>
+      </c>
+      <c r="E1023" t="n">
+        <v>19.1200008392334</v>
+      </c>
+      <c r="F1023" t="inlineStr"/>
+      <c r="G1023" t="n">
+        <v>311110645</v>
+      </c>
+      <c r="H1023" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1023" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1023" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1023" t="n">
+        <v>6</v>
+      </c>
+      <c r="O1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1023" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1023" t="inlineStr"/>
+    </row>
+    <row r="1024">
+      <c r="A1024" s="2" t="n">
+        <v>45698</v>
+      </c>
+      <c r="B1024" t="n">
+        <v>19.09000015258789</v>
+      </c>
+      <c r="C1024" t="n">
+        <v>19.19000053405762</v>
+      </c>
+      <c r="D1024" t="n">
+        <v>17.55999946594238</v>
+      </c>
+      <c r="E1024" t="n">
+        <v>17.76000022888184</v>
+      </c>
+      <c r="F1024" t="inlineStr"/>
+      <c r="G1024" t="n">
+        <v>328104730</v>
+      </c>
+      <c r="H1024" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1024" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1024" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1024" t="n">
+        <v>7</v>
+      </c>
+      <c r="O1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1024" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1024" t="inlineStr"/>
+    </row>
+    <row r="1025">
+      <c r="A1025" s="2" t="n">
+        <v>45705</v>
+      </c>
+      <c r="B1025" t="n">
+        <v>17.75</v>
+      </c>
+      <c r="C1025" t="n">
+        <v>18.42000007629395</v>
+      </c>
+      <c r="D1025" t="n">
+        <v>17.22999954223633</v>
+      </c>
+      <c r="E1025" t="n">
+        <v>17.93000030517578</v>
+      </c>
+      <c r="F1025" t="inlineStr"/>
+      <c r="G1025" t="n">
+        <v>336621470</v>
+      </c>
+      <c r="H1025" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1025" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1025" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1025" t="n">
+        <v>8</v>
+      </c>
+      <c r="O1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1025" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1025" t="inlineStr"/>
+    </row>
+    <row r="1026">
+      <c r="A1026" s="2" t="n">
+        <v>45712</v>
+      </c>
+      <c r="B1026" t="n">
+        <v>17.84000015258789</v>
+      </c>
+      <c r="C1026" t="n">
+        <v>18.10000038146973</v>
+      </c>
+      <c r="D1026" t="n">
+        <v>16.65999984741211</v>
+      </c>
+      <c r="E1026" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="F1026" t="inlineStr"/>
+      <c r="G1026" t="n">
+        <v>298817794</v>
+      </c>
+      <c r="H1026" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1026" t="n">
+        <v>2</v>
+      </c>
+      <c r="J1026" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1026" t="n">
+        <v>9</v>
+      </c>
+      <c r="O1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1026" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1026" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1026" t="inlineStr"/>
+    </row>
+    <row r="1027">
+      <c r="A1027" s="2" t="n">
+        <v>45719</v>
+      </c>
+      <c r="B1027" t="n">
+        <v>16.75</v>
+      </c>
+      <c r="C1027" t="n">
+        <v>17.25</v>
+      </c>
+      <c r="D1027" t="n">
+        <v>16.1299991607666</v>
+      </c>
+      <c r="E1027" t="n">
+        <v>16.8799991607666</v>
+      </c>
+      <c r="F1027" t="inlineStr"/>
+      <c r="G1027" t="n">
+        <v>472215120</v>
+      </c>
+      <c r="H1027" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1027" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1027" t="n">
+        <v>3</v>
+      </c>
+      <c r="K1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1027" t="n">
+        <v>10</v>
+      </c>
+      <c r="O1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1027" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1027" t="inlineStr"/>
+    </row>
+    <row r="1028">
+      <c r="A1028" s="2" t="n">
+        <v>45726</v>
+      </c>
+      <c r="B1028" t="n">
+        <v>16.8799991607666</v>
+      </c>
+      <c r="C1028" t="n">
+        <v>17.02000045776367</v>
+      </c>
+      <c r="D1028" t="n">
+        <v>16.02000045776367</v>
+      </c>
+      <c r="E1028" t="n">
+        <v>16.19000053405762</v>
+      </c>
+      <c r="F1028" t="inlineStr"/>
+      <c r="G1028" t="n">
+        <v>295868953</v>
+      </c>
+      <c r="H1028" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1028" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1028" t="n">
+        <v>10</v>
+      </c>
+      <c r="K1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1028" t="n">
+        <v>11</v>
+      </c>
+      <c r="O1028" t="n">
+        <v>2</v>
+      </c>
+      <c r="P1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1028" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1028" t="inlineStr"/>
+    </row>
+    <row r="1029">
+      <c r="A1029" s="2" t="n">
+        <v>45733</v>
+      </c>
+      <c r="B1029" t="n">
+        <v>16.29999923706055</v>
+      </c>
+      <c r="C1029" t="n">
+        <v>17.31999969482422</v>
+      </c>
+      <c r="D1029" t="n">
+        <v>16.09000015258789</v>
+      </c>
+      <c r="E1029" t="n">
+        <v>17.17000007629395</v>
+      </c>
+      <c r="F1029" t="inlineStr"/>
+      <c r="G1029" t="n">
+        <v>353296889</v>
+      </c>
+      <c r="H1029" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1029" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1029" t="n">
+        <v>17</v>
+      </c>
+      <c r="K1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1029" t="n">
+        <v>12</v>
+      </c>
+      <c r="O1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1029" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1029" t="inlineStr"/>
+    </row>
+    <row r="1030">
+      <c r="A1030" s="2" t="n">
+        <v>45740</v>
+      </c>
+      <c r="B1030" t="n">
+        <v>17.36000061035156</v>
+      </c>
+      <c r="C1030" t="n">
+        <v>17.53000068664551</v>
+      </c>
+      <c r="D1030" t="n">
+        <v>16.78000068664551</v>
+      </c>
+      <c r="E1030" t="n">
+        <v>16.8799991607666</v>
+      </c>
+      <c r="F1030" t="inlineStr"/>
+      <c r="G1030" t="n">
+        <v>595718953</v>
+      </c>
+      <c r="H1030" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1030" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1030" t="n">
+        <v>24</v>
+      </c>
+      <c r="K1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1030" t="n">
+        <v>13</v>
+      </c>
+      <c r="O1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1030" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1030" t="inlineStr"/>
+    </row>
+    <row r="1031">
+      <c r="A1031" s="2" t="n">
+        <v>45747</v>
+      </c>
+      <c r="B1031" t="n">
+        <v>16.8799991607666</v>
+      </c>
+      <c r="C1031" t="n">
+        <v>18.04000091552734</v>
+      </c>
+      <c r="D1031" t="n">
+        <v>16.6299991607666</v>
+      </c>
+      <c r="E1031" t="n">
+        <v>17.19000053405762</v>
+      </c>
+      <c r="F1031" t="inlineStr"/>
+      <c r="G1031" t="n">
+        <v>363945250</v>
+      </c>
+      <c r="H1031" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1031" t="n">
+        <v>3</v>
+      </c>
+      <c r="J1031" t="n">
+        <v>31</v>
+      </c>
+      <c r="K1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1031" t="n">
+        <v>14</v>
+      </c>
+      <c r="O1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1031" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1031" t="inlineStr"/>
+    </row>
+    <row r="1032">
+      <c r="A1032" s="2" t="n">
+        <v>45754</v>
+      </c>
+      <c r="B1032" t="n">
+        <v>16.20999908447266</v>
+      </c>
+      <c r="C1032" t="n">
+        <v>17.5</v>
+      </c>
+      <c r="D1032" t="n">
+        <v>16.15999984741211</v>
+      </c>
+      <c r="E1032" t="n">
+        <v>17.14999961853027</v>
+      </c>
+      <c r="F1032" t="inlineStr"/>
+      <c r="G1032" t="n">
+        <v>326219200</v>
+      </c>
+      <c r="H1032" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1032" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1032" t="n">
+        <v>7</v>
+      </c>
+      <c r="K1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1032" t="n">
+        <v>15</v>
+      </c>
+      <c r="O1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1032" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1032" t="inlineStr"/>
+    </row>
+    <row r="1033">
+      <c r="A1033" s="2" t="n">
+        <v>45761</v>
+      </c>
+      <c r="B1033" t="n">
+        <v>17.14999961853027</v>
+      </c>
+      <c r="C1033" t="n">
+        <v>18.14999961853027</v>
+      </c>
+      <c r="D1033" t="n">
+        <v>17.14999961853027</v>
+      </c>
+      <c r="E1033" t="n">
+        <v>18.09000015258789</v>
+      </c>
+      <c r="F1033" t="inlineStr"/>
+      <c r="G1033" t="n">
+        <v>246233130</v>
+      </c>
+      <c r="H1033" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1033" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1033" t="n">
+        <v>14</v>
+      </c>
+      <c r="K1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1033" t="n">
+        <v>16</v>
+      </c>
+      <c r="O1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1033" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1033" t="inlineStr"/>
+    </row>
+    <row r="1034">
+      <c r="A1034" s="2" t="n">
+        <v>45768</v>
+      </c>
+      <c r="B1034" t="n">
+        <v>19.13999938964844</v>
+      </c>
+      <c r="C1034" t="n">
+        <v>19.35000038146973</v>
+      </c>
+      <c r="D1034" t="n">
+        <v>17.6200008392334</v>
+      </c>
+      <c r="E1034" t="n">
+        <v>17.77000045776367</v>
+      </c>
+      <c r="F1034" t="inlineStr"/>
+      <c r="G1034" t="n">
+        <v>552192127</v>
+      </c>
+      <c r="H1034" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1034" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1034" t="n">
+        <v>21</v>
+      </c>
+      <c r="K1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1034" t="n">
+        <v>17</v>
+      </c>
+      <c r="O1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1034" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1034" t="n">
+        <v>1</v>
+      </c>
+      <c r="R1034" t="inlineStr"/>
+    </row>
+    <row r="1035">
+      <c r="A1035" s="2" t="n">
+        <v>45775</v>
+      </c>
+      <c r="B1035" t="n">
+        <v>17.78000068664551</v>
+      </c>
+      <c r="C1035" t="n">
+        <v>18.38999938964844</v>
+      </c>
+      <c r="D1035" t="n">
+        <v>17.63999938964844</v>
+      </c>
+      <c r="E1035" t="n">
+        <v>17.71999931335449</v>
+      </c>
+      <c r="F1035" t="inlineStr"/>
+      <c r="G1035" t="n">
+        <v>188189041</v>
+      </c>
+      <c r="H1035" t="n">
+        <v>2025</v>
+      </c>
+      <c r="I1035" t="n">
+        <v>4</v>
+      </c>
+      <c r="J1035" t="n">
+        <v>28</v>
+      </c>
+      <c r="K1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="L1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="M1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="N1035" t="n">
+        <v>18</v>
+      </c>
+      <c r="O1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="P1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q1035" t="n">
+        <v>0</v>
+      </c>
+      <c r="R1035" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
